--- a/doc/ITUB4cg_1anos.xlsx
+++ b/doc/ITUB4cg_1anos.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katerinewitkoski/Documents/analisysBeta/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858E37A-B476-6444-A41C-0FBE49B3913F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retornos" sheetId="1" r:id="rId1"/>
     <sheet name="Beta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -71,11 +77,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,12 +147,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -164,18 +188,23 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -941,58 +970,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>0.7088331515812341</c:v>
+                  <c:v>0.70883315158123406</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.109907958852197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.115127175368137</c:v>
+                  <c:v>-2.1151271753681371</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.1094091903719896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.2190580503833695</c:v>
+                  <c:v>-0.21905805038336951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7683863885839859</c:v>
+                  <c:v>0.76838638858398589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92592592592593</c:v>
+                  <c:v>0.92592592592593004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4047490555855404</c:v>
+                  <c:v>0.40474905558554042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.7256113947863518</c:v>
+                  <c:v>-0.72561139478635184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.5955603681645827</c:v>
+                  <c:v>-0.59556036816458269</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8442265795207016</c:v>
+                  <c:v>0.84422657952070157</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.566297596543342</c:v>
+                  <c:v>-1.5662975965433421</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.414266117969832</c:v>
+                  <c:v>-2.4142661179698321</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.755130728141686</c:v>
+                  <c:v>-2.7551307281416859</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.1445504481064064</c:v>
+                  <c:v>-0.14455044810640641</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.634626519976824</c:v>
+                  <c:v>-2.6346265199768242</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.3568242640499486</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.2666666666666817</c:v>
+                  <c:v>-0.26666666666668171</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-2.168746286393342</c:v>
@@ -1001,43 +1030,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.275432736106907</c:v>
+                  <c:v>1.2754327361069071</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.4992503748126</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.418020679468235</c:v>
+                  <c:v>1.4180206794682351</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3786775415088872</c:v>
+                  <c:v>0.37867754150888722</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.7254788160185766</c:v>
+                  <c:v>-0.72547881601857656</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.7307804735457446</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4416961130742081</c:v>
+                  <c:v>0.44169611307420809</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.1465845793022558</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1463700234192178</c:v>
+                  <c:v>0.14637002341921779</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.05846243788365513</c:v>
+                  <c:v>5.8462437883655127E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.759567630733271</c:v>
+                  <c:v>-0.75956763073327105</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4710038269061023</c:v>
+                  <c:v>0.47100382690610232</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.08409024318783</c:v>
+                  <c:v>-1.0840902431878301</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-0.5924170616113611</c:v>
@@ -1046,160 +1075,160 @@
                   <c:v>-0.3873659117997641</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5683517798384718</c:v>
+                  <c:v>0.56835177983847185</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.5948839976204545</c:v>
+                  <c:v>-0.59488399762045452</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1.047277079593067</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.6954944058058521</c:v>
+                  <c:v>-0.69549440580585209</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1827040194884111</c:v>
+                  <c:v>0.18270401948841111</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.06079027355622157</c:v>
+                  <c:v>-6.0790273556221568E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.1520681265206991</c:v>
+                  <c:v>-0.15206812652069909</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.6091989034419654</c:v>
+                  <c:v>-0.60919890344196537</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-1.287159056083365</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.4656938838869973</c:v>
+                  <c:v>0.46569388388699728</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.09270704573547395</c:v>
+                  <c:v>9.2707045735473947E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-0.185242358752713</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1855861429013395</c:v>
+                  <c:v>0.18558614290133951</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-0.3087372645878439</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.424589656240327</c:v>
+                  <c:v>-1.4245896562403271</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.6911718504555409</c:v>
+                  <c:v>-0.69117185045554086</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.6959822840873153</c:v>
+                  <c:v>0.69598228408731533</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.7854225573358464</c:v>
+                  <c:v>-0.78542255733584643</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.06333122229260635</c:v>
+                  <c:v>6.3331222292606348E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-2.373417721518989</c:v>
+                  <c:v>-2.3734177215189889</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.09724473257697319</c:v>
+                  <c:v>9.7244732576973192E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.036269430051817</c:v>
+                  <c:v>1.0362694300518169</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1602564102564097</c:v>
+                  <c:v>0.16025641025640969</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.088</c:v>
+                  <c:v>-1.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.776447751536713</c:v>
+                  <c:v>0.77644775153671297</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1.4446227929374</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.265822784810133</c:v>
+                  <c:v>-1.2658227848101331</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0.1923076923076916</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.3518873960332791</c:v>
+                  <c:v>-0.35188739603327912</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.380417335473516</c:v>
+                  <c:v>-1.3804173354735161</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.041666666666674</c:v>
+                  <c:v>1.0416666666666741</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.7087628865979356</c:v>
+                  <c:v>0.70876288659793563</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.5118362124120202</c:v>
+                  <c:v>0.51183621241202015</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.09505703422052481</c:v>
+                  <c:v>-9.5057034220524805E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.9831906121154477</c:v>
+                  <c:v>0.98319061211544767</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.9108040201005085</c:v>
+                  <c:v>0.91080402010050854</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.556178026766264</c:v>
+                  <c:v>1.5561780267662639</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5209929512718148</c:v>
+                  <c:v>0.52099295127181477</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.3048780487804992</c:v>
+                  <c:v>0.30487804878049918</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.03039513677810524</c:v>
+                  <c:v>-3.039513677810524E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.3040437823046638</c:v>
+                  <c:v>0.30404378230466378</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.2728099424067709</c:v>
+                  <c:v>0.27280994240677092</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.088270858524787</c:v>
+                  <c:v>-1.0882708585247871</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>-1.222493887530562</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.113861386138615</c:v>
+                  <c:v>-1.1138613861386151</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.09762202753443</c:v>
+                  <c:v>3.0976220275344302</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.6373292867981828</c:v>
+                  <c:v>-0.63732928679818279</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.015882712278572</c:v>
+                  <c:v>-2.0158827122785721</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.6234413965087282</c:v>
+                  <c:v>-0.62344139650872821</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-1.254705144291091</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.42947903430749</c:v>
+                  <c:v>-1.4294790343074899</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.901385755720275</c:v>
+                  <c:v>1.9013857557202749</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0.7906388361796246</c:v>
@@ -1208,7 +1237,7 @@
                   <c:v>-1.631628490743642</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.5422647527910662</c:v>
+                  <c:v>0.54226475279106623</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0.4441624365482344</c:v>
@@ -1217,22 +1246,22 @@
                   <c:v>-1.452937460518011</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.06410256410256387</c:v>
+                  <c:v>6.4102564102563875E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.5765534913517056</c:v>
+                  <c:v>0.57655349135170564</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.1273885350318471</c:v>
+                  <c:v>-0.12738853503184711</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.06377551020407823</c:v>
+                  <c:v>-6.3775510204078234E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.7338864071474216</c:v>
+                  <c:v>0.73388640714742159</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.74216027874563</c:v>
+                  <c:v>1.7421602787456301</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>1.027397260273988</c:v>
@@ -1241,10 +1270,10 @@
                   <c:v>0.1848998459167861</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.183943402030142</c:v>
+                  <c:v>2.1839434020301418</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.053582179409995</c:v>
+                  <c:v>-1.0535821794099951</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>-1.46029814420443</c:v>
@@ -1256,94 +1285,94 @@
                   <c:v>1.325115562403689</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.7603406326033957</c:v>
+                  <c:v>0.76034063260339568</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.1207364926048893</c:v>
+                  <c:v>-0.12073649260488931</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.535811423390745</c:v>
+                  <c:v>3.5358114233907449</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.1751313485113704</c:v>
+                  <c:v>-0.17513134851137041</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.5555555555555647</c:v>
+                  <c:v>-0.55555555555556468</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-1.940605704204634</c:v>
+                  <c:v>-1.9406057042046341</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-1.097271648873066</c:v>
+                  <c:v>-1.0972716488730661</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.409295352323836</c:v>
+                  <c:v>1.4092953523238361</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.034890597279725</c:v>
+                  <c:v>1.0348905972797251</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.175592625109755</c:v>
+                  <c:v>-0.17559262510975501</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.1465845793022447</c:v>
+                  <c:v>-0.14658457930224469</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.4110393423370495</c:v>
+                  <c:v>-0.41103934233704947</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.5601415094339535</c:v>
+                  <c:v>0.56014150943395347</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.05863383172091119</c:v>
+                  <c:v>5.8633831720911189E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.9961910342807023</c:v>
+                  <c:v>-0.99619103428070233</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.414323764427349</c:v>
+                  <c:v>-0.41432376442734897</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.4754829123328252</c:v>
+                  <c:v>-0.47548291233282519</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.9256494475962995</c:v>
+                  <c:v>-0.92564944759629952</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>1.084990958408683</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-1.103160405485981</c:v>
+                  <c:v>-1.1031604054859809</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.09044317154054404</c:v>
+                  <c:v>9.0443171540544043E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.7831325301204783</c:v>
+                  <c:v>0.78313253012047834</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.4482964734010664</c:v>
+                  <c:v>-0.44829647340106638</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.551786250375243</c:v>
+                  <c:v>2.5517862503752431</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.05854800936766491</c:v>
+                  <c:v>-5.854800936766491E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>-1.200937316930295</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.2964719833975504</c:v>
+                  <c:v>-0.29647198339755038</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.2973535533749683</c:v>
+                  <c:v>-0.29735355337496833</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.5666567253205912</c:v>
+                  <c:v>0.56665672532059119</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.5634638196915676</c:v>
+                  <c:v>0.56346381969156756</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>-2.123267472721913</c:v>
@@ -1352,31 +1381,31 @@
                   <c:v>-1.084664055438378</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.09137983551630313</c:v>
+                  <c:v>9.1379835516303132E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.8216676810712031</c:v>
+                  <c:v>-0.82166768107120314</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-1.258054617980986</c:v>
+                  <c:v>-1.2580546179809859</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.019888129272829</c:v>
+                  <c:v>2.0198881292728288</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>0.7005787389582796</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-4.083484573502727</c:v>
+                  <c:v>-4.0834845735027274</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-1.860611794386624</c:v>
+                  <c:v>-1.8606117943866241</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-0.1606683804627251</c:v>
+                  <c:v>-0.16066838046272511</c:v>
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>0.225297714837458</c:v>
@@ -1385,7 +1414,7 @@
                   <c:v>-1.091843288375083</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.6493506493506551</c:v>
+                  <c:v>0.64935064935065512</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>0.5483870967742055</c:v>
@@ -1394,109 +1423,109 @@
                   <c:v>-1.475777991658644</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.2279387821556567</c:v>
+                  <c:v>0.22793878215565669</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.4548408057180042</c:v>
+                  <c:v>0.45484080571800423</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.4527813712807305</c:v>
+                  <c:v>-0.45278137128073048</c:v>
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>1.656920077972712</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.2556727388942082</c:v>
+                  <c:v>-0.25567273889420822</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.4485741749439276</c:v>
+                  <c:v>0.44857417494392759</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.06379585326954373</c:v>
+                  <c:v>-6.3795853269543734E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.404404723906794</c:v>
+                  <c:v>1.4044047239067941</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.1573811772112133</c:v>
+                  <c:v>-0.15738117721121331</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.1261034047919218</c:v>
+                  <c:v>-0.12610340479192181</c:v>
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>-0.1893939393939337</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.09487666034155851</c:v>
+                  <c:v>9.4876660341558505E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.06319115323856206</c:v>
+                  <c:v>6.3191153238562059E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>1.073571203031243</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-2.28053733208371</c:v>
+                  <c:v>-2.2805373320837101</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.6713554987212156</c:v>
+                  <c:v>0.67135549872121558</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>1.111463956811698</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.287688442211055</c:v>
+                  <c:v>1.2876884422110551</c:v>
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>-0.2480620155038693</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-0.6838669567920452</c:v>
+                  <c:v>-0.68386695679204523</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-1.032863849765253</c:v>
+                  <c:v>-1.0328638497652529</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-1.549652118912093</c:v>
+                  <c:v>-1.5496521189120931</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.6745904272405956</c:v>
+                  <c:v>-0.67459042724059559</c:v>
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>1.034928848641647</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.03201024327784685</c:v>
+                  <c:v>-3.201024327784685E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>-0.5123278898495065</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.4505954296749382</c:v>
+                  <c:v>0.45059542967493821</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.8330663248958703</c:v>
+                  <c:v>-0.83306632489587029</c:v>
                 </c:pt>
                 <c:pt idx="179">
                   <c:v>-2.940226171243943</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.4993342210386276</c:v>
+                  <c:v>0.49933422103862762</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.6955945677376452</c:v>
+                  <c:v>0.69559456773764516</c:v>
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>-1.249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.099267155229844</c:v>
+                  <c:v>-1.0992671552298441</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.8757157292017537</c:v>
+                  <c:v>0.87571572920175367</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.801335559265437</c:v>
+                  <c:v>-0.80133555926543698</c:v>
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>-0.1346348030966005</c:v>
@@ -1505,34 +1534,34 @@
                   <c:v>0.2359285473542139</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1.513113651647613</c:v>
+                  <c:v>-1.5131136516476129</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.6828269033799961</c:v>
+                  <c:v>-0.68282690337999608</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.9625300790649716</c:v>
+                  <c:v>-0.96253007906497157</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.2429711905588272</c:v>
+                  <c:v>0.24297119055882721</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.5540166204986097</c:v>
+                  <c:v>0.55401662049860967</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.1377410468319518</c:v>
+                  <c:v>0.13774104683195179</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.6189821182943644</c:v>
+                  <c:v>-0.61898211829436445</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.1730103806228289</c:v>
+                  <c:v>0.17301038062282889</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.9671848013816819</c:v>
+                  <c:v>-0.96718480138168195</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.4883153121730044</c:v>
+                  <c:v>-0.48831531217300439</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>-1.577287066246069</c:v>
@@ -1541,22 +1570,22 @@
                   <c:v>-1.460113960113951</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.6866642573183812</c:v>
+                  <c:v>0.68666425731838121</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-1.184493898061734</c:v>
+                  <c:v>-1.1844938980617341</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.4722121322194073</c:v>
+                  <c:v>-0.47221213221940728</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-0.4379562043795526</c:v>
+                  <c:v>-0.43795620437955263</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-2.712609970674495</c:v>
+                  <c:v>-2.7126099706744951</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-0.9419743782969059</c:v>
+                  <c:v>-0.94197437829690589</c:v>
                 </c:pt>
                 <c:pt idx="206">
                   <c:v>-2.66260935717002</c:v>
@@ -1565,13 +1594,13 @@
                   <c:v>-1.406799531066816</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.9908838684106192</c:v>
+                  <c:v>0.99088386841061915</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.7849293563579218</c:v>
+                  <c:v>0.78492935635792183</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.518691588785059</c:v>
+                  <c:v>1.5186915887850589</c:v>
                 </c:pt>
                 <c:pt idx="211">
                   <c:v>-2.416570771001147</c:v>
@@ -1583,16 +1612,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.1181567546278073</c:v>
+                  <c:v>-0.11815675462780729</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.3943217665615117</c:v>
+                  <c:v>0.39432176656151169</c:v>
                 </c:pt>
                 <c:pt idx="216">
                   <c:v>-1.139041633935578</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.105681366706391</c:v>
+                  <c:v>2.1056813667063912</c:v>
                 </c:pt>
                 <c:pt idx="218">
                   <c:v>1.517509727626454</c:v>
@@ -1601,16 +1630,16 @@
                   <c:v>-0.1533154465312325</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>1.036468330134355</c:v>
+                  <c:v>1.0364683301343549</c:v>
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>-1.253799392097277</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.1154290111581524</c:v>
+                  <c:v>0.11542901115815241</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.8839354342813133</c:v>
+                  <c:v>0.88393543428131327</c:v>
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>-0.952380952380949</c:v>
@@ -1622,19 +1651,19 @@
                   <c:v>-2.265625000000004</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1.278976818545163</c:v>
+                  <c:v>1.2789768185451631</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>0.9471191791633693</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.1563721657545036</c:v>
+                  <c:v>0.15637216575450361</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-2.576112412177989</c:v>
+                  <c:v>-2.5761124121779888</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.2003205128205066</c:v>
+                  <c:v>0.20032051282050661</c:v>
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>1.479408236705315</c:v>
@@ -1643,37 +1672,37 @@
                   <c:v>-0.2758077226162392</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.276570525483999</c:v>
+                  <c:v>0.27657052548399902</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.324665090622546</c:v>
+                  <c:v>2.3246650906225459</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-1.655756642279549</c:v>
+                  <c:v>-1.6557566422795491</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.2740798747063344</c:v>
+                  <c:v>0.27407987470633438</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.2733307301835186</c:v>
+                  <c:v>0.27333073018351861</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.1947040498442298</c:v>
+                  <c:v>0.19470404984422979</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.3886513797123792</c:v>
+                  <c:v>0.38865137971237917</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-0.5032907471931858</c:v>
+                  <c:v>-0.50329074719318578</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-0.5447470817120603</c:v>
+                  <c:v>-0.54474708171206032</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-7.014925373134329</c:v>
+                  <c:v>-7.0149253731343286</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-0.160513643659721</c:v>
+                  <c:v>-0.16051364365972101</c:v>
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>1.0048231511254</c:v>
@@ -1682,14 +1711,20 @@
                   <c:v>1.512136888181459</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-6.941431670282006</c:v>
+                  <c:v>-6.9414316702820056</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-0.8547008547008517</c:v>
+                  <c:v>-0.85470085470085166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6184-9540-A622-07ED7E925025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1697,6 +1732,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2462,181 +2500,181 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>-0.9487127213420266</c:v>
+                  <c:v>-0.94871272134202655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.415277534070313</c:v>
+                  <c:v>0.41527753407031298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.0825486342949433</c:v>
+                  <c:v>-8.2548634294943302E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9446345348357088</c:v>
+                  <c:v>0.94463453483570881</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3218098288859439</c:v>
+                  <c:v>0.32180982888594389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.9460370500644855</c:v>
+                  <c:v>-0.94603705006448546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2770286654860454</c:v>
+                  <c:v>0.27702866548604538</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2275773689404792</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.362418161593992</c:v>
+                  <c:v>1.3624181615939921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.1490835091276344</c:v>
+                  <c:v>-0.14908350912763441</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6263220270330994</c:v>
+                  <c:v>0.62632202703309936</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6948745449327109</c:v>
+                  <c:v>0.69487454493271095</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9777601513163869</c:v>
+                  <c:v>0.97776015131638694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3835700340695913</c:v>
+                  <c:v>0.38357003406959128</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.51871973636144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8995090735135047</c:v>
+                  <c:v>0.89950907351350473</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9875897898896868</c:v>
+                  <c:v>0.98758978988968682</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7958808972619247</c:v>
+                  <c:v>0.79588089726192468</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.4640297487565004</c:v>
+                  <c:v>-0.46402974875650038</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.209623611601707</c:v>
+                  <c:v>-1.2096236116017069</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.2013286121643199</c:v>
+                  <c:v>-0.20132861216431991</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.199470425483007</c:v>
+                  <c:v>1.1994704254830071</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.6419648061502636</c:v>
+                  <c:v>-0.64196480615026363</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.4219872619458442</c:v>
+                  <c:v>-0.42198726194584418</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1.221080712005973</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.3709768001075808</c:v>
+                  <c:v>-0.37097680010758077</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.1319219527608828</c:v>
+                  <c:v>-0.13192195276088281</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.9932738933208229</c:v>
+                  <c:v>-0.99327389332082294</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1911985957873563</c:v>
+                  <c:v>0.19119859578735629</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.02820167329927736</c:v>
+                  <c:v>-2.820167329927736E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-1.388953263808423</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2633413368445581</c:v>
+                  <c:v>0.26334133684455813</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.1631598889584862</c:v>
+                  <c:v>-0.16315988895848621</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.3289448164037978</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4700141861661455</c:v>
+                  <c:v>0.47001418616614549</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.8457922621012859</c:v>
+                  <c:v>0.84579226210128589</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0865405796645291</c:v>
+                  <c:v>8.6540579664529105E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4425198343711578</c:v>
+                  <c:v>0.44251983437115783</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2225442910657627</c:v>
+                  <c:v>0.22254429106576271</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.08163977045749782</c:v>
+                  <c:v>8.1639770457497818E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3994843309831131</c:v>
+                  <c:v>0.39948433098311309</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.7011948360005515</c:v>
+                  <c:v>0.70119483600055155</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.05532481277763512</c:v>
+                  <c:v>5.5324812777635117E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.654523150427333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.3225858351835753</c:v>
+                  <c:v>-0.32258583518357531</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.359251799969008</c:v>
+                  <c:v>1.3592517999690079</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.253410827999434</c:v>
+                  <c:v>0.25341082799943399</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.2495168668509518</c:v>
+                  <c:v>-0.24951686685095181</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.068064380547384</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.7430715839463309</c:v>
+                  <c:v>0.74307158394633088</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1538320818885497</c:v>
+                  <c:v>0.15383208188854969</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5274596673075393</c:v>
+                  <c:v>0.52745966730753935</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.4129664758515394</c:v>
+                  <c:v>0.41296647585153939</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.4379000852400949</c:v>
+                  <c:v>-0.43790008524009488</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.07861635220125507</c:v>
+                  <c:v>7.8616352201255069E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.306830309498396</c:v>
+                  <c:v>-0.30683030949839601</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.396801907345746</c:v>
+                  <c:v>-1.3968019073457461</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.7245776747267341</c:v>
+                  <c:v>0.72457767472673407</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.005796285409098711</c:v>
+                  <c:v>-5.7962854090987106E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-1.734757809258014</c:v>
@@ -2645,40 +2683,40 @@
                   <c:v>1.228924197122083</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.3242968095761967</c:v>
+                  <c:v>-0.32429680957619672</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.1884751540579543</c:v>
+                  <c:v>-0.18847515405795431</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.05405493947484574</c:v>
+                  <c:v>-5.4054939474845742E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.4963042043241161</c:v>
+                  <c:v>-0.49630420432411609</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.8668605590563927</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.5751188793214235</c:v>
+                  <c:v>-0.57511887932142347</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1528486155133235</c:v>
+                  <c:v>0.15284861551332349</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>-0.3391352452116192</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.732988460007955</c:v>
+                  <c:v>-0.73298846000795503</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.382915267007823</c:v>
+                  <c:v>-1.3829152670078231</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.2653599580433763</c:v>
+                  <c:v>-0.26535995804337631</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.3121317820383718</c:v>
+                  <c:v>-0.31213178203837177</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-0.1036762183904472</c:v>
@@ -2687,133 +2725,133 @@
                   <c:v>0.1999562595682125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.3789440921293186</c:v>
+                  <c:v>-0.37894409212931862</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.2809098357457795</c:v>
+                  <c:v>0.28090983574577949</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0.4349529780564243</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.4587012824913361</c:v>
+                  <c:v>-0.45870128249133613</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.9986021115067079</c:v>
+                  <c:v>-0.99860211150670786</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0.2097360885380484</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.57914156274812</c:v>
+                  <c:v>0.57914156274812001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.03346069146907826</c:v>
+                  <c:v>-3.3460691469078263E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.091077862211098</c:v>
+                  <c:v>1.0910778622110979</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.9513674915028192</c:v>
+                  <c:v>0.95136749150281918</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.121301589295809</c:v>
+                  <c:v>-1.1213015892958089</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.6528302483284065</c:v>
+                  <c:v>0.65283024832840653</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.50827142467469</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.07615779895944197</c:v>
+                  <c:v>-7.6157798959441969E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.3252149455045261</c:v>
+                  <c:v>-0.32521494550452612</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>-0.3384485518383773</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.35884402672548</c:v>
+                  <c:v>0.35884402672547999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.7472060291796812</c:v>
+                  <c:v>0.74720602917968115</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.02013352554139924</c:v>
+                  <c:v>2.0133525541399241E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.1752566545273337</c:v>
+                  <c:v>-0.17525665452733369</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.7539853511417505</c:v>
+                  <c:v>-0.75398535114175047</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.4859225382306653</c:v>
+                  <c:v>-0.48592253823066528</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.138183302458473</c:v>
+                  <c:v>-1.1381833024584731</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.5138457213363146</c:v>
+                  <c:v>-0.51384572133631456</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>-1.413503733928712</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.8016638599377623</c:v>
+                  <c:v>0.80166385993776235</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>1.62624709176229</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.4967511065072094</c:v>
+                  <c:v>-0.49675110650720938</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.0863978384831654</c:v>
+                  <c:v>8.6397838483165401E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.1811068687328055</c:v>
+                  <c:v>-0.18110686873280549</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.4401921411134824</c:v>
+                  <c:v>0.44019214111348243</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.8711535759449163</c:v>
+                  <c:v>-0.87115357594491627</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.3250033283473286</c:v>
+                  <c:v>0.32500332834732859</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.6526725680458423</c:v>
+                  <c:v>0.65267256804584228</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.0535724133584381</c:v>
+                  <c:v>-5.3572413358438098E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.07557448416478652</c:v>
+                  <c:v>-7.5574484164786515E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>-0.8832778033536437</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.7481122942884832</c:v>
+                  <c:v>-0.74811229428848325</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.251480055516785</c:v>
+                  <c:v>1.2514800555167851</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.4529199552593788</c:v>
+                  <c:v>0.45291995525937878</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.1672689400514349</c:v>
+                  <c:v>0.16726894005143489</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.7424230558383593</c:v>
+                  <c:v>-0.74242305583835932</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.2468634282768001</c:v>
+                  <c:v>-0.24686342827680011</c:v>
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>0.2647491932199042</c:v>
@@ -2822,61 +2860,61 @@
                   <c:v>1.224192064951946</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.7452526540280613</c:v>
+                  <c:v>-0.74525265402806129</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>-0.9887798036465667</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.4267204593063845</c:v>
+                  <c:v>-0.42672045930638453</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.6182766319536626</c:v>
+                  <c:v>0.61827663195366256</c:v>
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>-0.1893393381694031</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.6494813438612801</c:v>
+                  <c:v>-0.64948134386128009</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>0.1240117811192043</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.8720371864315624</c:v>
+                  <c:v>-0.87203718643156236</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-1.164865706323226</c:v>
+                  <c:v>-1.1648657063232259</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.604826825297634</c:v>
+                  <c:v>1.6048268252976341</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>0.1468099738060058</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.6311376601838115</c:v>
+                  <c:v>-0.63113766018381146</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.1607296665436131</c:v>
+                  <c:v>0.16072966654361309</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.08928846331475171</c:v>
+                  <c:v>8.9288463314751709E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.6819802225735527</c:v>
+                  <c:v>0.68198022257355273</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.2408215900439714</c:v>
+                  <c:v>0.24082159004397141</c:v>
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>0.7214171700416161</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.6188099324505147</c:v>
+                  <c:v>0.61880993245051474</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.7873400715479706</c:v>
+                  <c:v>-0.78734007154797059</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>-0.1489662057293506</c:v>
@@ -2885,10 +2923,10 @@
                   <c:v>-1.073236219986418</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.6195558827137737</c:v>
+                  <c:v>-0.61955588271377371</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.212503820742517</c:v>
+                  <c:v>2.2125038207425169</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>0.3231589375854993</c:v>
@@ -2897,64 +2935,64 @@
                   <c:v>-1.011044434585662</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.570636858914142</c:v>
+                  <c:v>0.57063685891414195</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.2747209619943236</c:v>
+                  <c:v>0.27472096199432361</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.8567893356575373</c:v>
+                  <c:v>-0.85678933565753734</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-0.3597819597261354</c:v>
+                  <c:v>-0.35978195972613541</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.6226154530346584</c:v>
+                  <c:v>0.62261545303465837</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.2761782562433535</c:v>
+                  <c:v>0.27617825624335351</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.3485026858875861</c:v>
+                  <c:v>-0.34850268588758609</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.311985592644671</c:v>
+                  <c:v>1.3119855926446711</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.8101162681375174</c:v>
+                  <c:v>-0.81011626813751736</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.2513431147695533</c:v>
+                  <c:v>0.25134311476955329</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.9399022750614661</c:v>
+                  <c:v>-0.93990227506146606</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.5955419431682873</c:v>
+                  <c:v>-0.59554194316828735</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-1.693265714220538</c:v>
+                  <c:v>-1.6932657142205381</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.4069075029773828</c:v>
+                  <c:v>0.40690750297738282</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.259473857434811</c:v>
+                  <c:v>0.25947385743481099</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.146742993404203</c:v>
+                  <c:v>-0.14674299340420299</c:v>
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>-0.4610223131756519</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.7400303563472654</c:v>
+                  <c:v>-0.74003035634726544</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.3060072866091446</c:v>
+                  <c:v>0.30600728660914461</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.6073491533689968</c:v>
+                  <c:v>0.60734915336899675</c:v>
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>-1.210533447761863</c:v>
@@ -2966,67 +3004,67 @@
                   <c:v>-1.108916793978465</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-0.006706708198578326</c:v>
+                  <c:v>-6.7067081985783261E-3</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.4950087244351531</c:v>
+                  <c:v>0.49500872443515309</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.5875573433368642</c:v>
+                  <c:v>0.58755734333686416</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.431980148583011</c:v>
+                  <c:v>0.43198014858301098</c:v>
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>1.053484602917343</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.7940781639881433</c:v>
+                  <c:v>-0.79407816398814335</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.5851209911202027</c:v>
+                  <c:v>0.58512099112020266</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.6812752982019665</c:v>
+                  <c:v>0.68127529820196653</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.4929609758334452</c:v>
+                  <c:v>-0.49296097583344523</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>1.063607924921794</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.422410860501722</c:v>
+                  <c:v>2.4224108605017221</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.4042043556367947</c:v>
+                  <c:v>-0.40420435563679469</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.1400538184336053</c:v>
+                  <c:v>-0.14005381843360529</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.8602491865725037</c:v>
+                  <c:v>0.86024918657250371</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.3080646060036774</c:v>
+                  <c:v>0.30806460600367741</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.008644397689573</c:v>
+                  <c:v>-1.0086443976895729</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.07886248748059099</c:v>
+                  <c:v>7.8862487480590993E-2</c:v>
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>-1.014808396368549</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.6062938326095058</c:v>
+                  <c:v>0.60629383260950576</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.975408601042016</c:v>
+                  <c:v>0.97540860104201599</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-0.3453508037111419</c:v>
+                  <c:v>-0.34535080371114191</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>0.6802829340483596</c:v>
@@ -3035,58 +3073,58 @@
                   <c:v>0.1123130107852255</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.8169005182657063</c:v>
+                  <c:v>-0.81690051826570631</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.4292458444083103</c:v>
+                  <c:v>0.42924584440831032</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.3407453406259142</c:v>
+                  <c:v>0.34074534062591422</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.3870097942027861</c:v>
+                  <c:v>-0.38700979420278608</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.8259903088068343</c:v>
+                  <c:v>0.82599030880683433</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.3901232982275848</c:v>
+                  <c:v>0.39012329822758479</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1.011935651271401</c:v>
+                  <c:v>1.0119356512714011</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.452316076294281</c:v>
+                  <c:v>2.4523160762942808</c:v>
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>-0.2155243874133794</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.364568278829026</c:v>
+                  <c:v>1.3645682788290261</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-0.07304847227936895</c:v>
+                  <c:v>-7.3048472279368948E-2</c:v>
                 </c:pt>
                 <c:pt idx="202">
                   <c:v>-0.1416976892376853</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.6591440411184424</c:v>
+                  <c:v>0.65914404111844238</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.2767433987813206</c:v>
+                  <c:v>0.27674339878132059</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.700494554683486</c:v>
+                  <c:v>2.7004945546834862</c:v>
                 </c:pt>
                 <c:pt idx="206">
                   <c:v>1.68723043201584</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.5438453062240001</c:v>
+                  <c:v>0.54384530622400007</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-0.6787230474576522</c:v>
+                  <c:v>-0.67872304745765222</c:v>
                 </c:pt>
                 <c:pt idx="209">
                   <c:v>-1.285971928173768</c:v>
@@ -3095,49 +3133,49 @@
                   <c:v>1.72560489231588</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.8192542325205276</c:v>
+                  <c:v>-0.81925423252052765</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.8662499445848404</c:v>
+                  <c:v>0.86624994458484039</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-0.326985108921396</c:v>
+                  <c:v>-0.32698510892139598</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.7447107119048502</c:v>
+                  <c:v>-0.74471071190485016</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-0.04909696650885476</c:v>
+                  <c:v>-4.9096966508854763E-2</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-1.594367946992448</c:v>
+                  <c:v>-1.5943679469924481</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.5371822815658955</c:v>
+                  <c:v>-0.53718228156589554</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.6738428045683031</c:v>
+                  <c:v>0.67384280456830314</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-1.108064006287857</c:v>
+                  <c:v>-1.1080640062878571</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.2689807002064448</c:v>
+                  <c:v>0.26898070020644482</c:v>
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>1.372920212581197</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.8636244197249621</c:v>
+                  <c:v>0.86362441972496207</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.7821051516542443</c:v>
+                  <c:v>0.78210515165424432</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.2843134665997726</c:v>
+                  <c:v>-0.28431346659977258</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.1657570601045766</c:v>
+                  <c:v>0.16575706010457661</c:v>
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>-1.423642194738262</c:v>
@@ -3146,81 +3184,96 @@
                   <c:v>-1.293698794663922</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.7206366487803706</c:v>
+                  <c:v>0.72063664878037059</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1.228056364638275</c:v>
+                  <c:v>1.2280563646382749</c:v>
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>0.117345196290497</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-1.494069441449208</c:v>
+                  <c:v>-1.4940694414492079</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.07240817522778942</c:v>
+                  <c:v>-7.2408175227789418E-2</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.1170950105471635</c:v>
+                  <c:v>-0.11709501054716349</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-2.148363452546442</c:v>
+                  <c:v>-2.1483634525464419</c:v>
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>0.7204317499108992</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.3736642770188037</c:v>
+                  <c:v>-0.37366427701880373</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-0.3957628117684742</c:v>
+                  <c:v>-0.39576281176847422</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-0.53102385419459</c:v>
+                  <c:v>-0.53102385419458997</c:v>
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>1.028973734091521</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.176319001763181</c:v>
+                  <c:v>0.17631900176318099</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.9282787060564734</c:v>
+                  <c:v>0.92827870605647345</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1.361511711602326</c:v>
+                  <c:v>1.3615117116023261</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-0.5793852653360299</c:v>
+                  <c:v>-0.57938526533602985</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>-1.14718190418559</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-0.3786817460115333</c:v>
+                  <c:v>-0.37868174601153332</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-0.09839430670184335</c:v>
+                  <c:v>-9.8394306701843348E-2</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1.858443780131669</c:v>
+                  <c:v>1.8584437801316691</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-1.525503041647169</c:v>
+                  <c:v>-1.5255030416471691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6184-9540-A622-07ED7E925025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3238,20 +3291,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="mm/yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3270,9 +3328,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -3281,9 +3341,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3310,7 +3372,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3329,9 +3397,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3369,7 +3437,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3403,6 +3471,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3437,9 +3506,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3612,14 +3682,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3630,21 +3705,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45533</v>
       </c>
       <c r="B2">
-        <v>0.7088331515812341</v>
+        <v>0.70883315158123406</v>
       </c>
       <c r="C2">
-        <v>-0.9487127213420266</v>
+        <v>-0.94871272134202655</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45532</v>
       </c>
@@ -3652,27 +3727,27 @@
         <v>1.109907958852197</v>
       </c>
       <c r="C3">
-        <v>0.415277534070313</v>
+        <v>0.41527753407031298</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45531</v>
       </c>
       <c r="B4">
-        <v>-2.115127175368137</v>
+        <v>-2.1151271753681371</v>
       </c>
       <c r="C4">
-        <v>-0.0825486342949433</v>
+        <v>-8.2548634294943302E-2</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45530</v>
       </c>
@@ -3680,60 +3755,60 @@
         <v>-0.1094091903719896</v>
       </c>
       <c r="C5">
-        <v>0.9446345348357088</v>
+        <v>0.94463453483570881</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45527</v>
       </c>
       <c r="B6">
-        <v>-0.2190580503833695</v>
+        <v>-0.21905805038336951</v>
       </c>
       <c r="C6">
-        <v>0.3218098288859439</v>
+        <v>0.32180982888594389</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45526</v>
       </c>
       <c r="B7">
-        <v>0.7683863885839859</v>
+        <v>0.76838638858398589</v>
       </c>
       <c r="C7">
-        <v>-0.9460370500644855</v>
+        <v>-0.94603705006448546</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45525</v>
       </c>
       <c r="B8">
-        <v>0.92592592592593</v>
+        <v>0.92592592592593004</v>
       </c>
       <c r="C8">
-        <v>0.2770286654860454</v>
+        <v>0.27702866548604538</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45524</v>
       </c>
       <c r="B9">
-        <v>0.4047490555855404</v>
+        <v>0.40474905558554042</v>
       </c>
       <c r="C9">
         <v>0.2275773689404792</v>
@@ -3742,96 +3817,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45523</v>
       </c>
       <c r="B10">
-        <v>-0.7256113947863518</v>
+        <v>-0.72561139478635184</v>
       </c>
       <c r="C10">
-        <v>1.362418161593992</v>
+        <v>1.3624181615939921</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45520</v>
       </c>
       <c r="B11">
-        <v>-0.5955603681645827</v>
+        <v>-0.59556036816458269</v>
       </c>
       <c r="C11">
-        <v>-0.1490835091276344</v>
+        <v>-0.14908350912763441</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45519</v>
       </c>
       <c r="B12">
-        <v>0.8442265795207016</v>
+        <v>0.84422657952070157</v>
       </c>
       <c r="C12">
-        <v>0.6263220270330994</v>
+        <v>0.62632202703309936</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45518</v>
       </c>
       <c r="B13">
-        <v>-1.566297596543342</v>
+        <v>-1.5662975965433421</v>
       </c>
       <c r="C13">
-        <v>0.6948745449327109</v>
+        <v>0.69487454493271095</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45517</v>
       </c>
       <c r="B14">
-        <v>-2.414266117969832</v>
+        <v>-2.4142661179698321</v>
       </c>
       <c r="C14">
-        <v>0.9777601513163869</v>
+        <v>0.97776015131638694</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45516</v>
       </c>
       <c r="B15">
-        <v>-2.755130728141686</v>
+        <v>-2.7551307281416859</v>
       </c>
       <c r="C15">
-        <v>0.3835700340695913</v>
+        <v>0.38357003406959128</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45513</v>
       </c>
       <c r="B16">
-        <v>-0.1445504481064064</v>
+        <v>-0.14455044810640641</v>
       </c>
       <c r="C16">
         <v>1.51871973636144</v>
@@ -3840,21 +3915,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45512</v>
       </c>
       <c r="B17">
-        <v>-2.634626519976824</v>
+        <v>-2.6346265199768242</v>
       </c>
       <c r="C17">
-        <v>0.8995090735135047</v>
+        <v>0.89950907351350473</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45511</v>
       </c>
@@ -3862,27 +3937,27 @@
         <v>0.3568242640499486</v>
       </c>
       <c r="C18">
-        <v>0.9875897898896868</v>
+        <v>0.98758978988968682</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45510</v>
       </c>
       <c r="B19">
-        <v>-0.2666666666666817</v>
+        <v>-0.26666666666668171</v>
       </c>
       <c r="C19">
-        <v>0.7958808972619247</v>
+        <v>0.79588089726192468</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45509</v>
       </c>
@@ -3890,13 +3965,13 @@
         <v>-2.168746286393342</v>
       </c>
       <c r="C20">
-        <v>-0.4640297487565004</v>
+        <v>-0.46402974875650038</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45506</v>
       </c>
@@ -3904,27 +3979,27 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>-1.209623611601707</v>
+        <v>-1.2096236116017069</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45505</v>
       </c>
       <c r="B22">
-        <v>1.275432736106907</v>
+        <v>1.2754327361069071</v>
       </c>
       <c r="C22">
-        <v>-0.2013286121643199</v>
+        <v>-0.20132861216431991</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45504</v>
       </c>
@@ -3932,46 +4007,46 @@
         <v>1.4992503748126</v>
       </c>
       <c r="C23">
-        <v>1.199470425483007</v>
+        <v>1.1994704254830071</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45503</v>
       </c>
       <c r="B24">
-        <v>1.418020679468235</v>
+        <v>1.4180206794682351</v>
       </c>
       <c r="C24">
-        <v>-0.6419648061502636</v>
+        <v>-0.64196480615026363</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45502</v>
       </c>
       <c r="B25">
-        <v>0.3786775415088872</v>
+        <v>0.37867754150888722</v>
       </c>
       <c r="C25">
-        <v>-0.4219872619458442</v>
+        <v>-0.42198726194584418</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45499</v>
       </c>
       <c r="B26">
-        <v>-0.7254788160185766</v>
+        <v>-0.72547881601857656</v>
       </c>
       <c r="C26">
         <v>1.221080712005973</v>
@@ -3980,7 +4055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45498</v>
       </c>
@@ -3988,27 +4063,27 @@
         <v>-0.7307804735457446</v>
       </c>
       <c r="C27">
-        <v>-0.3709768001075808</v>
+        <v>-0.37097680010758077</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45497</v>
       </c>
       <c r="B28">
-        <v>0.4416961130742081</v>
+        <v>0.44169611307420809</v>
       </c>
       <c r="C28">
-        <v>-0.1319219527608828</v>
+        <v>-0.13192195276088281</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45496</v>
       </c>
@@ -4016,46 +4091,46 @@
         <v>0.1465845793022558</v>
       </c>
       <c r="C29">
-        <v>-0.9932738933208229</v>
+        <v>-0.99327389332082294</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45495</v>
       </c>
       <c r="B30">
-        <v>0.1463700234192178</v>
+        <v>0.14637002341921779</v>
       </c>
       <c r="C30">
-        <v>0.1911985957873563</v>
+        <v>0.19119859578735629</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45492</v>
       </c>
       <c r="B31">
-        <v>0.05846243788365513</v>
+        <v>5.8462437883655127E-2</v>
       </c>
       <c r="C31">
-        <v>-0.02820167329927736</v>
+        <v>-2.820167329927736E-2</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45491</v>
       </c>
       <c r="B32">
-        <v>-0.759567630733271</v>
+        <v>-0.75956763073327105</v>
       </c>
       <c r="C32">
         <v>-1.388953263808423</v>
@@ -4064,35 +4139,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45490</v>
       </c>
       <c r="B33">
-        <v>0.4710038269061023</v>
+        <v>0.47100382690610232</v>
       </c>
       <c r="C33">
-        <v>0.2633413368445581</v>
+        <v>0.26334133684455813</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45489</v>
       </c>
       <c r="B34">
-        <v>-1.08409024318783</v>
+        <v>-1.0840902431878301</v>
       </c>
       <c r="C34">
-        <v>-0.1631598889584862</v>
+        <v>-0.16315988895848621</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45488</v>
       </c>
@@ -4106,7 +4181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45485</v>
       </c>
@@ -4114,41 +4189,41 @@
         <v>-0.3873659117997641</v>
       </c>
       <c r="C36">
-        <v>0.4700141861661455</v>
+        <v>0.47001418616614549</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45484</v>
       </c>
       <c r="B37">
-        <v>0.5683517798384718</v>
+        <v>0.56835177983847185</v>
       </c>
       <c r="C37">
-        <v>0.8457922621012859</v>
+        <v>0.84579226210128589</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45483</v>
       </c>
       <c r="B38">
-        <v>-0.5948839976204545</v>
+        <v>-0.59488399762045452</v>
       </c>
       <c r="C38">
-        <v>0.0865405796645291</v>
+        <v>8.6540579664529105E-2</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45482</v>
       </c>
@@ -4156,83 +4231,83 @@
         <v>-1.047277079593067</v>
       </c>
       <c r="C39">
-        <v>0.4425198343711578</v>
+        <v>0.44251983437115783</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45481</v>
       </c>
       <c r="B40">
-        <v>-0.6954944058058521</v>
+        <v>-0.69549440580585209</v>
       </c>
       <c r="C40">
-        <v>0.2225442910657627</v>
+        <v>0.22254429106576271</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45478</v>
       </c>
       <c r="B41">
-        <v>0.1827040194884111</v>
+        <v>0.18270401948841111</v>
       </c>
       <c r="C41">
-        <v>0.08163977045749782</v>
+        <v>8.1639770457497818E-2</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45477</v>
       </c>
       <c r="B42">
-        <v>-0.06079027355622157</v>
+        <v>-6.0790273556221568E-2</v>
       </c>
       <c r="C42">
-        <v>0.3994843309831131</v>
+        <v>0.39948433098311309</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45476</v>
       </c>
       <c r="B43">
-        <v>-0.1520681265206991</v>
+        <v>-0.15206812652069909</v>
       </c>
       <c r="C43">
-        <v>0.7011948360005515</v>
+        <v>0.70119483600055155</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45475</v>
       </c>
       <c r="B44">
-        <v>-0.6091989034419654</v>
+        <v>-0.60919890344196537</v>
       </c>
       <c r="C44">
-        <v>0.05532481277763512</v>
+        <v>5.5324812777635117E-2</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45474</v>
       </c>
@@ -4246,35 +4321,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45471</v>
       </c>
       <c r="B46">
-        <v>0.4656938838869973</v>
+        <v>0.46569388388699728</v>
       </c>
       <c r="C46">
-        <v>-0.3225858351835753</v>
+        <v>-0.32258583518357531</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45470</v>
       </c>
       <c r="B47">
-        <v>0.09270704573547395</v>
+        <v>9.2707045735473947E-2</v>
       </c>
       <c r="C47">
-        <v>1.359251799969008</v>
+        <v>1.3592517999690079</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45469</v>
       </c>
@@ -4282,27 +4357,27 @@
         <v>-0.185242358752713</v>
       </c>
       <c r="C48">
-        <v>0.253410827999434</v>
+        <v>0.25341082799943399</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45468</v>
       </c>
       <c r="B49">
-        <v>0.1855861429013395</v>
+        <v>0.18558614290133951</v>
       </c>
       <c r="C49">
-        <v>-0.2495168668509518</v>
+        <v>-0.24951686685095181</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45467</v>
       </c>
@@ -4316,152 +4391,152 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45464</v>
       </c>
       <c r="B51">
-        <v>-1.424589656240327</v>
+        <v>-1.4245896562403271</v>
       </c>
       <c r="C51">
-        <v>0.7430715839463309</v>
+        <v>0.74307158394633088</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45463</v>
       </c>
       <c r="B52">
-        <v>-0.6911718504555409</v>
+        <v>-0.69117185045554086</v>
       </c>
       <c r="C52">
-        <v>0.1538320818885497</v>
+        <v>0.15383208188854969</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45462</v>
       </c>
       <c r="B53">
-        <v>0.6959822840873153</v>
+        <v>0.69598228408731533</v>
       </c>
       <c r="C53">
-        <v>0.5274596673075393</v>
+        <v>0.52745966730753935</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45461</v>
       </c>
       <c r="B54">
-        <v>-0.7854225573358464</v>
+        <v>-0.78542255733584643</v>
       </c>
       <c r="C54">
-        <v>0.4129664758515394</v>
+        <v>0.41296647585153939</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45460</v>
       </c>
       <c r="B55">
-        <v>0.06333122229260635</v>
+        <v>6.3331222292606348E-2</v>
       </c>
       <c r="C55">
-        <v>-0.4379000852400949</v>
+        <v>-0.43790008524009488</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45457</v>
       </c>
       <c r="B56">
-        <v>-2.373417721518989</v>
+        <v>-2.3734177215189889</v>
       </c>
       <c r="C56">
-        <v>0.07861635220125507</v>
+        <v>7.8616352201255069E-2</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45456</v>
       </c>
       <c r="B57">
-        <v>0.09724473257697319</v>
+        <v>9.7244732576973192E-2</v>
       </c>
       <c r="C57">
-        <v>-0.306830309498396</v>
+        <v>-0.30683030949839601</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45455</v>
       </c>
       <c r="B58">
-        <v>1.036269430051817</v>
+        <v>1.0362694300518169</v>
       </c>
       <c r="C58">
-        <v>-1.396801907345746</v>
+        <v>-1.3968019073457461</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45454</v>
       </c>
       <c r="B59">
-        <v>0.1602564102564097</v>
+        <v>0.16025641025640969</v>
       </c>
       <c r="C59">
-        <v>0.7245776747267341</v>
+        <v>0.72457767472673407</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45453</v>
       </c>
       <c r="B60">
-        <v>-1.088</v>
+        <v>-1.0880000000000001</v>
       </c>
       <c r="C60">
-        <v>-0.005796285409098711</v>
+        <v>-5.7962854090987106E-3</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45450</v>
       </c>
       <c r="B61">
-        <v>0.776447751536713</v>
+        <v>0.77644775153671297</v>
       </c>
       <c r="C61">
         <v>-1.734757809258014</v>
@@ -4470,7 +4545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45449</v>
       </c>
@@ -4484,21 +4559,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45448</v>
       </c>
       <c r="B63">
-        <v>-1.265822784810133</v>
+        <v>-1.2658227848101331</v>
       </c>
       <c r="C63">
-        <v>-0.3242968095761967</v>
+        <v>-0.32429680957619672</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>45447</v>
       </c>
@@ -4506,46 +4581,46 @@
         <v>0.1923076923076916</v>
       </c>
       <c r="C64">
-        <v>-0.1884751540579543</v>
+        <v>-0.18847515405795431</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>45446</v>
       </c>
       <c r="B65">
-        <v>-0.3518873960332791</v>
+        <v>-0.35188739603327912</v>
       </c>
       <c r="C65">
-        <v>-0.05405493947484574</v>
+        <v>-5.4054939474845742E-2</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45443</v>
       </c>
       <c r="B66">
-        <v>-1.380417335473516</v>
+        <v>-1.3804173354735161</v>
       </c>
       <c r="C66">
-        <v>-0.4963042043241161</v>
+        <v>-0.49630420432411609</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45441</v>
       </c>
       <c r="B67">
-        <v>1.041666666666674</v>
+        <v>1.0416666666666741</v>
       </c>
       <c r="C67">
         <v>-0.8668605590563927</v>
@@ -4554,40 +4629,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45440</v>
       </c>
       <c r="B68">
-        <v>0.7087628865979356</v>
+        <v>0.70876288659793563</v>
       </c>
       <c r="C68">
-        <v>-0.5751188793214235</v>
+        <v>-0.57511887932142347</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45439</v>
       </c>
       <c r="B69">
-        <v>0.5118362124120202</v>
+        <v>0.51183621241202015</v>
       </c>
       <c r="C69">
-        <v>0.1528486155133235</v>
+        <v>0.15284861551332349</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45436</v>
       </c>
       <c r="B70">
-        <v>-0.09505703422052481</v>
+        <v>-9.5057034220524805E-2</v>
       </c>
       <c r="C70">
         <v>-0.3391352452116192</v>
@@ -4596,68 +4671,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45435</v>
       </c>
       <c r="B71">
-        <v>0.9831906121154477</v>
+        <v>0.98319061211544767</v>
       </c>
       <c r="C71">
-        <v>-0.732988460007955</v>
+        <v>-0.73298846000795503</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45434</v>
       </c>
       <c r="B72">
-        <v>0.9108040201005085</v>
+        <v>0.91080402010050854</v>
       </c>
       <c r="C72">
-        <v>-1.382915267007823</v>
+        <v>-1.3829152670078231</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45433</v>
       </c>
       <c r="B73">
-        <v>1.556178026766264</v>
+        <v>1.5561780267662639</v>
       </c>
       <c r="C73">
-        <v>-0.2653599580433763</v>
+        <v>-0.26535995804337631</v>
       </c>
       <c r="D73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45432</v>
       </c>
       <c r="B74">
-        <v>0.5209929512718148</v>
+        <v>0.52099295127181477</v>
       </c>
       <c r="C74">
-        <v>-0.3121317820383718</v>
+        <v>-0.31213178203837177</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45429</v>
       </c>
       <c r="B75">
-        <v>0.3048780487804992</v>
+        <v>0.30487804878049918</v>
       </c>
       <c r="C75">
         <v>-0.1036762183904472</v>
@@ -4666,12 +4741,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45428</v>
       </c>
       <c r="B76">
-        <v>-0.03039513677810524</v>
+        <v>-3.039513677810524E-2</v>
       </c>
       <c r="C76">
         <v>0.1999562595682125</v>
@@ -4680,40 +4755,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45427</v>
       </c>
       <c r="B77">
-        <v>0.3040437823046638</v>
+        <v>0.30404378230466378</v>
       </c>
       <c r="C77">
-        <v>-0.3789440921293186</v>
+        <v>-0.37894409212931862</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45426</v>
       </c>
       <c r="B78">
-        <v>0.2728099424067709</v>
+        <v>0.27280994240677092</v>
       </c>
       <c r="C78">
-        <v>0.2809098357457795</v>
+        <v>0.28090983574577949</v>
       </c>
       <c r="D78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45425</v>
       </c>
       <c r="B79">
-        <v>-1.088270858524787</v>
+        <v>-1.0882708585247871</v>
       </c>
       <c r="C79">
         <v>0.4349529780564243</v>
@@ -4722,7 +4797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45422</v>
       </c>
@@ -4730,32 +4805,32 @@
         <v>-1.222493887530562</v>
       </c>
       <c r="C80">
-        <v>-0.4587012824913361</v>
+        <v>-0.45870128249133613</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45421</v>
       </c>
       <c r="B81">
-        <v>-1.113861386138615</v>
+        <v>-1.1138613861386151</v>
       </c>
       <c r="C81">
-        <v>-0.9986021115067079</v>
+        <v>-0.99860211150670786</v>
       </c>
       <c r="D81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45420</v>
       </c>
       <c r="B82">
-        <v>3.09762202753443</v>
+        <v>3.0976220275344302</v>
       </c>
       <c r="C82">
         <v>0.2097360885380484</v>
@@ -4764,49 +4839,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45419</v>
       </c>
       <c r="B83">
-        <v>-0.6373292867981828</v>
+        <v>-0.63732928679818279</v>
       </c>
       <c r="C83">
-        <v>0.57914156274812</v>
+        <v>0.57914156274812001</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45418</v>
       </c>
       <c r="B84">
-        <v>-2.015882712278572</v>
+        <v>-2.0158827122785721</v>
       </c>
       <c r="C84">
-        <v>-0.03346069146907826</v>
+        <v>-3.3460691469078263E-2</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45415</v>
       </c>
       <c r="B85">
-        <v>-0.6234413965087282</v>
+        <v>-0.62344139650872821</v>
       </c>
       <c r="C85">
-        <v>1.091077862211098</v>
+        <v>1.0910778622110979</v>
       </c>
       <c r="D85" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45414</v>
       </c>
@@ -4814,41 +4889,41 @@
         <v>-1.254705144291091</v>
       </c>
       <c r="C86">
-        <v>0.9513674915028192</v>
+        <v>0.95136749150281918</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45412</v>
       </c>
       <c r="B87">
-        <v>-1.42947903430749</v>
+        <v>-1.4294790343074899</v>
       </c>
       <c r="C87">
-        <v>-1.121301589295809</v>
+        <v>-1.1213015892958089</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45411</v>
       </c>
       <c r="B88">
-        <v>1.901385755720275</v>
+        <v>1.9013857557202749</v>
       </c>
       <c r="C88">
-        <v>0.6528302483284065</v>
+        <v>0.65283024832840653</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45408</v>
       </c>
@@ -4862,7 +4937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45407</v>
       </c>
@@ -4870,27 +4945,27 @@
         <v>-1.631628490743642</v>
       </c>
       <c r="C90">
-        <v>-0.07615779895944197</v>
+        <v>-7.6157798959441969E-2</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>45406</v>
       </c>
       <c r="B91">
-        <v>0.5422647527910662</v>
+        <v>0.54226475279106623</v>
       </c>
       <c r="C91">
-        <v>-0.3252149455045261</v>
+        <v>-0.32521494550452612</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>45405</v>
       </c>
@@ -4904,7 +4979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45404</v>
       </c>
@@ -4912,97 +4987,97 @@
         <v>-1.452937460518011</v>
       </c>
       <c r="C93">
-        <v>0.35884402672548</v>
+        <v>0.35884402672547999</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>45401</v>
       </c>
       <c r="B94">
-        <v>0.06410256410256387</v>
+        <v>6.4102564102563875E-2</v>
       </c>
       <c r="C94">
-        <v>0.7472060291796812</v>
+        <v>0.74720602917968115</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45400</v>
       </c>
       <c r="B95">
-        <v>0.5765534913517056</v>
+        <v>0.57655349135170564</v>
       </c>
       <c r="C95">
-        <v>0.02013352554139924</v>
+        <v>2.0133525541399241E-2</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45399</v>
       </c>
       <c r="B96">
-        <v>-0.1273885350318471</v>
+        <v>-0.12738853503184711</v>
       </c>
       <c r="C96">
-        <v>-0.1752566545273337</v>
+        <v>-0.17525665452733369</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45398</v>
       </c>
       <c r="B97">
-        <v>-0.06377551020407823</v>
+        <v>-6.3775510204078234E-2</v>
       </c>
       <c r="C97">
-        <v>-0.7539853511417505</v>
+        <v>-0.75398535114175047</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>45397</v>
       </c>
       <c r="B98">
-        <v>0.7338864071474216</v>
+        <v>0.73388640714742159</v>
       </c>
       <c r="C98">
-        <v>-0.4859225382306653</v>
+        <v>-0.48592253823066528</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45394</v>
       </c>
       <c r="B99">
-        <v>1.74216027874563</v>
+        <v>1.7421602787456301</v>
       </c>
       <c r="C99">
-        <v>-1.138183302458473</v>
+        <v>-1.1381833024584731</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45393</v>
       </c>
@@ -5010,13 +5085,13 @@
         <v>1.027397260273988</v>
       </c>
       <c r="C100">
-        <v>-0.5138457213363146</v>
+        <v>-0.51384572133631456</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45392</v>
       </c>
@@ -5030,26 +5105,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45391</v>
       </c>
       <c r="B102">
-        <v>2.183943402030142</v>
+        <v>2.1839434020301418</v>
       </c>
       <c r="C102">
-        <v>0.8016638599377623</v>
+        <v>0.80166385993776235</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45390</v>
       </c>
       <c r="B103">
-        <v>-1.053582179409995</v>
+        <v>-1.0535821794099951</v>
       </c>
       <c r="C103">
         <v>1.62624709176229</v>
@@ -5058,7 +5133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45387</v>
       </c>
@@ -5066,13 +5141,13 @@
         <v>-1.46029814420443</v>
       </c>
       <c r="C104">
-        <v>-0.4967511065072094</v>
+        <v>-0.49675110650720938</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45386</v>
       </c>
@@ -5080,13 +5155,13 @@
         <v>0.1852423587527019</v>
       </c>
       <c r="C105">
-        <v>0.0863978384831654</v>
+        <v>8.6397838483165401E-2</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45385</v>
       </c>
@@ -5094,102 +5169,102 @@
         <v>1.325115562403689</v>
       </c>
       <c r="C106">
-        <v>-0.1811068687328055</v>
+        <v>-0.18110686873280549</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45384</v>
       </c>
       <c r="B107">
-        <v>0.7603406326033957</v>
+        <v>0.76034063260339568</v>
       </c>
       <c r="C107">
-        <v>0.4401921411134824</v>
+        <v>0.44019214111348243</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45383</v>
       </c>
       <c r="B108">
-        <v>-0.1207364926048893</v>
+        <v>-0.12073649260488931</v>
       </c>
       <c r="C108">
-        <v>-0.8711535759449163</v>
+        <v>-0.87115357594491627</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45379</v>
       </c>
       <c r="B109">
-        <v>3.535811423390745</v>
+        <v>3.5358114233907449</v>
       </c>
       <c r="C109">
-        <v>0.3250033283473286</v>
+        <v>0.32500332834732859</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>45378</v>
       </c>
       <c r="B110">
-        <v>-0.1751313485113704</v>
+        <v>-0.17513134851137041</v>
       </c>
       <c r="C110">
-        <v>0.6526725680458423</v>
+        <v>0.65267256804584228</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45377</v>
       </c>
       <c r="B111">
-        <v>-0.5555555555555647</v>
+        <v>-0.55555555555556468</v>
       </c>
       <c r="C111">
-        <v>-0.0535724133584381</v>
+        <v>-5.3572413358438098E-2</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45376</v>
       </c>
       <c r="B112">
-        <v>-1.940605704204634</v>
+        <v>-1.9406057042046341</v>
       </c>
       <c r="C112">
-        <v>-0.07557448416478652</v>
+        <v>-7.5574484164786515E-2</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45373</v>
       </c>
       <c r="B113">
-        <v>-1.097271648873066</v>
+        <v>-1.0972716488730661</v>
       </c>
       <c r="C113">
         <v>-0.8832778033536437</v>
@@ -5198,96 +5273,96 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45372</v>
       </c>
       <c r="B114">
-        <v>1.409295352323836</v>
+        <v>1.4092953523238361</v>
       </c>
       <c r="C114">
-        <v>-0.7481122942884832</v>
+        <v>-0.74811229428848325</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>45371</v>
       </c>
       <c r="B115">
-        <v>1.034890597279725</v>
+        <v>1.0348905972797251</v>
       </c>
       <c r="C115">
-        <v>1.251480055516785</v>
+        <v>1.2514800555167851</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>45370</v>
       </c>
       <c r="B116">
-        <v>-0.175592625109755</v>
+        <v>-0.17559262510975501</v>
       </c>
       <c r="C116">
-        <v>0.4529199552593788</v>
+        <v>0.45291995525937878</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45369</v>
       </c>
       <c r="B117">
-        <v>-0.1465845793022447</v>
+        <v>-0.14658457930224469</v>
       </c>
       <c r="C117">
-        <v>0.1672689400514349</v>
+        <v>0.16726894005143489</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45366</v>
       </c>
       <c r="B118">
-        <v>-0.4110393423370495</v>
+        <v>-0.41103934233704947</v>
       </c>
       <c r="C118">
-        <v>-0.7424230558383593</v>
+        <v>-0.74242305583835932</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45365</v>
       </c>
       <c r="B119">
-        <v>0.5601415094339535</v>
+        <v>0.56014150943395347</v>
       </c>
       <c r="C119">
-        <v>-0.2468634282768001</v>
+        <v>-0.24686342827680011</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45364</v>
       </c>
       <c r="B120">
-        <v>0.05863383172091119</v>
+        <v>5.8633831720911189E-2</v>
       </c>
       <c r="C120">
         <v>0.2647491932199042</v>
@@ -5296,12 +5371,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45363</v>
       </c>
       <c r="B121">
-        <v>-0.9961910342807023</v>
+        <v>-0.99619103428070233</v>
       </c>
       <c r="C121">
         <v>1.224192064951946</v>
@@ -5310,26 +5385,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45362</v>
       </c>
       <c r="B122">
-        <v>-0.414323764427349</v>
+        <v>-0.41432376442734897</v>
       </c>
       <c r="C122">
-        <v>-0.7452526540280613</v>
+        <v>-0.74525265402806129</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45359</v>
       </c>
       <c r="B123">
-        <v>-0.4754829123328252</v>
+        <v>-0.47548291233282519</v>
       </c>
       <c r="C123">
         <v>-0.9887798036465667</v>
@@ -5338,21 +5413,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45358</v>
       </c>
       <c r="B124">
-        <v>-0.9256494475962995</v>
+        <v>-0.92564944759629952</v>
       </c>
       <c r="C124">
-        <v>-0.4267204593063845</v>
+        <v>-0.42672045930638453</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45357</v>
       </c>
@@ -5360,18 +5435,18 @@
         <v>1.084990958408683</v>
       </c>
       <c r="C125">
-        <v>0.6182766319536626</v>
+        <v>0.61827663195366256</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45356</v>
       </c>
       <c r="B126">
-        <v>-1.103160405485981</v>
+        <v>-1.1031604054859809</v>
       </c>
       <c r="C126">
         <v>-0.1893393381694031</v>
@@ -5380,26 +5455,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>45355</v>
       </c>
       <c r="B127">
-        <v>0.09044317154054404</v>
+        <v>9.0443171540544043E-2</v>
       </c>
       <c r="C127">
-        <v>-0.6494813438612801</v>
+        <v>-0.64948134386128009</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45352</v>
       </c>
       <c r="B128">
-        <v>0.7831325301204783</v>
+        <v>0.78313253012047834</v>
       </c>
       <c r="C128">
         <v>0.1240117811192043</v>
@@ -5408,49 +5483,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45351</v>
       </c>
       <c r="B129">
-        <v>-0.4482964734010664</v>
+        <v>-0.44829647340106638</v>
       </c>
       <c r="C129">
-        <v>-0.8720371864315624</v>
+        <v>-0.87203718643156236</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45350</v>
       </c>
       <c r="B130">
-        <v>2.551786250375243</v>
+        <v>2.5517862503752431</v>
       </c>
       <c r="C130">
-        <v>-1.164865706323226</v>
+        <v>-1.1648657063232259</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45349</v>
       </c>
       <c r="B131">
-        <v>-0.05854800936766491</v>
+        <v>-5.854800936766491E-2</v>
       </c>
       <c r="C131">
-        <v>1.604826825297634</v>
+        <v>1.6048268252976341</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45348</v>
       </c>
@@ -5464,63 +5539,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45345</v>
       </c>
       <c r="B133">
-        <v>-0.2964719833975504</v>
+        <v>-0.29647198339755038</v>
       </c>
       <c r="C133">
-        <v>-0.6311376601838115</v>
+        <v>-0.63113766018381146</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45344</v>
       </c>
       <c r="B134">
-        <v>-0.2973535533749683</v>
+        <v>-0.29735355337496833</v>
       </c>
       <c r="C134">
-        <v>0.1607296665436131</v>
+        <v>0.16072966654361309</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>45343</v>
       </c>
       <c r="B135">
-        <v>0.5666567253205912</v>
+        <v>0.56665672532059119</v>
       </c>
       <c r="C135">
-        <v>0.08928846331475171</v>
+        <v>8.9288463314751709E-2</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>45342</v>
       </c>
       <c r="B136">
-        <v>0.5634638196915676</v>
+        <v>0.56346381969156756</v>
       </c>
       <c r="C136">
-        <v>0.6819802225735527</v>
+        <v>0.68198022257355273</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>45341</v>
       </c>
@@ -5528,13 +5603,13 @@
         <v>-2.123267472721913</v>
       </c>
       <c r="C137">
-        <v>0.2408215900439714</v>
+        <v>0.24082159004397141</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45338</v>
       </c>
@@ -5548,35 +5623,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45337</v>
       </c>
       <c r="B139">
-        <v>0.09137983551630313</v>
+        <v>9.1379835516303132E-2</v>
       </c>
       <c r="C139">
-        <v>0.6188099324505147</v>
+        <v>0.61880993245051474</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>45336</v>
       </c>
       <c r="B140">
-        <v>-0.8216676810712031</v>
+        <v>-0.82166768107120314</v>
       </c>
       <c r="C140">
-        <v>-0.7873400715479706</v>
+        <v>-0.78734007154797059</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>45331</v>
       </c>
@@ -5590,12 +5665,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>45330</v>
       </c>
       <c r="B142">
-        <v>-1.258054617980986</v>
+        <v>-1.2580546179809859</v>
       </c>
       <c r="C142">
         <v>-1.073236219986418</v>
@@ -5604,21 +5679,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>45329</v>
       </c>
       <c r="B143">
-        <v>2.019888129272829</v>
+        <v>2.0198881292728288</v>
       </c>
       <c r="C143">
-        <v>-0.6195558827137737</v>
+        <v>-0.61955588271377371</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>45328</v>
       </c>
@@ -5626,18 +5701,18 @@
         <v>0.7005787389582796</v>
       </c>
       <c r="C144">
-        <v>2.212503820742517</v>
+        <v>2.2125038207425169</v>
       </c>
       <c r="D144" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>45327</v>
       </c>
       <c r="B145">
-        <v>-4.083484573502727</v>
+        <v>-4.0834845735027274</v>
       </c>
       <c r="C145">
         <v>0.3231589375854993</v>
@@ -5646,12 +5721,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>45324</v>
       </c>
       <c r="B146">
-        <v>-1.860611794386624</v>
+        <v>-1.8606117943866241</v>
       </c>
       <c r="C146">
         <v>-1.011044434585662</v>
@@ -5660,21 +5735,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>45323</v>
       </c>
       <c r="B147">
-        <v>-0.1606683804627251</v>
+        <v>-0.16066838046272511</v>
       </c>
       <c r="C147">
-        <v>0.570636858914142</v>
+        <v>0.57063685891414195</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>45322</v>
       </c>
@@ -5682,13 +5757,13 @@
         <v>0.225297714837458</v>
       </c>
       <c r="C148">
-        <v>0.2747209619943236</v>
+        <v>0.27472096199432361</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>45321</v>
       </c>
@@ -5696,27 +5771,27 @@
         <v>-1.091843288375083</v>
       </c>
       <c r="C149">
-        <v>-0.8567893356575373</v>
+        <v>-0.85678933565753734</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>45320</v>
       </c>
       <c r="B150">
-        <v>0.6493506493506551</v>
+        <v>0.64935064935065512</v>
       </c>
       <c r="C150">
-        <v>-0.3597819597261354</v>
+        <v>-0.35978195972613541</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>45317</v>
       </c>
@@ -5724,13 +5799,13 @@
         <v>0.5483870967742055</v>
       </c>
       <c r="C151">
-        <v>0.6226154530346584</v>
+        <v>0.62261545303465837</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>45316</v>
       </c>
@@ -5738,55 +5813,55 @@
         <v>-1.475777991658644</v>
       </c>
       <c r="C152">
-        <v>0.2761782562433535</v>
+        <v>0.27617825624335351</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>45315</v>
       </c>
       <c r="B153">
-        <v>0.2279387821556567</v>
+        <v>0.22793878215565669</v>
       </c>
       <c r="C153">
-        <v>-0.3485026858875861</v>
+        <v>-0.34850268588758609</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>45314</v>
       </c>
       <c r="B154">
-        <v>0.4548408057180042</v>
+        <v>0.45484080571800423</v>
       </c>
       <c r="C154">
-        <v>1.311985592644671</v>
+        <v>1.3119855926446711</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>45313</v>
       </c>
       <c r="B155">
-        <v>-0.4527813712807305</v>
+        <v>-0.45278137128073048</v>
       </c>
       <c r="C155">
-        <v>-0.8101162681375174</v>
+        <v>-0.81011626813751736</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>45310</v>
       </c>
@@ -5794,97 +5869,97 @@
         <v>1.656920077972712</v>
       </c>
       <c r="C156">
-        <v>0.2513431147695533</v>
+        <v>0.25134311476955329</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>45309</v>
       </c>
       <c r="B157">
-        <v>-0.2556727388942082</v>
+        <v>-0.25567273889420822</v>
       </c>
       <c r="C157">
-        <v>-0.9399022750614661</v>
+        <v>-0.93990227506146606</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>45308</v>
       </c>
       <c r="B158">
-        <v>0.4485741749439276</v>
+        <v>0.44857417494392759</v>
       </c>
       <c r="C158">
-        <v>-0.5955419431682873</v>
+        <v>-0.59554194316828735</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>45307</v>
       </c>
       <c r="B159">
-        <v>-0.06379585326954373</v>
+        <v>-6.3795853269543734E-2</v>
       </c>
       <c r="C159">
-        <v>-1.693265714220538</v>
+        <v>-1.6932657142205381</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>45306</v>
       </c>
       <c r="B160">
-        <v>1.404404723906794</v>
+        <v>1.4044047239067941</v>
       </c>
       <c r="C160">
-        <v>0.4069075029773828</v>
+        <v>0.40690750297738282</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>45303</v>
       </c>
       <c r="B161">
-        <v>-0.1573811772112133</v>
+        <v>-0.15738117721121331</v>
       </c>
       <c r="C161">
-        <v>0.259473857434811</v>
+        <v>0.25947385743481099</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>45302</v>
       </c>
       <c r="B162">
-        <v>-0.1261034047919218</v>
+        <v>-0.12610340479192181</v>
       </c>
       <c r="C162">
-        <v>-0.146742993404203</v>
+        <v>-0.14674299340420299</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>45301</v>
       </c>
@@ -5898,35 +5973,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>45300</v>
       </c>
       <c r="B164">
-        <v>0.09487666034155851</v>
+        <v>9.4876660341558505E-2</v>
       </c>
       <c r="C164">
-        <v>-0.7400303563472654</v>
+        <v>-0.74003035634726544</v>
       </c>
       <c r="D164" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>45299</v>
       </c>
       <c r="B165">
-        <v>0.06319115323856206</v>
+        <v>6.3191153238562059E-2</v>
       </c>
       <c r="C165">
-        <v>0.3060072866091446</v>
+        <v>0.30600728660914461</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>45296</v>
       </c>
@@ -5934,18 +6009,18 @@
         <v>1.073571203031243</v>
       </c>
       <c r="C166">
-        <v>0.6073491533689968</v>
+        <v>0.60734915336899675</v>
       </c>
       <c r="D166" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>45295</v>
       </c>
       <c r="B167">
-        <v>-2.28053733208371</v>
+        <v>-2.2805373320837101</v>
       </c>
       <c r="C167">
         <v>-1.210533447761863</v>
@@ -5954,12 +6029,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>45294</v>
       </c>
       <c r="B168">
-        <v>0.6713554987212156</v>
+        <v>0.67135549872121558</v>
       </c>
       <c r="C168">
         <v>0.1032427259094026</v>
@@ -5968,7 +6043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>45293</v>
       </c>
@@ -5982,21 +6057,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>45288</v>
       </c>
       <c r="B170">
-        <v>1.287688442211055</v>
+        <v>1.2876884422110551</v>
       </c>
       <c r="C170">
-        <v>-0.006706708198578326</v>
+        <v>-6.7067081985783261E-3</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>45287</v>
       </c>
@@ -6004,46 +6079,46 @@
         <v>-0.2480620155038693</v>
       </c>
       <c r="C171">
-        <v>0.4950087244351531</v>
+        <v>0.49500872443515309</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>45286</v>
       </c>
       <c r="B172">
-        <v>-0.6838669567920452</v>
+        <v>-0.68386695679204523</v>
       </c>
       <c r="C172">
-        <v>0.5875573433368642</v>
+        <v>0.58755734333686416</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>45282</v>
       </c>
       <c r="B173">
-        <v>-1.032863849765253</v>
+        <v>-1.0328638497652529</v>
       </c>
       <c r="C173">
-        <v>0.431980148583011</v>
+        <v>0.43198014858301098</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>45281</v>
       </c>
       <c r="B174">
-        <v>-1.549652118912093</v>
+        <v>-1.5496521189120931</v>
       </c>
       <c r="C174">
         <v>1.053484602917343</v>
@@ -6052,21 +6127,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>45280</v>
       </c>
       <c r="B175">
-        <v>-0.6745904272405956</v>
+        <v>-0.67459042724059559</v>
       </c>
       <c r="C175">
-        <v>-0.7940781639881433</v>
+        <v>-0.79407816398814335</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>45279</v>
       </c>
@@ -6074,27 +6149,27 @@
         <v>1.034928848641647</v>
       </c>
       <c r="C176">
-        <v>0.5851209911202027</v>
+        <v>0.58512099112020266</v>
       </c>
       <c r="D176" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>45278</v>
       </c>
       <c r="B177">
-        <v>-0.03201024327784685</v>
+        <v>-3.201024327784685E-2</v>
       </c>
       <c r="C177">
-        <v>0.6812752982019665</v>
+        <v>0.68127529820196653</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>45275</v>
       </c>
@@ -6102,18 +6177,18 @@
         <v>-0.5123278898495065</v>
       </c>
       <c r="C178">
-        <v>-0.4929609758334452</v>
+        <v>-0.49296097583344523</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>45274</v>
       </c>
       <c r="B179">
-        <v>0.4505954296749382</v>
+        <v>0.45059542967493821</v>
       </c>
       <c r="C179">
         <v>1.063607924921794</v>
@@ -6122,21 +6197,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>45273</v>
       </c>
       <c r="B180">
-        <v>-0.8330663248958703</v>
+        <v>-0.83306632489587029</v>
       </c>
       <c r="C180">
-        <v>2.422410860501722</v>
+        <v>2.4224108605017221</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>45272</v>
       </c>
@@ -6144,41 +6219,41 @@
         <v>-2.940226171243943</v>
       </c>
       <c r="C181">
-        <v>-0.4042043556367947</v>
+        <v>-0.40420435563679469</v>
       </c>
       <c r="D181" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>45271</v>
       </c>
       <c r="B182">
-        <v>0.4993342210386276</v>
+        <v>0.49933422103862762</v>
       </c>
       <c r="C182">
-        <v>-0.1400538184336053</v>
+        <v>-0.14005381843360529</v>
       </c>
       <c r="D182" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>45268</v>
       </c>
       <c r="B183">
-        <v>0.6955945677376452</v>
+        <v>0.69559456773764516</v>
       </c>
       <c r="C183">
-        <v>0.8602491865725037</v>
+        <v>0.86024918657250371</v>
       </c>
       <c r="D183" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>45267</v>
       </c>
@@ -6186,46 +6261,46 @@
         <v>-1.249999999999996</v>
       </c>
       <c r="C184">
-        <v>0.3080646060036774</v>
+        <v>0.30806460600367741</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>45266</v>
       </c>
       <c r="B185">
-        <v>-1.099267155229844</v>
+        <v>-1.0992671552298441</v>
       </c>
       <c r="C185">
-        <v>-1.008644397689573</v>
+        <v>-1.0086443976895729</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>45265</v>
       </c>
       <c r="B186">
-        <v>0.8757157292017537</v>
+        <v>0.87571572920175367</v>
       </c>
       <c r="C186">
-        <v>0.07886248748059099</v>
+        <v>7.8862487480590993E-2</v>
       </c>
       <c r="D186" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>45264</v>
       </c>
       <c r="B187">
-        <v>-0.801335559265437</v>
+        <v>-0.80133555926543698</v>
       </c>
       <c r="C187">
         <v>-1.014808396368549</v>
@@ -6234,7 +6309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>45261</v>
       </c>
@@ -6242,13 +6317,13 @@
         <v>-0.1346348030966005</v>
       </c>
       <c r="C188">
-        <v>0.6062938326095058</v>
+        <v>0.60629383260950576</v>
       </c>
       <c r="D188" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>45260</v>
       </c>
@@ -6256,32 +6331,32 @@
         <v>0.2359285473542139</v>
       </c>
       <c r="C189">
-        <v>0.975408601042016</v>
+        <v>0.97540860104201599</v>
       </c>
       <c r="D189" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>45259</v>
       </c>
       <c r="B190">
-        <v>-1.513113651647613</v>
+        <v>-1.5131136516476129</v>
       </c>
       <c r="C190">
-        <v>-0.3453508037111419</v>
+        <v>-0.34535080371114191</v>
       </c>
       <c r="D190" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>45258</v>
       </c>
       <c r="B191">
-        <v>-0.6828269033799961</v>
+        <v>-0.68282690337999608</v>
       </c>
       <c r="C191">
         <v>0.6802829340483596</v>
@@ -6290,12 +6365,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>45257</v>
       </c>
       <c r="B192">
-        <v>-0.9625300790649716</v>
+        <v>-0.96253007906497157</v>
       </c>
       <c r="C192">
         <v>0.1123130107852255</v>
@@ -6304,105 +6379,105 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>45254</v>
       </c>
       <c r="B193">
-        <v>0.2429711905588272</v>
+        <v>0.24297119055882721</v>
       </c>
       <c r="C193">
-        <v>-0.8169005182657063</v>
+        <v>-0.81690051826570631</v>
       </c>
       <c r="D193" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>45253</v>
       </c>
       <c r="B194">
-        <v>0.5540166204986097</v>
+        <v>0.55401662049860967</v>
       </c>
       <c r="C194">
-        <v>0.4292458444083103</v>
+        <v>0.42924584440831032</v>
       </c>
       <c r="D194" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>45252</v>
       </c>
       <c r="B195">
-        <v>0.1377410468319518</v>
+        <v>0.13774104683195179</v>
       </c>
       <c r="C195">
-        <v>0.3407453406259142</v>
+        <v>0.34074534062591422</v>
       </c>
       <c r="D195" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>45251</v>
       </c>
       <c r="B196">
-        <v>-0.6189821182943644</v>
+        <v>-0.61898211829436445</v>
       </c>
       <c r="C196">
-        <v>-0.3870097942027861</v>
+        <v>-0.38700979420278608</v>
       </c>
       <c r="D196" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>45250</v>
       </c>
       <c r="B197">
-        <v>0.1730103806228289</v>
+        <v>0.17301038062282889</v>
       </c>
       <c r="C197">
-        <v>0.8259903088068343</v>
+        <v>0.82599030880683433</v>
       </c>
       <c r="D197" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>45247</v>
       </c>
       <c r="B198">
-        <v>-0.9671848013816819</v>
+        <v>-0.96718480138168195</v>
       </c>
       <c r="C198">
-        <v>0.3901232982275848</v>
+        <v>0.39012329822758479</v>
       </c>
       <c r="D198" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>45246</v>
       </c>
       <c r="B199">
-        <v>-0.4883153121730044</v>
+        <v>-0.48831531217300439</v>
       </c>
       <c r="C199">
-        <v>1.011935651271401</v>
+        <v>1.0119356512714011</v>
       </c>
       <c r="D199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>45244</v>
       </c>
@@ -6410,13 +6485,13 @@
         <v>-1.577287066246069</v>
       </c>
       <c r="C200">
-        <v>2.452316076294281</v>
+        <v>2.4523160762942808</v>
       </c>
       <c r="D200" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>45243</v>
       </c>
@@ -6430,40 +6505,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>45240</v>
       </c>
       <c r="B202">
-        <v>0.6866642573183812</v>
+        <v>0.68666425731838121</v>
       </c>
       <c r="C202">
-        <v>1.364568278829026</v>
+        <v>1.3645682788290261</v>
       </c>
       <c r="D202" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>45239</v>
       </c>
       <c r="B203">
-        <v>-1.184493898061734</v>
+        <v>-1.1844938980617341</v>
       </c>
       <c r="C203">
-        <v>-0.07304847227936895</v>
+        <v>-7.3048472279368948E-2</v>
       </c>
       <c r="D203" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>45238</v>
       </c>
       <c r="B204">
-        <v>-0.4722121322194073</v>
+        <v>-0.47221213221940728</v>
       </c>
       <c r="C204">
         <v>-0.1416976892376853</v>
@@ -6472,49 +6547,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>45237</v>
       </c>
       <c r="B205">
-        <v>-0.4379562043795526</v>
+        <v>-0.43795620437955263</v>
       </c>
       <c r="C205">
-        <v>0.6591440411184424</v>
+        <v>0.65914404111844238</v>
       </c>
       <c r="D205" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>45236</v>
       </c>
       <c r="B206">
-        <v>-2.712609970674495</v>
+        <v>-2.7126099706744951</v>
       </c>
       <c r="C206">
-        <v>0.2767433987813206</v>
+        <v>0.27674339878132059</v>
       </c>
       <c r="D206" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>45233</v>
       </c>
       <c r="B207">
-        <v>-0.9419743782969059</v>
+        <v>-0.94197437829690589</v>
       </c>
       <c r="C207">
-        <v>2.700494554683486</v>
+        <v>2.7004945546834862</v>
       </c>
       <c r="D207" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>45231</v>
       </c>
@@ -6528,7 +6603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>45230</v>
       </c>
@@ -6536,32 +6611,32 @@
         <v>-1.406799531066816</v>
       </c>
       <c r="C209">
-        <v>0.5438453062240001</v>
+        <v>0.54384530622400007</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>45229</v>
       </c>
       <c r="B210">
-        <v>0.9908838684106192</v>
+        <v>0.99088386841061915</v>
       </c>
       <c r="C210">
-        <v>-0.6787230474576522</v>
+        <v>-0.67872304745765222</v>
       </c>
       <c r="D210" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>45226</v>
       </c>
       <c r="B211">
-        <v>0.7849293563579218</v>
+        <v>0.78492935635792183</v>
       </c>
       <c r="C211">
         <v>-1.285971928173768</v>
@@ -6570,12 +6645,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>45225</v>
       </c>
       <c r="B212">
-        <v>1.518691588785059</v>
+        <v>1.5186915887850589</v>
       </c>
       <c r="C212">
         <v>1.72560489231588</v>
@@ -6584,7 +6659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>45224</v>
       </c>
@@ -6592,13 +6667,13 @@
         <v>-2.416570771001147</v>
       </c>
       <c r="C213">
-        <v>-0.8192542325205276</v>
+        <v>-0.81925423252052765</v>
       </c>
       <c r="D213" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>45223</v>
       </c>
@@ -6606,13 +6681,13 @@
         <v>-0.1965408805031488</v>
       </c>
       <c r="C214">
-        <v>0.8662499445848404</v>
+        <v>0.86624994458484039</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>45222</v>
       </c>
@@ -6620,41 +6695,41 @@
         <v>0</v>
       </c>
       <c r="C215">
-        <v>-0.326985108921396</v>
+        <v>-0.32698510892139598</v>
       </c>
       <c r="D215" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>45219</v>
       </c>
       <c r="B216">
-        <v>-0.1181567546278073</v>
+        <v>-0.11815675462780729</v>
       </c>
       <c r="C216">
-        <v>-0.7447107119048502</v>
+        <v>-0.74471071190485016</v>
       </c>
       <c r="D216" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>45218</v>
       </c>
       <c r="B217">
-        <v>0.3943217665615117</v>
+        <v>0.39432176656151169</v>
       </c>
       <c r="C217">
-        <v>-0.04909696650885476</v>
+        <v>-4.9096966508854763E-2</v>
       </c>
       <c r="D217" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>45217</v>
       </c>
@@ -6662,27 +6737,27 @@
         <v>-1.139041633935578</v>
       </c>
       <c r="C218">
-        <v>-1.594367946992448</v>
+        <v>-1.5943679469924481</v>
       </c>
       <c r="D218" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>45216</v>
       </c>
       <c r="B219">
-        <v>2.105681366706391</v>
+        <v>2.1056813667063912</v>
       </c>
       <c r="C219">
-        <v>-0.5371822815658955</v>
+        <v>-0.53718228156589554</v>
       </c>
       <c r="D219" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>45215</v>
       </c>
@@ -6690,13 +6765,13 @@
         <v>1.517509727626454</v>
       </c>
       <c r="C220">
-        <v>0.6738428045683031</v>
+        <v>0.67384280456830314</v>
       </c>
       <c r="D220" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>45212</v>
       </c>
@@ -6704,27 +6779,27 @@
         <v>-0.1533154465312325</v>
       </c>
       <c r="C221">
-        <v>-1.108064006287857</v>
+        <v>-1.1080640062878571</v>
       </c>
       <c r="D221" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>45210</v>
       </c>
       <c r="B222">
-        <v>1.036468330134355</v>
+        <v>1.0364683301343549</v>
       </c>
       <c r="C222">
-        <v>0.2689807002064448</v>
+        <v>0.26898070020644482</v>
       </c>
       <c r="D222" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>45209</v>
       </c>
@@ -6738,35 +6813,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>45208</v>
       </c>
       <c r="B224">
-        <v>0.1154290111581524</v>
+        <v>0.11542901115815241</v>
       </c>
       <c r="C224">
-        <v>0.8636244197249621</v>
+        <v>0.86362441972496207</v>
       </c>
       <c r="D224" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>45205</v>
       </c>
       <c r="B225">
-        <v>0.8839354342813133</v>
+        <v>0.88393543428131327</v>
       </c>
       <c r="C225">
-        <v>0.7821051516542443</v>
+        <v>0.78210515165424432</v>
       </c>
       <c r="D225" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>45204</v>
       </c>
@@ -6774,13 +6849,13 @@
         <v>-0.952380952380949</v>
       </c>
       <c r="C226">
-        <v>-0.2843134665997726</v>
+        <v>-0.28431346659977258</v>
       </c>
       <c r="D226" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>45203</v>
       </c>
@@ -6788,13 +6863,13 @@
         <v>-1.538461538461533</v>
       </c>
       <c r="C227">
-        <v>0.1657570601045766</v>
+        <v>0.16575706010457661</v>
       </c>
       <c r="D227" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>45202</v>
       </c>
@@ -6808,12 +6883,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>45201</v>
       </c>
       <c r="B229">
-        <v>1.278976818545163</v>
+        <v>1.2789768185451631</v>
       </c>
       <c r="C229">
         <v>-1.293698794663922</v>
@@ -6822,7 +6897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>45198</v>
       </c>
@@ -6830,32 +6905,32 @@
         <v>0.9471191791633693</v>
       </c>
       <c r="C230">
-        <v>0.7206366487803706</v>
+        <v>0.72063664878037059</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>45197</v>
       </c>
       <c r="B231">
-        <v>0.1563721657545036</v>
+        <v>0.15637216575450361</v>
       </c>
       <c r="C231">
-        <v>1.228056364638275</v>
+        <v>1.2280563646382749</v>
       </c>
       <c r="D231" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>45196</v>
       </c>
       <c r="B232">
-        <v>-2.576112412177989</v>
+        <v>-2.5761124121779888</v>
       </c>
       <c r="C232">
         <v>0.117345196290497</v>
@@ -6864,21 +6939,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>45195</v>
       </c>
       <c r="B233">
-        <v>0.2003205128205066</v>
+        <v>0.20032051282050661</v>
       </c>
       <c r="C233">
-        <v>-1.494069441449208</v>
+        <v>-1.4940694414492079</v>
       </c>
       <c r="D233" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>45194</v>
       </c>
@@ -6886,13 +6961,13 @@
         <v>1.479408236705315</v>
       </c>
       <c r="C234">
-        <v>-0.07240817522778942</v>
+        <v>-7.2408175227789418E-2</v>
       </c>
       <c r="D234" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>45191</v>
       </c>
@@ -6900,32 +6975,32 @@
         <v>-0.2758077226162392</v>
       </c>
       <c r="C235">
-        <v>-0.1170950105471635</v>
+        <v>-0.11709501054716349</v>
       </c>
       <c r="D235" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>45190</v>
       </c>
       <c r="B236">
-        <v>0.276570525483999</v>
+        <v>0.27657052548399902</v>
       </c>
       <c r="C236">
-        <v>-2.148363452546442</v>
+        <v>-2.1483634525464419</v>
       </c>
       <c r="D236" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>45189</v>
       </c>
       <c r="B237">
-        <v>2.324665090622546</v>
+        <v>2.3246650906225459</v>
       </c>
       <c r="C237">
         <v>0.7204317499108992</v>
@@ -6934,54 +7009,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>45188</v>
       </c>
       <c r="B238">
-        <v>-1.655756642279549</v>
+        <v>-1.6557566422795491</v>
       </c>
       <c r="C238">
-        <v>-0.3736642770188037</v>
+        <v>-0.37366427701880373</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>45187</v>
       </c>
       <c r="B239">
-        <v>0.2740798747063344</v>
+        <v>0.27407987470633438</v>
       </c>
       <c r="C239">
-        <v>-0.3957628117684742</v>
+        <v>-0.39576281176847422</v>
       </c>
       <c r="D239" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>45184</v>
       </c>
       <c r="B240">
-        <v>0.2733307301835186</v>
+        <v>0.27333073018351861</v>
       </c>
       <c r="C240">
-        <v>-0.53102385419459</v>
+        <v>-0.53102385419458997</v>
       </c>
       <c r="D240" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>45183</v>
       </c>
       <c r="B241">
-        <v>0.1947040498442298</v>
+        <v>0.19470404984422979</v>
       </c>
       <c r="C241">
         <v>1.028973734091521</v>
@@ -6990,68 +7065,68 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>45182</v>
       </c>
       <c r="B242">
-        <v>0.3886513797123792</v>
+        <v>0.38865137971237917</v>
       </c>
       <c r="C242">
-        <v>0.176319001763181</v>
+        <v>0.17631900176318099</v>
       </c>
       <c r="D242" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>45181</v>
       </c>
       <c r="B243">
-        <v>-0.5032907471931858</v>
+        <v>-0.50329074719318578</v>
       </c>
       <c r="C243">
-        <v>0.9282787060564734</v>
+        <v>0.92827870605647345</v>
       </c>
       <c r="D243" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>45180</v>
       </c>
       <c r="B244">
-        <v>-0.5447470817120603</v>
+        <v>-0.54474708171206032</v>
       </c>
       <c r="C244">
-        <v>1.361511711602326</v>
+        <v>1.3615117116023261</v>
       </c>
       <c r="D244" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>45177</v>
       </c>
       <c r="B245">
-        <v>-7.014925373134329</v>
+        <v>-7.0149253731343286</v>
       </c>
       <c r="C245">
-        <v>-0.5793852653360299</v>
+        <v>-0.57938526533602985</v>
       </c>
       <c r="D245" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>45175</v>
       </c>
       <c r="B246">
-        <v>-0.160513643659721</v>
+        <v>-0.16051364365972101</v>
       </c>
       <c r="C246">
         <v>-1.14718190418559</v>
@@ -7060,7 +7135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>45174</v>
       </c>
@@ -7068,13 +7143,13 @@
         <v>1.0048231511254</v>
       </c>
       <c r="C247">
-        <v>-0.3786817460115333</v>
+        <v>-0.37868174601153332</v>
       </c>
       <c r="D247" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>45173</v>
       </c>
@@ -7082,35 +7157,35 @@
         <v>1.512136888181459</v>
       </c>
       <c r="C248">
-        <v>-0.09839430670184335</v>
+        <v>-9.8394306701843348E-2</v>
       </c>
       <c r="D248" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>45170</v>
       </c>
       <c r="B249">
-        <v>-6.941431670282006</v>
+        <v>-6.9414316702820056</v>
       </c>
       <c r="C249">
-        <v>1.858443780131669</v>
+        <v>1.8584437801316691</v>
       </c>
       <c r="D249" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>45169</v>
       </c>
       <c r="B250">
-        <v>-0.8547008547008517</v>
+        <v>-0.85470085470085166</v>
       </c>
       <c r="C250">
-        <v>-1.525503041647169</v>
+        <v>-1.5255030416471691</v>
       </c>
       <c r="D250" t="s">
         <v>15</v>
@@ -7123,24 +7198,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.08324388512686424</v>
+        <v>-8.3243885126864245E-2</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ITUB4cg_1anos.xlsx
+++ b/doc/ITUB4cg_1anos.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katerinewitkoski/Documents/analisysBeta/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858E37A-B476-6444-A41C-0FBE49B3913F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Retornos" sheetId="1" r:id="rId1"/>
     <sheet name="Beta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -77,11 +71,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,30 +141,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -188,14 +164,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -970,761 +944,755 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>0.70883315158123406</c:v>
+                  <c:v>0.007088331515812341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.109907958852197</c:v>
+                  <c:v>0.01109907958852197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.1151271753681371</c:v>
+                  <c:v>-0.02115127175368137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.1094091903719896</c:v>
+                  <c:v>-0.001094091903719896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.21905805038336951</c:v>
+                  <c:v>-0.002190580503833695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76838638858398589</c:v>
+                  <c:v>0.007683863885839859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92592592592593004</c:v>
+                  <c:v>0.0092592592592593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40474905558554042</c:v>
+                  <c:v>0.004047490555855404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.72561139478635184</c:v>
+                  <c:v>-0.007256113947863518</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.59556036816458269</c:v>
+                  <c:v>-0.005955603681645827</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84422657952070157</c:v>
+                  <c:v>0.008442265795207016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.5662975965433421</c:v>
+                  <c:v>-0.01566297596543342</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.4142661179698321</c:v>
+                  <c:v>-0.02414266117969832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.7551307281416859</c:v>
+                  <c:v>-0.02755130728141686</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.14455044810640641</c:v>
+                  <c:v>-0.001445504481064064</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.6346265199768242</c:v>
+                  <c:v>-0.02634626519976824</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3568242640499486</c:v>
+                  <c:v>0.003568242640499486</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.26666666666668171</c:v>
+                  <c:v>-0.002666666666666817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.168746286393342</c:v>
+                  <c:v>-0.02168746286393342</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2754327361069071</c:v>
+                  <c:v>0.01275432736106907</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4992503748126</c:v>
+                  <c:v>0.014992503748126</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4180206794682351</c:v>
+                  <c:v>0.01418020679468235</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.37867754150888722</c:v>
+                  <c:v>0.003786775415088872</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.72547881601857656</c:v>
+                  <c:v>-0.007254788160185766</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.7307804735457446</c:v>
+                  <c:v>-0.007307804735457446</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.44169611307420809</c:v>
+                  <c:v>0.004416961130742081</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1465845793022558</c:v>
+                  <c:v>0.001465845793022558</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.14637002341921779</c:v>
+                  <c:v>0.001463700234192178</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.8462437883655127E-2</c:v>
+                  <c:v>0.0005846243788365513</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.75956763073327105</c:v>
+                  <c:v>-0.00759567630733271</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.47100382690610232</c:v>
+                  <c:v>0.004710038269061023</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.0840902431878301</c:v>
+                  <c:v>-0.0108409024318783</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.5924170616113611</c:v>
+                  <c:v>-0.005924170616113611</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.3873659117997641</c:v>
+                  <c:v>-0.003873659117997641</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.56835177983847185</c:v>
+                  <c:v>0.005683517798384718</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.59488399762045452</c:v>
+                  <c:v>-0.005948839976204545</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.047277079593067</c:v>
+                  <c:v>-0.01047277079593067</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.69549440580585209</c:v>
+                  <c:v>-0.006954944058058521</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.18270401948841111</c:v>
+                  <c:v>0.001827040194884111</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-6.0790273556221568E-2</c:v>
+                  <c:v>-0.0006079027355622157</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.15206812652069909</c:v>
+                  <c:v>-0.001520681265206991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.60919890344196537</c:v>
+                  <c:v>-0.006091989034419654</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.287159056083365</c:v>
+                  <c:v>-0.01287159056083365</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.46569388388699728</c:v>
+                  <c:v>0.004656938838869973</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.2707045735473947E-2</c:v>
+                  <c:v>0.0009270704573547395</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.185242358752713</c:v>
+                  <c:v>-0.00185242358752713</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.18558614290133951</c:v>
+                  <c:v>0.001855861429013395</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.3087372645878439</c:v>
+                  <c:v>-0.003087372645878439</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.4245896562403271</c:v>
+                  <c:v>-0.01424589656240327</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.69117185045554086</c:v>
+                  <c:v>-0.006911718504555409</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.69598228408731533</c:v>
+                  <c:v>0.006959822840873153</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.78542255733584643</c:v>
+                  <c:v>-0.007854225573358464</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.3331222292606348E-2</c:v>
+                  <c:v>0.0006333122229260635</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-2.3734177215189889</c:v>
+                  <c:v>-0.02373417721518989</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.7244732576973192E-2</c:v>
+                  <c:v>0.0009724473257697319</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0362694300518169</c:v>
+                  <c:v>0.01036269430051817</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.16025641025640969</c:v>
+                  <c:v>0.001602564102564097</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.0880000000000001</c:v>
+                  <c:v>-0.01088</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.77644775153671297</c:v>
+                  <c:v>0.00776447751536713</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.4446227929374</c:v>
+                  <c:v>0.014446227929374</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.2658227848101331</c:v>
+                  <c:v>-0.01265822784810133</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1923076923076916</c:v>
+                  <c:v>0.001923076923076916</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.35188739603327912</c:v>
+                  <c:v>-0.003518873960332791</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.3804173354735161</c:v>
+                  <c:v>-0.01380417335473516</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0416666666666741</c:v>
+                  <c:v>0.01041666666666674</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.70876288659793563</c:v>
+                  <c:v>0.007087628865979356</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.51183621241202015</c:v>
+                  <c:v>0.005118362124120202</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-9.5057034220524805E-2</c:v>
+                  <c:v>-0.0009505703422052481</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.98319061211544767</c:v>
+                  <c:v>0.009831906121154477</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.91080402010050854</c:v>
+                  <c:v>0.009108040201005085</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.5561780267662639</c:v>
+                  <c:v>0.01556178026766264</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.52099295127181477</c:v>
+                  <c:v>0.005209929512718148</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.30487804878049918</c:v>
+                  <c:v>0.003048780487804992</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-3.039513677810524E-2</c:v>
+                  <c:v>-0.0003039513677810524</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.30404378230466378</c:v>
+                  <c:v>0.003040437823046638</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.27280994240677092</c:v>
+                  <c:v>0.002728099424067709</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.0882708585247871</c:v>
+                  <c:v>-0.01088270858524787</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-1.222493887530562</c:v>
+                  <c:v>-0.01222493887530562</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.1138613861386151</c:v>
+                  <c:v>-0.01113861386138615</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.0976220275344302</c:v>
+                  <c:v>0.0309762202753443</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.63732928679818279</c:v>
+                  <c:v>-0.006373292867981828</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.0158827122785721</c:v>
+                  <c:v>-0.02015882712278572</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.62344139650872821</c:v>
+                  <c:v>-0.006234413965087282</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.254705144291091</c:v>
+                  <c:v>-0.01254705144291091</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.4294790343074899</c:v>
+                  <c:v>-0.0142947903430749</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.9013857557202749</c:v>
+                  <c:v>0.01901385755720275</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.7906388361796246</c:v>
+                  <c:v>0.007906388361796246</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.631628490743642</c:v>
+                  <c:v>-0.01631628490743642</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.54226475279106623</c:v>
+                  <c:v>0.005422647527910662</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.4441624365482344</c:v>
+                  <c:v>0.004441624365482344</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.452937460518011</c:v>
+                  <c:v>-0.01452937460518011</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.4102564102563875E-2</c:v>
+                  <c:v>0.0006410256410256387</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.57655349135170564</c:v>
+                  <c:v>0.005765534913517056</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.12738853503184711</c:v>
+                  <c:v>-0.001273885350318471</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-6.3775510204078234E-2</c:v>
+                  <c:v>-0.0006377551020407823</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.73388640714742159</c:v>
+                  <c:v>0.007338864071474216</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.7421602787456301</c:v>
+                  <c:v>0.0174216027874563</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.027397260273988</c:v>
+                  <c:v>0.01027397260273988</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.1848998459167861</c:v>
+                  <c:v>0.001848998459167861</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.1839434020301418</c:v>
+                  <c:v>0.02183943402030142</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.0535821794099951</c:v>
+                  <c:v>-0.01053582179409995</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-1.46029814420443</c:v>
+                  <c:v>-0.0146029814420443</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.1852423587527019</c:v>
+                  <c:v>0.001852423587527019</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.325115562403689</c:v>
+                  <c:v>0.01325115562403689</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.76034063260339568</c:v>
+                  <c:v>0.007603406326033957</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.12073649260488931</c:v>
+                  <c:v>-0.001207364926048893</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.5358114233907449</c:v>
+                  <c:v>0.03535811423390745</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.17513134851137041</c:v>
+                  <c:v>-0.001751313485113704</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.55555555555556468</c:v>
+                  <c:v>-0.005555555555555647</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-1.9406057042046341</c:v>
+                  <c:v>-0.01940605704204634</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-1.0972716488730661</c:v>
+                  <c:v>-0.01097271648873066</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.4092953523238361</c:v>
+                  <c:v>0.01409295352323836</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.0348905972797251</c:v>
+                  <c:v>0.01034890597279725</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.17559262510975501</c:v>
+                  <c:v>-0.00175592625109755</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.14658457930224469</c:v>
+                  <c:v>-0.001465845793022447</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.41103934233704947</c:v>
+                  <c:v>-0.004110393423370495</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.56014150943395347</c:v>
+                  <c:v>0.005601415094339535</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5.8633831720911189E-2</c:v>
+                  <c:v>0.0005863383172091119</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.99619103428070233</c:v>
+                  <c:v>-0.009961910342807023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.41432376442734897</c:v>
+                  <c:v>-0.00414323764427349</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.47548291233282519</c:v>
+                  <c:v>-0.004754829123328252</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.92564944759629952</c:v>
+                  <c:v>-0.009256494475962995</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.084990958408683</c:v>
+                  <c:v>0.01084990958408683</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-1.1031604054859809</c:v>
+                  <c:v>-0.01103160405485981</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>9.0443171540544043E-2</c:v>
+                  <c:v>0.0009044317154054404</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.78313253012047834</c:v>
+                  <c:v>0.007831325301204783</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.44829647340106638</c:v>
+                  <c:v>-0.004482964734010664</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.5517862503752431</c:v>
+                  <c:v>0.02551786250375243</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-5.854800936766491E-2</c:v>
+                  <c:v>-0.0005854800936766491</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-1.200937316930295</c:v>
+                  <c:v>-0.01200937316930295</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.29647198339755038</c:v>
+                  <c:v>-0.002964719833975504</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.29735355337496833</c:v>
+                  <c:v>-0.002973535533749683</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.56665672532059119</c:v>
+                  <c:v>0.005666567253205912</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.56346381969156756</c:v>
+                  <c:v>0.005634638196915676</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-2.123267472721913</c:v>
+                  <c:v>-0.02123267472721913</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-1.084664055438378</c:v>
+                  <c:v>-0.01084664055438378</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>9.1379835516303132E-2</c:v>
+                  <c:v>0.0009137983551630313</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.82166768107120314</c:v>
+                  <c:v>-0.008216676810712031</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-1.2580546179809859</c:v>
+                  <c:v>-0.01258054617980986</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.0198881292728288</c:v>
+                  <c:v>0.02019888129272829</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.7005787389582796</c:v>
+                  <c:v>0.007005787389582796</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-4.0834845735027274</c:v>
+                  <c:v>-0.04083484573502727</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-1.8606117943866241</c:v>
+                  <c:v>-0.01860611794386624</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-0.16066838046272511</c:v>
+                  <c:v>-0.001606683804627251</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.225297714837458</c:v>
+                  <c:v>0.00225297714837458</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-1.091843288375083</c:v>
+                  <c:v>-0.01091843288375083</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.64935064935065512</c:v>
+                  <c:v>0.006493506493506551</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.5483870967742055</c:v>
+                  <c:v>0.005483870967742055</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-1.475777991658644</c:v>
+                  <c:v>-0.01475777991658644</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.22793878215565669</c:v>
+                  <c:v>0.002279387821556567</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.45484080571800423</c:v>
+                  <c:v>0.004548408057180042</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.45278137128073048</c:v>
+                  <c:v>-0.004527813712807305</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.656920077972712</c:v>
+                  <c:v>0.01656920077972712</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.25567273889420822</c:v>
+                  <c:v>-0.002556727388942082</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.44857417494392759</c:v>
+                  <c:v>0.004485741749439276</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-6.3795853269543734E-2</c:v>
+                  <c:v>-0.0006379585326954373</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.4044047239067941</c:v>
+                  <c:v>0.01404404723906794</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.15738117721121331</c:v>
+                  <c:v>-0.001573811772112133</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.12610340479192181</c:v>
+                  <c:v>-0.001261034047919218</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.1893939393939337</c:v>
+                  <c:v>-0.001893939393939337</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>9.4876660341558505E-2</c:v>
+                  <c:v>0.0009487666034155851</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>6.3191153238562059E-2</c:v>
+                  <c:v>0.0006319115323856206</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.073571203031243</c:v>
+                  <c:v>0.01073571203031243</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-2.2805373320837101</c:v>
+                  <c:v>-0.0228053733208371</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.67135549872121558</c:v>
+                  <c:v>0.006713554987212156</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.111463956811698</c:v>
+                  <c:v>0.01111463956811698</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.2876884422110551</c:v>
+                  <c:v>0.01287688442211055</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-0.2480620155038693</c:v>
+                  <c:v>-0.002480620155038693</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-0.68386695679204523</c:v>
+                  <c:v>-0.006838669567920452</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-1.0328638497652529</c:v>
+                  <c:v>-0.01032863849765253</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-1.5496521189120931</c:v>
+                  <c:v>-0.01549652118912093</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.67459042724059559</c:v>
+                  <c:v>-0.006745904272405956</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.034928848641647</c:v>
+                  <c:v>0.01034928848641647</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-3.201024327784685E-2</c:v>
+                  <c:v>-0.0003201024327784685</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.5123278898495065</c:v>
+                  <c:v>-0.005123278898495065</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.45059542967493821</c:v>
+                  <c:v>0.004505954296749382</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.83306632489587029</c:v>
+                  <c:v>-0.008330663248958703</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-2.940226171243943</c:v>
+                  <c:v>-0.02940226171243943</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.49933422103862762</c:v>
+                  <c:v>0.004993342210386276</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.69559456773764516</c:v>
+                  <c:v>0.006955945677376452</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-1.249999999999996</c:v>
+                  <c:v>-0.01249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.0992671552298441</c:v>
+                  <c:v>-0.01099267155229844</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.87571572920175367</c:v>
+                  <c:v>0.008757157292017537</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.80133555926543698</c:v>
+                  <c:v>-0.00801335559265437</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.1346348030966005</c:v>
+                  <c:v>-0.001346348030966005</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.2359285473542139</c:v>
+                  <c:v>0.002359285473542139</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1.5131136516476129</c:v>
+                  <c:v>-0.01513113651647613</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.68282690337999608</c:v>
+                  <c:v>-0.006828269033799961</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.96253007906497157</c:v>
+                  <c:v>-0.009625300790649716</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.24297119055882721</c:v>
+                  <c:v>0.002429711905588272</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.55401662049860967</c:v>
+                  <c:v>0.005540166204986097</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.13774104683195179</c:v>
+                  <c:v>0.001377410468319518</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.61898211829436445</c:v>
+                  <c:v>-0.006189821182943644</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.17301038062282889</c:v>
+                  <c:v>0.001730103806228289</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.96718480138168195</c:v>
+                  <c:v>-0.009671848013816819</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.48831531217300439</c:v>
+                  <c:v>-0.004883153121730044</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-1.577287066246069</c:v>
+                  <c:v>-0.01577287066246069</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-1.460113960113951</c:v>
+                  <c:v>-0.01460113960113951</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.68666425731838121</c:v>
+                  <c:v>0.006866642573183812</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-1.1844938980617341</c:v>
+                  <c:v>-0.01184493898061734</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.47221213221940728</c:v>
+                  <c:v>-0.004722121322194073</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-0.43795620437955263</c:v>
+                  <c:v>-0.004379562043795526</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-2.7126099706744951</c:v>
+                  <c:v>-0.02712609970674495</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-0.94197437829690589</c:v>
+                  <c:v>-0.009419743782969059</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-2.66260935717002</c:v>
+                  <c:v>-0.0266260935717002</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-1.406799531066816</c:v>
+                  <c:v>-0.01406799531066816</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.99088386841061915</c:v>
+                  <c:v>0.009908838684106192</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.78492935635792183</c:v>
+                  <c:v>0.007849293563579218</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.5186915887850589</c:v>
+                  <c:v>0.01518691588785059</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-2.416570771001147</c:v>
+                  <c:v>-0.02416570771001147</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-0.1965408805031488</c:v>
+                  <c:v>-0.001965408805031488</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.11815675462780729</c:v>
+                  <c:v>-0.001181567546278073</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.39432176656151169</c:v>
+                  <c:v>0.003943217665615117</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-1.139041633935578</c:v>
+                  <c:v>-0.01139041633935578</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.1056813667063912</c:v>
+                  <c:v>0.02105681366706391</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1.517509727626454</c:v>
+                  <c:v>0.01517509727626454</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.1533154465312325</c:v>
+                  <c:v>-0.001533154465312325</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>1.0364683301343549</c:v>
+                  <c:v>0.01036468330134355</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-1.253799392097277</c:v>
+                  <c:v>-0.01253799392097277</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.11542901115815241</c:v>
+                  <c:v>0.001154290111581524</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.88393543428131327</c:v>
+                  <c:v>0.008839354342813133</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.952380952380949</c:v>
+                  <c:v>-0.00952380952380949</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-1.538461538461533</c:v>
+                  <c:v>-0.01538461538461533</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-2.265625000000004</c:v>
+                  <c:v>-0.02265625000000004</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1.2789768185451631</c:v>
+                  <c:v>0.01278976818545163</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.9471191791633693</c:v>
+                  <c:v>0.009471191791633693</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.15637216575450361</c:v>
+                  <c:v>0.001563721657545036</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-2.5761124121779888</c:v>
+                  <c:v>-0.02576112412177989</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.20032051282050661</c:v>
+                  <c:v>0.002003205128205066</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1.479408236705315</c:v>
+                  <c:v>0.01479408236705315</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.2758077226162392</c:v>
+                  <c:v>-0.002758077226162392</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.27657052548399902</c:v>
+                  <c:v>0.00276570525483999</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.3246650906225459</c:v>
+                  <c:v>0.02324665090622546</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-1.6557566422795491</c:v>
+                  <c:v>-0.01655756642279549</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.27407987470633438</c:v>
+                  <c:v>0.002740798747063344</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.27333073018351861</c:v>
+                  <c:v>0.002733307301835186</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.19470404984422979</c:v>
+                  <c:v>0.001947040498442298</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.38865137971237917</c:v>
+                  <c:v>0.003886513797123792</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-0.50329074719318578</c:v>
+                  <c:v>-0.005032907471931858</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-0.54474708171206032</c:v>
+                  <c:v>-0.005447470817120603</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-7.0149253731343286</c:v>
+                  <c:v>-0.07014925373134329</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-0.16051364365972101</c:v>
+                  <c:v>-0.00160513643659721</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1.0048231511254</c:v>
+                  <c:v>0.010048231511254</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1.512136888181459</c:v>
+                  <c:v>0.01512136888181459</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-6.9414316702820056</c:v>
+                  <c:v>-0.06941431670282006</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-0.85470085470085166</c:v>
+                  <c:v>-0.008547008547008517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6184-9540-A622-07ED7E925025}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2500,780 +2468,765 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>-0.94871272134202655</c:v>
+                  <c:v>-0.009487127213420266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41527753407031298</c:v>
+                  <c:v>0.00415277534070313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.2548634294943302E-2</c:v>
+                  <c:v>-0.000825486342949433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94463453483570881</c:v>
+                  <c:v>0.009446345348357088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32180982888594389</c:v>
+                  <c:v>0.003218098288859439</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.94603705006448546</c:v>
+                  <c:v>-0.009460370500644855</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27702866548604538</c:v>
+                  <c:v>0.002770286654860454</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2275773689404792</c:v>
+                  <c:v>0.002275773689404792</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3624181615939921</c:v>
+                  <c:v>0.01362418161593992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.14908350912763441</c:v>
+                  <c:v>-0.001490835091276344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62632202703309936</c:v>
+                  <c:v>0.006263220270330994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69487454493271095</c:v>
+                  <c:v>0.006948745449327109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97776015131638694</c:v>
+                  <c:v>0.009777601513163869</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38357003406959128</c:v>
+                  <c:v>0.003835700340695913</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.51871973636144</c:v>
+                  <c:v>0.0151871973636144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.89950907351350473</c:v>
+                  <c:v>0.008995090735135047</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98758978988968682</c:v>
+                  <c:v>0.009875897898896868</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.79588089726192468</c:v>
+                  <c:v>0.007958808972619247</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.46402974875650038</c:v>
+                  <c:v>-0.004640297487565004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.2096236116017069</c:v>
+                  <c:v>-0.01209623611601707</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.20132861216431991</c:v>
+                  <c:v>-0.002013286121643199</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1994704254830071</c:v>
+                  <c:v>0.01199470425483007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.64196480615026363</c:v>
+                  <c:v>-0.006419648061502636</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.42198726194584418</c:v>
+                  <c:v>-0.004219872619458442</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.221080712005973</c:v>
+                  <c:v>0.01221080712005973</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.37097680010758077</c:v>
+                  <c:v>-0.003709768001075808</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.13192195276088281</c:v>
+                  <c:v>-0.001319219527608828</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.99327389332082294</c:v>
+                  <c:v>-0.009932738933208229</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.19119859578735629</c:v>
+                  <c:v>0.001911985957873563</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.820167329927736E-2</c:v>
+                  <c:v>-0.0002820167329927736</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.388953263808423</c:v>
+                  <c:v>-0.01388953263808423</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.26334133684455813</c:v>
+                  <c:v>0.002633413368445581</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.16315988895848621</c:v>
+                  <c:v>-0.001631598889584862</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.3289448164037978</c:v>
+                  <c:v>0.003289448164037978</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.47001418616614549</c:v>
+                  <c:v>0.004700141861661455</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.84579226210128589</c:v>
+                  <c:v>0.008457922621012859</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.6540579664529105E-2</c:v>
+                  <c:v>0.000865405796645291</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.44251983437115783</c:v>
+                  <c:v>0.004425198343711578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.22254429106576271</c:v>
+                  <c:v>0.002225442910657627</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.1639770457497818E-2</c:v>
+                  <c:v>0.0008163977045749782</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.39948433098311309</c:v>
+                  <c:v>0.003994843309831131</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.70119483600055155</c:v>
+                  <c:v>0.007011948360005515</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.5324812777635117E-2</c:v>
+                  <c:v>0.0005532481277763512</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.654523150427333</c:v>
+                  <c:v>0.00654523150427333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.32258583518357531</c:v>
+                  <c:v>-0.003225858351835753</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3592517999690079</c:v>
+                  <c:v>0.01359251799969008</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.25341082799943399</c:v>
+                  <c:v>0.00253410827999434</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.24951686685095181</c:v>
+                  <c:v>-0.002495168668509518</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.068064380547384</c:v>
+                  <c:v>0.01068064380547384</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.74307158394633088</c:v>
+                  <c:v>0.007430715839463309</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.15383208188854969</c:v>
+                  <c:v>0.001538320818885497</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.52745966730753935</c:v>
+                  <c:v>0.005274596673075393</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.41296647585153939</c:v>
+                  <c:v>0.004129664758515394</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.43790008524009488</c:v>
+                  <c:v>-0.004379000852400949</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.8616352201255069E-2</c:v>
+                  <c:v>0.0007861635220125507</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.30683030949839601</c:v>
+                  <c:v>-0.00306830309498396</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.3968019073457461</c:v>
+                  <c:v>-0.01396801907345746</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.72457767472673407</c:v>
+                  <c:v>0.007245776747267341</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-5.7962854090987106E-3</c:v>
+                  <c:v>-5.796285409098711e-05</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.734757809258014</c:v>
+                  <c:v>-0.01734757809258014</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.228924197122083</c:v>
+                  <c:v>0.01228924197122083</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.32429680957619672</c:v>
+                  <c:v>-0.003242968095761967</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.18847515405795431</c:v>
+                  <c:v>-0.001884751540579543</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-5.4054939474845742E-2</c:v>
+                  <c:v>-0.0005405493947484574</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.49630420432411609</c:v>
+                  <c:v>-0.004963042043241161</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.8668605590563927</c:v>
+                  <c:v>-0.008668605590563927</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.57511887932142347</c:v>
+                  <c:v>-0.005751188793214235</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.15284861551332349</c:v>
+                  <c:v>0.001528486155133235</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.3391352452116192</c:v>
+                  <c:v>-0.003391352452116192</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.73298846000795503</c:v>
+                  <c:v>-0.00732988460007955</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.3829152670078231</c:v>
+                  <c:v>-0.01382915267007823</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.26535995804337631</c:v>
+                  <c:v>-0.002653599580433763</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.31213178203837177</c:v>
+                  <c:v>-0.003121317820383718</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.1036762183904472</c:v>
+                  <c:v>-0.001036762183904472</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1999562595682125</c:v>
+                  <c:v>0.001999562595682125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.37894409212931862</c:v>
+                  <c:v>-0.003789440921293186</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.28090983574577949</c:v>
+                  <c:v>0.002809098357457795</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.4349529780564243</c:v>
+                  <c:v>0.004349529780564243</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.45870128249133613</c:v>
+                  <c:v>-0.004587012824913361</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.99860211150670786</c:v>
+                  <c:v>-0.009986021115067079</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.2097360885380484</c:v>
+                  <c:v>0.002097360885380484</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.57914156274812001</c:v>
+                  <c:v>0.0057914156274812</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-3.3460691469078263E-2</c:v>
+                  <c:v>-0.0003346069146907826</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.0910778622110979</c:v>
+                  <c:v>0.01091077862211098</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.95136749150281918</c:v>
+                  <c:v>0.009513674915028192</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.1213015892958089</c:v>
+                  <c:v>-0.01121301589295809</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.65283024832840653</c:v>
+                  <c:v>0.006528302483284065</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.50827142467469</c:v>
+                  <c:v>0.0150827142467469</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-7.6157798959441969E-2</c:v>
+                  <c:v>-0.0007615779895944197</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.32521494550452612</c:v>
+                  <c:v>-0.003252149455045261</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.3384485518383773</c:v>
+                  <c:v>-0.003384485518383773</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.35884402672547999</c:v>
+                  <c:v>0.0035884402672548</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.74720602917968115</c:v>
+                  <c:v>0.007472060291796812</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.0133525541399241E-2</c:v>
+                  <c:v>0.0002013352554139924</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.17525665452733369</c:v>
+                  <c:v>-0.001752566545273337</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.75398535114175047</c:v>
+                  <c:v>-0.007539853511417505</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.48592253823066528</c:v>
+                  <c:v>-0.004859225382306653</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.1381833024584731</c:v>
+                  <c:v>-0.01138183302458473</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.51384572133631456</c:v>
+                  <c:v>-0.005138457213363146</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.413503733928712</c:v>
+                  <c:v>-0.01413503733928712</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.80166385993776235</c:v>
+                  <c:v>0.008016638599377623</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.62624709176229</c:v>
+                  <c:v>0.0162624709176229</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.49675110650720938</c:v>
+                  <c:v>-0.004967511065072094</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.6397838483165401E-2</c:v>
+                  <c:v>0.000863978384831654</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.18110686873280549</c:v>
+                  <c:v>-0.001811068687328055</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.44019214111348243</c:v>
+                  <c:v>0.004401921411134824</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.87115357594491627</c:v>
+                  <c:v>-0.008711535759449163</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.32500332834732859</c:v>
+                  <c:v>0.003250033283473286</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.65267256804584228</c:v>
+                  <c:v>0.006526725680458423</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-5.3572413358438098E-2</c:v>
+                  <c:v>-0.000535724133584381</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-7.5574484164786515E-2</c:v>
+                  <c:v>-0.0007557448416478652</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.8832778033536437</c:v>
+                  <c:v>-0.008832778033536437</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.74811229428848325</c:v>
+                  <c:v>-0.007481122942884832</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.2514800555167851</c:v>
+                  <c:v>0.01251480055516785</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.45291995525937878</c:v>
+                  <c:v>0.004529199552593788</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.16726894005143489</c:v>
+                  <c:v>0.001672689400514349</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.74242305583835932</c:v>
+                  <c:v>-0.007424230558383593</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.24686342827680011</c:v>
+                  <c:v>-0.002468634282768001</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.2647491932199042</c:v>
+                  <c:v>0.002647491932199042</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.224192064951946</c:v>
+                  <c:v>0.01224192064951946</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.74525265402806129</c:v>
+                  <c:v>-0.007452526540280613</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.9887798036465667</c:v>
+                  <c:v>-0.009887798036465667</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.42672045930638453</c:v>
+                  <c:v>-0.004267204593063845</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.61827663195366256</c:v>
+                  <c:v>0.006182766319536626</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.1893393381694031</c:v>
+                  <c:v>-0.001893393381694031</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.64948134386128009</c:v>
+                  <c:v>-0.006494813438612801</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.1240117811192043</c:v>
+                  <c:v>0.001240117811192043</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.87203718643156236</c:v>
+                  <c:v>-0.008720371864315624</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-1.1648657063232259</c:v>
+                  <c:v>-0.01164865706323226</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.6048268252976341</c:v>
+                  <c:v>0.01604826825297634</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.1468099738060058</c:v>
+                  <c:v>0.001468099738060058</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.63113766018381146</c:v>
+                  <c:v>-0.006311376601838115</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.16072966654361309</c:v>
+                  <c:v>0.001607296665436131</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8.9288463314751709E-2</c:v>
+                  <c:v>0.0008928846331475171</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.68198022257355273</c:v>
+                  <c:v>0.006819802225735527</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.24082159004397141</c:v>
+                  <c:v>0.002408215900439714</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.7214171700416161</c:v>
+                  <c:v>0.007214171700416161</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.61880993245051474</c:v>
+                  <c:v>0.006188099324505147</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.78734007154797059</c:v>
+                  <c:v>-0.007873400715479706</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.1489662057293506</c:v>
+                  <c:v>-0.001489662057293506</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-1.073236219986418</c:v>
+                  <c:v>-0.01073236219986418</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.61955588271377371</c:v>
+                  <c:v>-0.006195558827137737</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.2125038207425169</c:v>
+                  <c:v>0.02212503820742517</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.3231589375854993</c:v>
+                  <c:v>0.003231589375854993</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-1.011044434585662</c:v>
+                  <c:v>-0.01011044434585662</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.57063685891414195</c:v>
+                  <c:v>0.00570636858914142</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.27472096199432361</c:v>
+                  <c:v>0.002747209619943236</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.85678933565753734</c:v>
+                  <c:v>-0.008567893356575373</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-0.35978195972613541</c:v>
+                  <c:v>-0.003597819597261354</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.62261545303465837</c:v>
+                  <c:v>0.006226154530346584</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.27617825624335351</c:v>
+                  <c:v>0.002761782562433535</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.34850268588758609</c:v>
+                  <c:v>-0.003485026858875861</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.3119855926446711</c:v>
+                  <c:v>0.01311985592644671</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.81011626813751736</c:v>
+                  <c:v>-0.008101162681375174</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.25134311476955329</c:v>
+                  <c:v>0.002513431147695533</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.93990227506146606</c:v>
+                  <c:v>-0.009399022750614661</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.59554194316828735</c:v>
+                  <c:v>-0.005955419431682873</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-1.6932657142205381</c:v>
+                  <c:v>-0.01693265714220538</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.40690750297738282</c:v>
+                  <c:v>0.004069075029773828</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.25947385743481099</c:v>
+                  <c:v>0.00259473857434811</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.14674299340420299</c:v>
+                  <c:v>-0.00146742993404203</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.4610223131756519</c:v>
+                  <c:v>-0.004610223131756519</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.74003035634726544</c:v>
+                  <c:v>-0.007400303563472654</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.30600728660914461</c:v>
+                  <c:v>0.003060072866091446</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.60734915336899675</c:v>
+                  <c:v>0.006073491533689968</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-1.210533447761863</c:v>
+                  <c:v>-0.01210533447761863</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.1032427259094026</c:v>
+                  <c:v>0.001032427259094026</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-1.108916793978465</c:v>
+                  <c:v>-0.01108916793978465</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-6.7067081985783261E-3</c:v>
+                  <c:v>-6.706708198578326e-05</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.49500872443515309</c:v>
+                  <c:v>0.004950087244351531</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.58755734333686416</c:v>
+                  <c:v>0.005875573433368642</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.43198014858301098</c:v>
+                  <c:v>0.00431980148583011</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.053484602917343</c:v>
+                  <c:v>0.01053484602917343</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.79407816398814335</c:v>
+                  <c:v>-0.007940781639881433</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.58512099112020266</c:v>
+                  <c:v>0.005851209911202027</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.68127529820196653</c:v>
+                  <c:v>0.006812752982019665</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.49296097583344523</c:v>
+                  <c:v>-0.004929609758334452</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.063607924921794</c:v>
+                  <c:v>0.01063607924921794</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.4224108605017221</c:v>
+                  <c:v>0.02422410860501722</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.40420435563679469</c:v>
+                  <c:v>-0.004042043556367947</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.14005381843360529</c:v>
+                  <c:v>-0.001400538184336053</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.86024918657250371</c:v>
+                  <c:v>0.008602491865725037</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.30806460600367741</c:v>
+                  <c:v>0.003080646060036774</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.0086443976895729</c:v>
+                  <c:v>-0.01008644397689573</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>7.8862487480590993E-2</c:v>
+                  <c:v>0.0007886248748059099</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-1.014808396368549</c:v>
+                  <c:v>-0.01014808396368549</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.60629383260950576</c:v>
+                  <c:v>0.006062938326095058</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.97540860104201599</c:v>
+                  <c:v>0.00975408601042016</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-0.34535080371114191</c:v>
+                  <c:v>-0.003453508037111419</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.6802829340483596</c:v>
+                  <c:v>0.006802829340483596</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.1123130107852255</c:v>
+                  <c:v>0.001123130107852255</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.81690051826570631</c:v>
+                  <c:v>-0.008169005182657063</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.42924584440831032</c:v>
+                  <c:v>0.004292458444083103</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.34074534062591422</c:v>
+                  <c:v>0.003407453406259142</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.38700979420278608</c:v>
+                  <c:v>-0.003870097942027861</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.82599030880683433</c:v>
+                  <c:v>0.008259903088068343</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.39012329822758479</c:v>
+                  <c:v>0.003901232982275848</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1.0119356512714011</c:v>
+                  <c:v>0.01011935651271401</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.4523160762942808</c:v>
+                  <c:v>0.02452316076294281</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-0.2155243874133794</c:v>
+                  <c:v>-0.002155243874133794</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.3645682788290261</c:v>
+                  <c:v>0.01364568278829026</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-7.3048472279368948E-2</c:v>
+                  <c:v>-0.0007304847227936895</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.1416976892376853</c:v>
+                  <c:v>-0.001416976892376853</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.65914404111844238</c:v>
+                  <c:v>0.006591440411184424</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.27674339878132059</c:v>
+                  <c:v>0.002767433987813206</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.7004945546834862</c:v>
+                  <c:v>0.02700494554683486</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.68723043201584</c:v>
+                  <c:v>0.0168723043201584</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.54384530622400007</c:v>
+                  <c:v>0.005438453062240001</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-0.67872304745765222</c:v>
+                  <c:v>-0.006787230474576522</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-1.285971928173768</c:v>
+                  <c:v>-0.01285971928173768</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.72560489231588</c:v>
+                  <c:v>0.0172560489231588</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.81925423252052765</c:v>
+                  <c:v>-0.008192542325205276</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.86624994458484039</c:v>
+                  <c:v>0.008662499445848404</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-0.32698510892139598</c:v>
+                  <c:v>-0.00326985108921396</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.74471071190485016</c:v>
+                  <c:v>-0.007447107119048502</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-4.9096966508854763E-2</c:v>
+                  <c:v>-0.0004909696650885476</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-1.5943679469924481</c:v>
+                  <c:v>-0.01594367946992448</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.53718228156589554</c:v>
+                  <c:v>-0.005371822815658955</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.67384280456830314</c:v>
+                  <c:v>0.006738428045683031</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-1.1080640062878571</c:v>
+                  <c:v>-0.01108064006287857</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.26898070020644482</c:v>
+                  <c:v>0.002689807002064448</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>1.372920212581197</c:v>
+                  <c:v>0.01372920212581197</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.86362441972496207</c:v>
+                  <c:v>0.008636244197249621</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.78210515165424432</c:v>
+                  <c:v>0.007821051516542443</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.28431346659977258</c:v>
+                  <c:v>-0.002843134665997726</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.16575706010457661</c:v>
+                  <c:v>0.001657570601045766</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-1.423642194738262</c:v>
+                  <c:v>-0.01423642194738262</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-1.293698794663922</c:v>
+                  <c:v>-0.01293698794663922</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.72063664878037059</c:v>
+                  <c:v>0.007206366487803706</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1.2280563646382749</c:v>
+                  <c:v>0.01228056364638275</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.117345196290497</c:v>
+                  <c:v>0.00117345196290497</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-1.4940694414492079</c:v>
+                  <c:v>-0.01494069441449208</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-7.2408175227789418E-2</c:v>
+                  <c:v>-0.0007240817522778942</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.11709501054716349</c:v>
+                  <c:v>-0.001170950105471635</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-2.1483634525464419</c:v>
+                  <c:v>-0.02148363452546442</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.7204317499108992</c:v>
+                  <c:v>0.007204317499108992</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.37366427701880373</c:v>
+                  <c:v>-0.003736642770188037</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-0.39576281176847422</c:v>
+                  <c:v>-0.003957628117684742</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-0.53102385419458997</c:v>
+                  <c:v>-0.0053102385419459</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1.028973734091521</c:v>
+                  <c:v>0.01028973734091521</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.17631900176318099</c:v>
+                  <c:v>0.00176319001763181</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.92827870605647345</c:v>
+                  <c:v>0.009282787060564734</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1.3615117116023261</c:v>
+                  <c:v>0.01361511711602326</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-0.57938526533602985</c:v>
+                  <c:v>-0.005793852653360299</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-1.14718190418559</c:v>
+                  <c:v>-0.0114718190418559</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-0.37868174601153332</c:v>
+                  <c:v>-0.003786817460115333</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-9.8394306701843348E-2</c:v>
+                  <c:v>-0.0009839430670184335</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1.8584437801316691</c:v>
+                  <c:v>0.01858443780131669</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-1.5255030416471691</c:v>
+                  <c:v>-0.01525503041647169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6184-9540-A622-07ED7E925025}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
+        <c:marker val="1"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3291,25 +3244,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="mm/yyyy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3328,11 +3276,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -3341,11 +3287,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3372,13 +3316,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3397,9 +3335,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3437,7 +3375,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3471,7 +3409,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3506,10 +3443,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3682,19 +3618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3705,273 +3636,273 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>45533</v>
       </c>
       <c r="B2">
-        <v>0.70883315158123406</v>
+        <v>0.007088331515812341</v>
       </c>
       <c r="C2">
-        <v>-0.94871272134202655</v>
+        <v>-0.009487127213420266</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>45532</v>
       </c>
       <c r="B3">
-        <v>1.109907958852197</v>
+        <v>0.01109907958852197</v>
       </c>
       <c r="C3">
-        <v>0.41527753407031298</v>
+        <v>0.00415277534070313</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>45531</v>
       </c>
       <c r="B4">
-        <v>-2.1151271753681371</v>
+        <v>-0.02115127175368137</v>
       </c>
       <c r="C4">
-        <v>-8.2548634294943302E-2</v>
+        <v>-0.000825486342949433</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>45530</v>
       </c>
       <c r="B5">
-        <v>-0.1094091903719896</v>
+        <v>-0.001094091903719896</v>
       </c>
       <c r="C5">
-        <v>0.94463453483570881</v>
+        <v>0.009446345348357088</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>45527</v>
       </c>
       <c r="B6">
-        <v>-0.21905805038336951</v>
+        <v>-0.002190580503833695</v>
       </c>
       <c r="C6">
-        <v>0.32180982888594389</v>
+        <v>0.003218098288859439</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>45526</v>
       </c>
       <c r="B7">
-        <v>0.76838638858398589</v>
+        <v>0.007683863885839859</v>
       </c>
       <c r="C7">
-        <v>-0.94603705006448546</v>
+        <v>-0.009460370500644855</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>45525</v>
       </c>
       <c r="B8">
-        <v>0.92592592592593004</v>
+        <v>0.0092592592592593</v>
       </c>
       <c r="C8">
-        <v>0.27702866548604538</v>
+        <v>0.002770286654860454</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>45524</v>
       </c>
       <c r="B9">
-        <v>0.40474905558554042</v>
+        <v>0.004047490555855404</v>
       </c>
       <c r="C9">
-        <v>0.2275773689404792</v>
+        <v>0.002275773689404792</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>45523</v>
       </c>
       <c r="B10">
-        <v>-0.72561139478635184</v>
+        <v>-0.007256113947863518</v>
       </c>
       <c r="C10">
-        <v>1.3624181615939921</v>
+        <v>0.01362418161593992</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>45520</v>
       </c>
       <c r="B11">
-        <v>-0.59556036816458269</v>
+        <v>-0.005955603681645827</v>
       </c>
       <c r="C11">
-        <v>-0.14908350912763441</v>
+        <v>-0.001490835091276344</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>45519</v>
       </c>
       <c r="B12">
-        <v>0.84422657952070157</v>
+        <v>0.008442265795207016</v>
       </c>
       <c r="C12">
-        <v>0.62632202703309936</v>
+        <v>0.006263220270330994</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>45518</v>
       </c>
       <c r="B13">
-        <v>-1.5662975965433421</v>
+        <v>-0.01566297596543342</v>
       </c>
       <c r="C13">
-        <v>0.69487454493271095</v>
+        <v>0.006948745449327109</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>45517</v>
       </c>
       <c r="B14">
-        <v>-2.4142661179698321</v>
+        <v>-0.02414266117969832</v>
       </c>
       <c r="C14">
-        <v>0.97776015131638694</v>
+        <v>0.009777601513163869</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>45516</v>
       </c>
       <c r="B15">
-        <v>-2.7551307281416859</v>
+        <v>-0.02755130728141686</v>
       </c>
       <c r="C15">
-        <v>0.38357003406959128</v>
+        <v>0.003835700340695913</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>45513</v>
       </c>
       <c r="B16">
-        <v>-0.14455044810640641</v>
+        <v>-0.001445504481064064</v>
       </c>
       <c r="C16">
-        <v>1.51871973636144</v>
+        <v>0.0151871973636144</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>45512</v>
       </c>
       <c r="B17">
-        <v>-2.6346265199768242</v>
+        <v>-0.02634626519976824</v>
       </c>
       <c r="C17">
-        <v>0.89950907351350473</v>
+        <v>0.008995090735135047</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>45511</v>
       </c>
       <c r="B18">
-        <v>0.3568242640499486</v>
+        <v>0.003568242640499486</v>
       </c>
       <c r="C18">
-        <v>0.98758978988968682</v>
+        <v>0.009875897898896868</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>45510</v>
       </c>
       <c r="B19">
-        <v>-0.26666666666668171</v>
+        <v>-0.002666666666666817</v>
       </c>
       <c r="C19">
-        <v>0.79588089726192468</v>
+        <v>0.007958808972619247</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>45509</v>
       </c>
       <c r="B20">
-        <v>-2.168746286393342</v>
+        <v>-0.02168746286393342</v>
       </c>
       <c r="C20">
-        <v>-0.46402974875650038</v>
+        <v>-0.004640297487565004</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>45506</v>
       </c>
@@ -3979,1679 +3910,1679 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>-1.2096236116017069</v>
+        <v>-0.01209623611601707</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>45505</v>
       </c>
       <c r="B22">
-        <v>1.2754327361069071</v>
+        <v>0.01275432736106907</v>
       </c>
       <c r="C22">
-        <v>-0.20132861216431991</v>
+        <v>-0.002013286121643199</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>45504</v>
       </c>
       <c r="B23">
-        <v>1.4992503748126</v>
+        <v>0.014992503748126</v>
       </c>
       <c r="C23">
-        <v>1.1994704254830071</v>
+        <v>0.01199470425483007</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>45503</v>
       </c>
       <c r="B24">
-        <v>1.4180206794682351</v>
+        <v>0.01418020679468235</v>
       </c>
       <c r="C24">
-        <v>-0.64196480615026363</v>
+        <v>-0.006419648061502636</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>45502</v>
       </c>
       <c r="B25">
-        <v>0.37867754150888722</v>
+        <v>0.003786775415088872</v>
       </c>
       <c r="C25">
-        <v>-0.42198726194584418</v>
+        <v>-0.004219872619458442</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>45499</v>
       </c>
       <c r="B26">
-        <v>-0.72547881601857656</v>
+        <v>-0.007254788160185766</v>
       </c>
       <c r="C26">
-        <v>1.221080712005973</v>
+        <v>0.01221080712005973</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>45498</v>
       </c>
       <c r="B27">
-        <v>-0.7307804735457446</v>
+        <v>-0.007307804735457446</v>
       </c>
       <c r="C27">
-        <v>-0.37097680010758077</v>
+        <v>-0.003709768001075808</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>45497</v>
       </c>
       <c r="B28">
-        <v>0.44169611307420809</v>
+        <v>0.004416961130742081</v>
       </c>
       <c r="C28">
-        <v>-0.13192195276088281</v>
+        <v>-0.001319219527608828</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>45496</v>
       </c>
       <c r="B29">
-        <v>0.1465845793022558</v>
+        <v>0.001465845793022558</v>
       </c>
       <c r="C29">
-        <v>-0.99327389332082294</v>
+        <v>-0.009932738933208229</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>45495</v>
       </c>
       <c r="B30">
-        <v>0.14637002341921779</v>
+        <v>0.001463700234192178</v>
       </c>
       <c r="C30">
-        <v>0.19119859578735629</v>
+        <v>0.001911985957873563</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>45492</v>
       </c>
       <c r="B31">
-        <v>5.8462437883655127E-2</v>
+        <v>0.0005846243788365513</v>
       </c>
       <c r="C31">
-        <v>-2.820167329927736E-2</v>
+        <v>-0.0002820167329927736</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>45491</v>
       </c>
       <c r="B32">
-        <v>-0.75956763073327105</v>
+        <v>-0.00759567630733271</v>
       </c>
       <c r="C32">
-        <v>-1.388953263808423</v>
+        <v>-0.01388953263808423</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>45490</v>
       </c>
       <c r="B33">
-        <v>0.47100382690610232</v>
+        <v>0.004710038269061023</v>
       </c>
       <c r="C33">
-        <v>0.26334133684455813</v>
+        <v>0.002633413368445581</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>45489</v>
       </c>
       <c r="B34">
-        <v>-1.0840902431878301</v>
+        <v>-0.0108409024318783</v>
       </c>
       <c r="C34">
-        <v>-0.16315988895848621</v>
+        <v>-0.001631598889584862</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>45488</v>
       </c>
       <c r="B35">
-        <v>-0.5924170616113611</v>
+        <v>-0.005924170616113611</v>
       </c>
       <c r="C35">
-        <v>0.3289448164037978</v>
+        <v>0.003289448164037978</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>45485</v>
       </c>
       <c r="B36">
-        <v>-0.3873659117997641</v>
+        <v>-0.003873659117997641</v>
       </c>
       <c r="C36">
-        <v>0.47001418616614549</v>
+        <v>0.004700141861661455</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>45484</v>
       </c>
       <c r="B37">
-        <v>0.56835177983847185</v>
+        <v>0.005683517798384718</v>
       </c>
       <c r="C37">
-        <v>0.84579226210128589</v>
+        <v>0.008457922621012859</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>45483</v>
       </c>
       <c r="B38">
-        <v>-0.59488399762045452</v>
+        <v>-0.005948839976204545</v>
       </c>
       <c r="C38">
-        <v>8.6540579664529105E-2</v>
+        <v>0.000865405796645291</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>45482</v>
       </c>
       <c r="B39">
-        <v>-1.047277079593067</v>
+        <v>-0.01047277079593067</v>
       </c>
       <c r="C39">
-        <v>0.44251983437115783</v>
+        <v>0.004425198343711578</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>45481</v>
       </c>
       <c r="B40">
-        <v>-0.69549440580585209</v>
+        <v>-0.006954944058058521</v>
       </c>
       <c r="C40">
-        <v>0.22254429106576271</v>
+        <v>0.002225442910657627</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>45478</v>
       </c>
       <c r="B41">
-        <v>0.18270401948841111</v>
+        <v>0.001827040194884111</v>
       </c>
       <c r="C41">
-        <v>8.1639770457497818E-2</v>
+        <v>0.0008163977045749782</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>45477</v>
       </c>
       <c r="B42">
-        <v>-6.0790273556221568E-2</v>
+        <v>-0.0006079027355622157</v>
       </c>
       <c r="C42">
-        <v>0.39948433098311309</v>
+        <v>0.003994843309831131</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
         <v>45476</v>
       </c>
       <c r="B43">
-        <v>-0.15206812652069909</v>
+        <v>-0.001520681265206991</v>
       </c>
       <c r="C43">
-        <v>0.70119483600055155</v>
+        <v>0.007011948360005515</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>45475</v>
       </c>
       <c r="B44">
-        <v>-0.60919890344196537</v>
+        <v>-0.006091989034419654</v>
       </c>
       <c r="C44">
-        <v>5.5324812777635117E-2</v>
+        <v>0.0005532481277763512</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
         <v>45474</v>
       </c>
       <c r="B45">
-        <v>-1.287159056083365</v>
+        <v>-0.01287159056083365</v>
       </c>
       <c r="C45">
-        <v>0.654523150427333</v>
+        <v>0.00654523150427333</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
         <v>45471</v>
       </c>
       <c r="B46">
-        <v>0.46569388388699728</v>
+        <v>0.004656938838869973</v>
       </c>
       <c r="C46">
-        <v>-0.32258583518357531</v>
+        <v>-0.003225858351835753</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
         <v>45470</v>
       </c>
       <c r="B47">
-        <v>9.2707045735473947E-2</v>
+        <v>0.0009270704573547395</v>
       </c>
       <c r="C47">
-        <v>1.3592517999690079</v>
+        <v>0.01359251799969008</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
         <v>45469</v>
       </c>
       <c r="B48">
-        <v>-0.185242358752713</v>
+        <v>-0.00185242358752713</v>
       </c>
       <c r="C48">
-        <v>0.25341082799943399</v>
+        <v>0.00253410827999434</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>45468</v>
       </c>
       <c r="B49">
-        <v>0.18558614290133951</v>
+        <v>0.001855861429013395</v>
       </c>
       <c r="C49">
-        <v>-0.24951686685095181</v>
+        <v>-0.002495168668509518</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>45467</v>
       </c>
       <c r="B50">
-        <v>-0.3087372645878439</v>
+        <v>-0.003087372645878439</v>
       </c>
       <c r="C50">
-        <v>1.068064380547384</v>
+        <v>0.01068064380547384</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>45464</v>
       </c>
       <c r="B51">
-        <v>-1.4245896562403271</v>
+        <v>-0.01424589656240327</v>
       </c>
       <c r="C51">
-        <v>0.74307158394633088</v>
+        <v>0.007430715839463309</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
         <v>45463</v>
       </c>
       <c r="B52">
-        <v>-0.69117185045554086</v>
+        <v>-0.006911718504555409</v>
       </c>
       <c r="C52">
-        <v>0.15383208188854969</v>
+        <v>0.001538320818885497</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
         <v>45462</v>
       </c>
       <c r="B53">
-        <v>0.69598228408731533</v>
+        <v>0.006959822840873153</v>
       </c>
       <c r="C53">
-        <v>0.52745966730753935</v>
+        <v>0.005274596673075393</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
         <v>45461</v>
       </c>
       <c r="B54">
-        <v>-0.78542255733584643</v>
+        <v>-0.007854225573358464</v>
       </c>
       <c r="C54">
-        <v>0.41296647585153939</v>
+        <v>0.004129664758515394</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
         <v>45460</v>
       </c>
       <c r="B55">
-        <v>6.3331222292606348E-2</v>
+        <v>0.0006333122229260635</v>
       </c>
       <c r="C55">
-        <v>-0.43790008524009488</v>
+        <v>-0.004379000852400949</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
         <v>45457</v>
       </c>
       <c r="B56">
-        <v>-2.3734177215189889</v>
+        <v>-0.02373417721518989</v>
       </c>
       <c r="C56">
-        <v>7.8616352201255069E-2</v>
+        <v>0.0007861635220125507</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
         <v>45456</v>
       </c>
       <c r="B57">
-        <v>9.7244732576973192E-2</v>
+        <v>0.0009724473257697319</v>
       </c>
       <c r="C57">
-        <v>-0.30683030949839601</v>
+        <v>-0.00306830309498396</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
         <v>45455</v>
       </c>
       <c r="B58">
-        <v>1.0362694300518169</v>
+        <v>0.01036269430051817</v>
       </c>
       <c r="C58">
-        <v>-1.3968019073457461</v>
+        <v>-0.01396801907345746</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="2">
         <v>45454</v>
       </c>
       <c r="B59">
-        <v>0.16025641025640969</v>
+        <v>0.001602564102564097</v>
       </c>
       <c r="C59">
-        <v>0.72457767472673407</v>
+        <v>0.007245776747267341</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
         <v>45453</v>
       </c>
       <c r="B60">
-        <v>-1.0880000000000001</v>
+        <v>-0.01088</v>
       </c>
       <c r="C60">
-        <v>-5.7962854090987106E-3</v>
+        <v>-5.796285409098711E-05</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="2">
         <v>45450</v>
       </c>
       <c r="B61">
-        <v>0.77644775153671297</v>
+        <v>0.00776447751536713</v>
       </c>
       <c r="C61">
-        <v>-1.734757809258014</v>
+        <v>-0.01734757809258014</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
         <v>45449</v>
       </c>
       <c r="B62">
-        <v>1.4446227929374</v>
+        <v>0.014446227929374</v>
       </c>
       <c r="C62">
-        <v>1.228924197122083</v>
+        <v>0.01228924197122083</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="2">
         <v>45448</v>
       </c>
       <c r="B63">
-        <v>-1.2658227848101331</v>
+        <v>-0.01265822784810133</v>
       </c>
       <c r="C63">
-        <v>-0.32429680957619672</v>
+        <v>-0.003242968095761967</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="2">
         <v>45447</v>
       </c>
       <c r="B64">
-        <v>0.1923076923076916</v>
+        <v>0.001923076923076916</v>
       </c>
       <c r="C64">
-        <v>-0.18847515405795431</v>
+        <v>-0.001884751540579543</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="2">
         <v>45446</v>
       </c>
       <c r="B65">
-        <v>-0.35188739603327912</v>
+        <v>-0.003518873960332791</v>
       </c>
       <c r="C65">
-        <v>-5.4054939474845742E-2</v>
+        <v>-0.0005405493947484574</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="2">
         <v>45443</v>
       </c>
       <c r="B66">
-        <v>-1.3804173354735161</v>
+        <v>-0.01380417335473516</v>
       </c>
       <c r="C66">
-        <v>-0.49630420432411609</v>
+        <v>-0.004963042043241161</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="2">
         <v>45441</v>
       </c>
       <c r="B67">
-        <v>1.0416666666666741</v>
+        <v>0.01041666666666674</v>
       </c>
       <c r="C67">
-        <v>-0.8668605590563927</v>
+        <v>-0.008668605590563927</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
         <v>45440</v>
       </c>
       <c r="B68">
-        <v>0.70876288659793563</v>
+        <v>0.007087628865979356</v>
       </c>
       <c r="C68">
-        <v>-0.57511887932142347</v>
+        <v>-0.005751188793214235</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="2">
         <v>45439</v>
       </c>
       <c r="B69">
-        <v>0.51183621241202015</v>
+        <v>0.005118362124120202</v>
       </c>
       <c r="C69">
-        <v>0.15284861551332349</v>
+        <v>0.001528486155133235</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="2">
         <v>45436</v>
       </c>
       <c r="B70">
-        <v>-9.5057034220524805E-2</v>
+        <v>-0.0009505703422052481</v>
       </c>
       <c r="C70">
-        <v>-0.3391352452116192</v>
+        <v>-0.003391352452116192</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="2">
         <v>45435</v>
       </c>
       <c r="B71">
-        <v>0.98319061211544767</v>
+        <v>0.009831906121154477</v>
       </c>
       <c r="C71">
-        <v>-0.73298846000795503</v>
+        <v>-0.00732988460007955</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="2">
         <v>45434</v>
       </c>
       <c r="B72">
-        <v>0.91080402010050854</v>
+        <v>0.009108040201005085</v>
       </c>
       <c r="C72">
-        <v>-1.3829152670078231</v>
+        <v>-0.01382915267007823</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="2">
         <v>45433</v>
       </c>
       <c r="B73">
-        <v>1.5561780267662639</v>
+        <v>0.01556178026766264</v>
       </c>
       <c r="C73">
-        <v>-0.26535995804337631</v>
+        <v>-0.002653599580433763</v>
       </c>
       <c r="D73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="2">
         <v>45432</v>
       </c>
       <c r="B74">
-        <v>0.52099295127181477</v>
+        <v>0.005209929512718148</v>
       </c>
       <c r="C74">
-        <v>-0.31213178203837177</v>
+        <v>-0.003121317820383718</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="2">
         <v>45429</v>
       </c>
       <c r="B75">
-        <v>0.30487804878049918</v>
+        <v>0.003048780487804992</v>
       </c>
       <c r="C75">
-        <v>-0.1036762183904472</v>
+        <v>-0.001036762183904472</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="2">
         <v>45428</v>
       </c>
       <c r="B76">
-        <v>-3.039513677810524E-2</v>
+        <v>-0.0003039513677810524</v>
       </c>
       <c r="C76">
-        <v>0.1999562595682125</v>
+        <v>0.001999562595682125</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="2">
         <v>45427</v>
       </c>
       <c r="B77">
-        <v>0.30404378230466378</v>
+        <v>0.003040437823046638</v>
       </c>
       <c r="C77">
-        <v>-0.37894409212931862</v>
+        <v>-0.003789440921293186</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="2">
         <v>45426</v>
       </c>
       <c r="B78">
-        <v>0.27280994240677092</v>
+        <v>0.002728099424067709</v>
       </c>
       <c r="C78">
-        <v>0.28090983574577949</v>
+        <v>0.002809098357457795</v>
       </c>
       <c r="D78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="2">
         <v>45425</v>
       </c>
       <c r="B79">
-        <v>-1.0882708585247871</v>
+        <v>-0.01088270858524787</v>
       </c>
       <c r="C79">
-        <v>0.4349529780564243</v>
+        <v>0.004349529780564243</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="2">
         <v>45422</v>
       </c>
       <c r="B80">
-        <v>-1.222493887530562</v>
+        <v>-0.01222493887530562</v>
       </c>
       <c r="C80">
-        <v>-0.45870128249133613</v>
+        <v>-0.004587012824913361</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="2">
         <v>45421</v>
       </c>
       <c r="B81">
-        <v>-1.1138613861386151</v>
+        <v>-0.01113861386138615</v>
       </c>
       <c r="C81">
-        <v>-0.99860211150670786</v>
+        <v>-0.009986021115067079</v>
       </c>
       <c r="D81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="2">
         <v>45420</v>
       </c>
       <c r="B82">
-        <v>3.0976220275344302</v>
+        <v>0.0309762202753443</v>
       </c>
       <c r="C82">
-        <v>0.2097360885380484</v>
+        <v>0.002097360885380484</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="2">
         <v>45419</v>
       </c>
       <c r="B83">
-        <v>-0.63732928679818279</v>
+        <v>-0.006373292867981828</v>
       </c>
       <c r="C83">
-        <v>0.57914156274812001</v>
+        <v>0.0057914156274812</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="2">
         <v>45418</v>
       </c>
       <c r="B84">
-        <v>-2.0158827122785721</v>
+        <v>-0.02015882712278572</v>
       </c>
       <c r="C84">
-        <v>-3.3460691469078263E-2</v>
+        <v>-0.0003346069146907826</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="2">
         <v>45415</v>
       </c>
       <c r="B85">
-        <v>-0.62344139650872821</v>
+        <v>-0.006234413965087282</v>
       </c>
       <c r="C85">
-        <v>1.0910778622110979</v>
+        <v>0.01091077862211098</v>
       </c>
       <c r="D85" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="2">
         <v>45414</v>
       </c>
       <c r="B86">
-        <v>-1.254705144291091</v>
+        <v>-0.01254705144291091</v>
       </c>
       <c r="C86">
-        <v>0.95136749150281918</v>
+        <v>0.009513674915028192</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="2">
         <v>45412</v>
       </c>
       <c r="B87">
-        <v>-1.4294790343074899</v>
+        <v>-0.0142947903430749</v>
       </c>
       <c r="C87">
-        <v>-1.1213015892958089</v>
+        <v>-0.01121301589295809</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="2">
         <v>45411</v>
       </c>
       <c r="B88">
-        <v>1.9013857557202749</v>
+        <v>0.01901385755720275</v>
       </c>
       <c r="C88">
-        <v>0.65283024832840653</v>
+        <v>0.006528302483284065</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="2">
         <v>45408</v>
       </c>
       <c r="B89">
-        <v>0.7906388361796246</v>
+        <v>0.007906388361796246</v>
       </c>
       <c r="C89">
-        <v>1.50827142467469</v>
+        <v>0.0150827142467469</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="2">
         <v>45407</v>
       </c>
       <c r="B90">
-        <v>-1.631628490743642</v>
+        <v>-0.01631628490743642</v>
       </c>
       <c r="C90">
-        <v>-7.6157798959441969E-2</v>
+        <v>-0.0007615779895944197</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="2">
         <v>45406</v>
       </c>
       <c r="B91">
-        <v>0.54226475279106623</v>
+        <v>0.005422647527910662</v>
       </c>
       <c r="C91">
-        <v>-0.32521494550452612</v>
+        <v>-0.003252149455045261</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="2">
         <v>45405</v>
       </c>
       <c r="B92">
-        <v>0.4441624365482344</v>
+        <v>0.004441624365482344</v>
       </c>
       <c r="C92">
-        <v>-0.3384485518383773</v>
+        <v>-0.003384485518383773</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="2">
         <v>45404</v>
       </c>
       <c r="B93">
-        <v>-1.452937460518011</v>
+        <v>-0.01452937460518011</v>
       </c>
       <c r="C93">
-        <v>0.35884402672547999</v>
+        <v>0.0035884402672548</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="2">
         <v>45401</v>
       </c>
       <c r="B94">
-        <v>6.4102564102563875E-2</v>
+        <v>0.0006410256410256387</v>
       </c>
       <c r="C94">
-        <v>0.74720602917968115</v>
+        <v>0.007472060291796812</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="2">
         <v>45400</v>
       </c>
       <c r="B95">
-        <v>0.57655349135170564</v>
+        <v>0.005765534913517056</v>
       </c>
       <c r="C95">
-        <v>2.0133525541399241E-2</v>
+        <v>0.0002013352554139924</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="2">
         <v>45399</v>
       </c>
       <c r="B96">
-        <v>-0.12738853503184711</v>
+        <v>-0.001273885350318471</v>
       </c>
       <c r="C96">
-        <v>-0.17525665452733369</v>
+        <v>-0.001752566545273337</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="2">
         <v>45398</v>
       </c>
       <c r="B97">
-        <v>-6.3775510204078234E-2</v>
+        <v>-0.0006377551020407823</v>
       </c>
       <c r="C97">
-        <v>-0.75398535114175047</v>
+        <v>-0.007539853511417505</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="2">
         <v>45397</v>
       </c>
       <c r="B98">
-        <v>0.73388640714742159</v>
+        <v>0.007338864071474216</v>
       </c>
       <c r="C98">
-        <v>-0.48592253823066528</v>
+        <v>-0.004859225382306653</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="2">
         <v>45394</v>
       </c>
       <c r="B99">
-        <v>1.7421602787456301</v>
+        <v>0.0174216027874563</v>
       </c>
       <c r="C99">
-        <v>-1.1381833024584731</v>
+        <v>-0.01138183302458473</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="2">
         <v>45393</v>
       </c>
       <c r="B100">
-        <v>1.027397260273988</v>
+        <v>0.01027397260273988</v>
       </c>
       <c r="C100">
-        <v>-0.51384572133631456</v>
+        <v>-0.005138457213363146</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="2">
         <v>45392</v>
       </c>
       <c r="B101">
-        <v>0.1848998459167861</v>
+        <v>0.001848998459167861</v>
       </c>
       <c r="C101">
-        <v>-1.413503733928712</v>
+        <v>-0.01413503733928712</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="2">
         <v>45391</v>
       </c>
       <c r="B102">
-        <v>2.1839434020301418</v>
+        <v>0.02183943402030142</v>
       </c>
       <c r="C102">
-        <v>0.80166385993776235</v>
+        <v>0.008016638599377623</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="2">
         <v>45390</v>
       </c>
       <c r="B103">
-        <v>-1.0535821794099951</v>
+        <v>-0.01053582179409995</v>
       </c>
       <c r="C103">
-        <v>1.62624709176229</v>
+        <v>0.0162624709176229</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="2">
         <v>45387</v>
       </c>
       <c r="B104">
-        <v>-1.46029814420443</v>
+        <v>-0.0146029814420443</v>
       </c>
       <c r="C104">
-        <v>-0.49675110650720938</v>
+        <v>-0.004967511065072094</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="2">
         <v>45386</v>
       </c>
       <c r="B105">
-        <v>0.1852423587527019</v>
+        <v>0.001852423587527019</v>
       </c>
       <c r="C105">
-        <v>8.6397838483165401E-2</v>
+        <v>0.000863978384831654</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" s="2">
         <v>45385</v>
       </c>
       <c r="B106">
-        <v>1.325115562403689</v>
+        <v>0.01325115562403689</v>
       </c>
       <c r="C106">
-        <v>-0.18110686873280549</v>
+        <v>-0.001811068687328055</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" s="2">
         <v>45384</v>
       </c>
       <c r="B107">
-        <v>0.76034063260339568</v>
+        <v>0.007603406326033957</v>
       </c>
       <c r="C107">
-        <v>0.44019214111348243</v>
+        <v>0.004401921411134824</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" s="2">
         <v>45383</v>
       </c>
       <c r="B108">
-        <v>-0.12073649260488931</v>
+        <v>-0.001207364926048893</v>
       </c>
       <c r="C108">
-        <v>-0.87115357594491627</v>
+        <v>-0.008711535759449163</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" s="2">
         <v>45379</v>
       </c>
       <c r="B109">
-        <v>3.5358114233907449</v>
+        <v>0.03535811423390745</v>
       </c>
       <c r="C109">
-        <v>0.32500332834732859</v>
+        <v>0.003250033283473286</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" s="2">
         <v>45378</v>
       </c>
       <c r="B110">
-        <v>-0.17513134851137041</v>
+        <v>-0.001751313485113704</v>
       </c>
       <c r="C110">
-        <v>0.65267256804584228</v>
+        <v>0.006526725680458423</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" s="2">
         <v>45377</v>
       </c>
       <c r="B111">
-        <v>-0.55555555555556468</v>
+        <v>-0.005555555555555647</v>
       </c>
       <c r="C111">
-        <v>-5.3572413358438098E-2</v>
+        <v>-0.000535724133584381</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" s="2">
         <v>45376</v>
       </c>
       <c r="B112">
-        <v>-1.9406057042046341</v>
+        <v>-0.01940605704204634</v>
       </c>
       <c r="C112">
-        <v>-7.5574484164786515E-2</v>
+        <v>-0.0007557448416478652</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" s="2">
         <v>45373</v>
       </c>
       <c r="B113">
-        <v>-1.0972716488730661</v>
+        <v>-0.01097271648873066</v>
       </c>
       <c r="C113">
-        <v>-0.8832778033536437</v>
+        <v>-0.008832778033536437</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" s="2">
         <v>45372</v>
       </c>
       <c r="B114">
-        <v>1.4092953523238361</v>
+        <v>0.01409295352323836</v>
       </c>
       <c r="C114">
-        <v>-0.74811229428848325</v>
+        <v>-0.007481122942884832</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" s="2">
         <v>45371</v>
       </c>
       <c r="B115">
-        <v>1.0348905972797251</v>
+        <v>0.01034890597279725</v>
       </c>
       <c r="C115">
-        <v>1.2514800555167851</v>
+        <v>0.01251480055516785</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" s="2">
         <v>45370</v>
       </c>
       <c r="B116">
-        <v>-0.17559262510975501</v>
+        <v>-0.00175592625109755</v>
       </c>
       <c r="C116">
-        <v>0.45291995525937878</v>
+        <v>0.004529199552593788</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" s="2">
         <v>45369</v>
       </c>
       <c r="B117">
-        <v>-0.14658457930224469</v>
+        <v>-0.001465845793022447</v>
       </c>
       <c r="C117">
-        <v>0.16726894005143489</v>
+        <v>0.001672689400514349</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" s="2">
         <v>45366</v>
       </c>
       <c r="B118">
-        <v>-0.41103934233704947</v>
+        <v>-0.004110393423370495</v>
       </c>
       <c r="C118">
-        <v>-0.74242305583835932</v>
+        <v>-0.007424230558383593</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" s="2">
         <v>45365</v>
       </c>
       <c r="B119">
-        <v>0.56014150943395347</v>
+        <v>0.005601415094339535</v>
       </c>
       <c r="C119">
-        <v>-0.24686342827680011</v>
+        <v>-0.002468634282768001</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" s="2">
         <v>45364</v>
       </c>
       <c r="B120">
-        <v>5.8633831720911189E-2</v>
+        <v>0.0005863383172091119</v>
       </c>
       <c r="C120">
-        <v>0.2647491932199042</v>
+        <v>0.002647491932199042</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" s="2">
         <v>45363</v>
       </c>
       <c r="B121">
-        <v>-0.99619103428070233</v>
+        <v>-0.009961910342807023</v>
       </c>
       <c r="C121">
-        <v>1.224192064951946</v>
+        <v>0.01224192064951946</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" s="2">
         <v>45362</v>
       </c>
       <c r="B122">
-        <v>-0.41432376442734897</v>
+        <v>-0.00414323764427349</v>
       </c>
       <c r="C122">
-        <v>-0.74525265402806129</v>
+        <v>-0.007452526540280613</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" s="2">
         <v>45359</v>
       </c>
       <c r="B123">
-        <v>-0.47548291233282519</v>
+        <v>-0.004754829123328252</v>
       </c>
       <c r="C123">
-        <v>-0.9887798036465667</v>
+        <v>-0.009887798036465667</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" s="2">
         <v>45358</v>
       </c>
       <c r="B124">
-        <v>-0.92564944759629952</v>
+        <v>-0.009256494475962995</v>
       </c>
       <c r="C124">
-        <v>-0.42672045930638453</v>
+        <v>-0.004267204593063845</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" s="2">
         <v>45357</v>
       </c>
       <c r="B125">
-        <v>1.084990958408683</v>
+        <v>0.01084990958408683</v>
       </c>
       <c r="C125">
-        <v>0.61827663195366256</v>
+        <v>0.006182766319536626</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" s="2">
         <v>45356</v>
       </c>
       <c r="B126">
-        <v>-1.1031604054859809</v>
+        <v>-0.01103160405485981</v>
       </c>
       <c r="C126">
-        <v>-0.1893393381694031</v>
+        <v>-0.001893393381694031</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" s="2">
         <v>45355</v>
       </c>
       <c r="B127">
-        <v>9.0443171540544043E-2</v>
+        <v>0.0009044317154054404</v>
       </c>
       <c r="C127">
-        <v>-0.64948134386128009</v>
+        <v>-0.006494813438612801</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" s="2">
         <v>45352</v>
       </c>
       <c r="B128">
-        <v>0.78313253012047834</v>
+        <v>0.007831325301204783</v>
       </c>
       <c r="C128">
-        <v>0.1240117811192043</v>
+        <v>0.001240117811192043</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" s="2">
         <v>45351</v>
       </c>
       <c r="B129">
-        <v>-0.44829647340106638</v>
+        <v>-0.004482964734010664</v>
       </c>
       <c r="C129">
-        <v>-0.87203718643156236</v>
+        <v>-0.008720371864315624</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" s="2">
         <v>45350</v>
       </c>
       <c r="B130">
-        <v>2.5517862503752431</v>
+        <v>0.02551786250375243</v>
       </c>
       <c r="C130">
-        <v>-1.1648657063232259</v>
+        <v>-0.01164865706323226</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" s="2">
         <v>45349</v>
       </c>
       <c r="B131">
-        <v>-5.854800936766491E-2</v>
+        <v>-0.0005854800936766491</v>
       </c>
       <c r="C131">
-        <v>1.6048268252976341</v>
+        <v>0.01604826825297634</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" s="2">
         <v>45348</v>
       </c>
       <c r="B132">
-        <v>-1.200937316930295</v>
+        <v>-0.01200937316930295</v>
       </c>
       <c r="C132">
-        <v>0.1468099738060058</v>
+        <v>0.001468099738060058</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" s="2">
         <v>45345</v>
       </c>
       <c r="B133">
-        <v>-0.29647198339755038</v>
+        <v>-0.002964719833975504</v>
       </c>
       <c r="C133">
-        <v>-0.63113766018381146</v>
+        <v>-0.006311376601838115</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" s="2">
         <v>45344</v>
       </c>
       <c r="B134">
-        <v>-0.29735355337496833</v>
+        <v>-0.002973535533749683</v>
       </c>
       <c r="C134">
-        <v>0.16072966654361309</v>
+        <v>0.001607296665436131</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" s="2">
         <v>45343</v>
       </c>
       <c r="B135">
-        <v>0.56665672532059119</v>
+        <v>0.005666567253205912</v>
       </c>
       <c r="C135">
-        <v>8.9288463314751709E-2</v>
+        <v>0.0008928846331475171</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" s="2">
         <v>45342</v>
       </c>
       <c r="B136">
-        <v>0.56346381969156756</v>
+        <v>0.005634638196915676</v>
       </c>
       <c r="C136">
-        <v>0.68198022257355273</v>
+        <v>0.006819802225735527</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" s="2">
         <v>45341</v>
       </c>
       <c r="B137">
-        <v>-2.123267472721913</v>
+        <v>-0.02123267472721913</v>
       </c>
       <c r="C137">
-        <v>0.24082159004397141</v>
+        <v>0.002408215900439714</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" s="2">
         <v>45338</v>
       </c>
       <c r="B138">
-        <v>-1.084664055438378</v>
+        <v>-0.01084664055438378</v>
       </c>
       <c r="C138">
-        <v>0.7214171700416161</v>
+        <v>0.007214171700416161</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" s="2">
         <v>45337</v>
       </c>
       <c r="B139">
-        <v>9.1379835516303132E-2</v>
+        <v>0.0009137983551630313</v>
       </c>
       <c r="C139">
-        <v>0.61880993245051474</v>
+        <v>0.006188099324505147</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" s="2">
         <v>45336</v>
       </c>
       <c r="B140">
-        <v>-0.82166768107120314</v>
+        <v>-0.008216676810712031</v>
       </c>
       <c r="C140">
-        <v>-0.78734007154797059</v>
+        <v>-0.007873400715479706</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" s="2">
         <v>45331</v>
       </c>
@@ -5659,1035 +5590,1035 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>-0.1489662057293506</v>
+        <v>-0.001489662057293506</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" s="2">
         <v>45330</v>
       </c>
       <c r="B142">
-        <v>-1.2580546179809859</v>
+        <v>-0.01258054617980986</v>
       </c>
       <c r="C142">
-        <v>-1.073236219986418</v>
+        <v>-0.01073236219986418</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" s="2">
         <v>45329</v>
       </c>
       <c r="B143">
-        <v>2.0198881292728288</v>
+        <v>0.02019888129272829</v>
       </c>
       <c r="C143">
-        <v>-0.61955588271377371</v>
+        <v>-0.006195558827137737</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" s="2">
         <v>45328</v>
       </c>
       <c r="B144">
-        <v>0.7005787389582796</v>
+        <v>0.007005787389582796</v>
       </c>
       <c r="C144">
-        <v>2.2125038207425169</v>
+        <v>0.02212503820742517</v>
       </c>
       <c r="D144" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" s="2">
         <v>45327</v>
       </c>
       <c r="B145">
-        <v>-4.0834845735027274</v>
+        <v>-0.04083484573502727</v>
       </c>
       <c r="C145">
-        <v>0.3231589375854993</v>
+        <v>0.003231589375854993</v>
       </c>
       <c r="D145" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" s="2">
         <v>45324</v>
       </c>
       <c r="B146">
-        <v>-1.8606117943866241</v>
+        <v>-0.01860611794386624</v>
       </c>
       <c r="C146">
-        <v>-1.011044434585662</v>
+        <v>-0.01011044434585662</v>
       </c>
       <c r="D146" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" s="2">
         <v>45323</v>
       </c>
       <c r="B147">
-        <v>-0.16066838046272511</v>
+        <v>-0.001606683804627251</v>
       </c>
       <c r="C147">
-        <v>0.57063685891414195</v>
+        <v>0.00570636858914142</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" s="2">
         <v>45322</v>
       </c>
       <c r="B148">
-        <v>0.225297714837458</v>
+        <v>0.00225297714837458</v>
       </c>
       <c r="C148">
-        <v>0.27472096199432361</v>
+        <v>0.002747209619943236</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" s="2">
         <v>45321</v>
       </c>
       <c r="B149">
-        <v>-1.091843288375083</v>
+        <v>-0.01091843288375083</v>
       </c>
       <c r="C149">
-        <v>-0.85678933565753734</v>
+        <v>-0.008567893356575373</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" s="2">
         <v>45320</v>
       </c>
       <c r="B150">
-        <v>0.64935064935065512</v>
+        <v>0.006493506493506551</v>
       </c>
       <c r="C150">
-        <v>-0.35978195972613541</v>
+        <v>-0.003597819597261354</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" s="2">
         <v>45317</v>
       </c>
       <c r="B151">
-        <v>0.5483870967742055</v>
+        <v>0.005483870967742055</v>
       </c>
       <c r="C151">
-        <v>0.62261545303465837</v>
+        <v>0.006226154530346584</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" s="2">
         <v>45316</v>
       </c>
       <c r="B152">
-        <v>-1.475777991658644</v>
+        <v>-0.01475777991658644</v>
       </c>
       <c r="C152">
-        <v>0.27617825624335351</v>
+        <v>0.002761782562433535</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" s="2">
         <v>45315</v>
       </c>
       <c r="B153">
-        <v>0.22793878215565669</v>
+        <v>0.002279387821556567</v>
       </c>
       <c r="C153">
-        <v>-0.34850268588758609</v>
+        <v>-0.003485026858875861</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" s="2">
         <v>45314</v>
       </c>
       <c r="B154">
-        <v>0.45484080571800423</v>
+        <v>0.004548408057180042</v>
       </c>
       <c r="C154">
-        <v>1.3119855926446711</v>
+        <v>0.01311985592644671</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" s="2">
         <v>45313</v>
       </c>
       <c r="B155">
-        <v>-0.45278137128073048</v>
+        <v>-0.004527813712807305</v>
       </c>
       <c r="C155">
-        <v>-0.81011626813751736</v>
+        <v>-0.008101162681375174</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" s="2">
         <v>45310</v>
       </c>
       <c r="B156">
-        <v>1.656920077972712</v>
+        <v>0.01656920077972712</v>
       </c>
       <c r="C156">
-        <v>0.25134311476955329</v>
+        <v>0.002513431147695533</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" s="2">
         <v>45309</v>
       </c>
       <c r="B157">
-        <v>-0.25567273889420822</v>
+        <v>-0.002556727388942082</v>
       </c>
       <c r="C157">
-        <v>-0.93990227506146606</v>
+        <v>-0.009399022750614661</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158" s="2">
         <v>45308</v>
       </c>
       <c r="B158">
-        <v>0.44857417494392759</v>
+        <v>0.004485741749439276</v>
       </c>
       <c r="C158">
-        <v>-0.59554194316828735</v>
+        <v>-0.005955419431682873</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" s="2">
         <v>45307</v>
       </c>
       <c r="B159">
-        <v>-6.3795853269543734E-2</v>
+        <v>-0.0006379585326954373</v>
       </c>
       <c r="C159">
-        <v>-1.6932657142205381</v>
+        <v>-0.01693265714220538</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" s="2">
         <v>45306</v>
       </c>
       <c r="B160">
-        <v>1.4044047239067941</v>
+        <v>0.01404404723906794</v>
       </c>
       <c r="C160">
-        <v>0.40690750297738282</v>
+        <v>0.004069075029773828</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" s="2">
         <v>45303</v>
       </c>
       <c r="B161">
-        <v>-0.15738117721121331</v>
+        <v>-0.001573811772112133</v>
       </c>
       <c r="C161">
-        <v>0.25947385743481099</v>
+        <v>0.00259473857434811</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" s="2">
         <v>45302</v>
       </c>
       <c r="B162">
-        <v>-0.12610340479192181</v>
+        <v>-0.001261034047919218</v>
       </c>
       <c r="C162">
-        <v>-0.14674299340420299</v>
+        <v>-0.00146742993404203</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" s="2">
         <v>45301</v>
       </c>
       <c r="B163">
-        <v>-0.1893939393939337</v>
+        <v>-0.001893939393939337</v>
       </c>
       <c r="C163">
-        <v>-0.4610223131756519</v>
+        <v>-0.004610223131756519</v>
       </c>
       <c r="D163" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" s="2">
         <v>45300</v>
       </c>
       <c r="B164">
-        <v>9.4876660341558505E-2</v>
+        <v>0.0009487666034155851</v>
       </c>
       <c r="C164">
-        <v>-0.74003035634726544</v>
+        <v>-0.007400303563472654</v>
       </c>
       <c r="D164" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" s="2">
         <v>45299</v>
       </c>
       <c r="B165">
-        <v>6.3191153238562059E-2</v>
+        <v>0.0006319115323856206</v>
       </c>
       <c r="C165">
-        <v>0.30600728660914461</v>
+        <v>0.003060072866091446</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" s="2">
         <v>45296</v>
       </c>
       <c r="B166">
-        <v>1.073571203031243</v>
+        <v>0.01073571203031243</v>
       </c>
       <c r="C166">
-        <v>0.60734915336899675</v>
+        <v>0.006073491533689968</v>
       </c>
       <c r="D166" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" s="2">
         <v>45295</v>
       </c>
       <c r="B167">
-        <v>-2.2805373320837101</v>
+        <v>-0.0228053733208371</v>
       </c>
       <c r="C167">
-        <v>-1.210533447761863</v>
+        <v>-0.01210533447761863</v>
       </c>
       <c r="D167" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" s="2">
         <v>45294</v>
       </c>
       <c r="B168">
-        <v>0.67135549872121558</v>
+        <v>0.006713554987212156</v>
       </c>
       <c r="C168">
-        <v>0.1032427259094026</v>
+        <v>0.001032427259094026</v>
       </c>
       <c r="D168" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" s="2">
         <v>45293</v>
       </c>
       <c r="B169">
-        <v>1.111463956811698</v>
+        <v>0.01111463956811698</v>
       </c>
       <c r="C169">
-        <v>-1.108916793978465</v>
+        <v>-0.01108916793978465</v>
       </c>
       <c r="D169" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" s="2">
         <v>45288</v>
       </c>
       <c r="B170">
-        <v>1.2876884422110551</v>
+        <v>0.01287688442211055</v>
       </c>
       <c r="C170">
-        <v>-6.7067081985783261E-3</v>
+        <v>-6.706708198578326E-05</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" s="2">
         <v>45287</v>
       </c>
       <c r="B171">
-        <v>-0.2480620155038693</v>
+        <v>-0.002480620155038693</v>
       </c>
       <c r="C171">
-        <v>0.49500872443515309</v>
+        <v>0.004950087244351531</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" s="2">
         <v>45286</v>
       </c>
       <c r="B172">
-        <v>-0.68386695679204523</v>
+        <v>-0.006838669567920452</v>
       </c>
       <c r="C172">
-        <v>0.58755734333686416</v>
+        <v>0.005875573433368642</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" s="2">
         <v>45282</v>
       </c>
       <c r="B173">
-        <v>-1.0328638497652529</v>
+        <v>-0.01032863849765253</v>
       </c>
       <c r="C173">
-        <v>0.43198014858301098</v>
+        <v>0.00431980148583011</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" s="2">
         <v>45281</v>
       </c>
       <c r="B174">
-        <v>-1.5496521189120931</v>
+        <v>-0.01549652118912093</v>
       </c>
       <c r="C174">
-        <v>1.053484602917343</v>
+        <v>0.01053484602917343</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175" s="2">
         <v>45280</v>
       </c>
       <c r="B175">
-        <v>-0.67459042724059559</v>
+        <v>-0.006745904272405956</v>
       </c>
       <c r="C175">
-        <v>-0.79407816398814335</v>
+        <v>-0.007940781639881433</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" s="2">
         <v>45279</v>
       </c>
       <c r="B176">
-        <v>1.034928848641647</v>
+        <v>0.01034928848641647</v>
       </c>
       <c r="C176">
-        <v>0.58512099112020266</v>
+        <v>0.005851209911202027</v>
       </c>
       <c r="D176" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" s="2">
         <v>45278</v>
       </c>
       <c r="B177">
-        <v>-3.201024327784685E-2</v>
+        <v>-0.0003201024327784685</v>
       </c>
       <c r="C177">
-        <v>0.68127529820196653</v>
+        <v>0.006812752982019665</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178" s="2">
         <v>45275</v>
       </c>
       <c r="B178">
-        <v>-0.5123278898495065</v>
+        <v>-0.005123278898495065</v>
       </c>
       <c r="C178">
-        <v>-0.49296097583344523</v>
+        <v>-0.004929609758334452</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" s="2">
         <v>45274</v>
       </c>
       <c r="B179">
-        <v>0.45059542967493821</v>
+        <v>0.004505954296749382</v>
       </c>
       <c r="C179">
-        <v>1.063607924921794</v>
+        <v>0.01063607924921794</v>
       </c>
       <c r="D179" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" s="2">
         <v>45273</v>
       </c>
       <c r="B180">
-        <v>-0.83306632489587029</v>
+        <v>-0.008330663248958703</v>
       </c>
       <c r="C180">
-        <v>2.4224108605017221</v>
+        <v>0.02422410860501722</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" s="2">
         <v>45272</v>
       </c>
       <c r="B181">
-        <v>-2.940226171243943</v>
+        <v>-0.02940226171243943</v>
       </c>
       <c r="C181">
-        <v>-0.40420435563679469</v>
+        <v>-0.004042043556367947</v>
       </c>
       <c r="D181" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182" s="2">
         <v>45271</v>
       </c>
       <c r="B182">
-        <v>0.49933422103862762</v>
+        <v>0.004993342210386276</v>
       </c>
       <c r="C182">
-        <v>-0.14005381843360529</v>
+        <v>-0.001400538184336053</v>
       </c>
       <c r="D182" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" s="2">
         <v>45268</v>
       </c>
       <c r="B183">
-        <v>0.69559456773764516</v>
+        <v>0.006955945677376452</v>
       </c>
       <c r="C183">
-        <v>0.86024918657250371</v>
+        <v>0.008602491865725037</v>
       </c>
       <c r="D183" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" s="2">
         <v>45267</v>
       </c>
       <c r="B184">
-        <v>-1.249999999999996</v>
+        <v>-0.01249999999999996</v>
       </c>
       <c r="C184">
-        <v>0.30806460600367741</v>
+        <v>0.003080646060036774</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" s="2">
         <v>45266</v>
       </c>
       <c r="B185">
-        <v>-1.0992671552298441</v>
+        <v>-0.01099267155229844</v>
       </c>
       <c r="C185">
-        <v>-1.0086443976895729</v>
+        <v>-0.01008644397689573</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="2">
         <v>45265</v>
       </c>
       <c r="B186">
-        <v>0.87571572920175367</v>
+        <v>0.008757157292017537</v>
       </c>
       <c r="C186">
-        <v>7.8862487480590993E-2</v>
+        <v>0.0007886248748059099</v>
       </c>
       <c r="D186" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="2">
         <v>45264</v>
       </c>
       <c r="B187">
-        <v>-0.80133555926543698</v>
+        <v>-0.00801335559265437</v>
       </c>
       <c r="C187">
-        <v>-1.014808396368549</v>
+        <v>-0.01014808396368549</v>
       </c>
       <c r="D187" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="2">
         <v>45261</v>
       </c>
       <c r="B188">
-        <v>-0.1346348030966005</v>
+        <v>-0.001346348030966005</v>
       </c>
       <c r="C188">
-        <v>0.60629383260950576</v>
+        <v>0.006062938326095058</v>
       </c>
       <c r="D188" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="2">
         <v>45260</v>
       </c>
       <c r="B189">
-        <v>0.2359285473542139</v>
+        <v>0.002359285473542139</v>
       </c>
       <c r="C189">
-        <v>0.97540860104201599</v>
+        <v>0.00975408601042016</v>
       </c>
       <c r="D189" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="2">
         <v>45259</v>
       </c>
       <c r="B190">
-        <v>-1.5131136516476129</v>
+        <v>-0.01513113651647613</v>
       </c>
       <c r="C190">
-        <v>-0.34535080371114191</v>
+        <v>-0.003453508037111419</v>
       </c>
       <c r="D190" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="2">
         <v>45258</v>
       </c>
       <c r="B191">
-        <v>-0.68282690337999608</v>
+        <v>-0.006828269033799961</v>
       </c>
       <c r="C191">
-        <v>0.6802829340483596</v>
+        <v>0.006802829340483596</v>
       </c>
       <c r="D191" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="2">
         <v>45257</v>
       </c>
       <c r="B192">
-        <v>-0.96253007906497157</v>
+        <v>-0.009625300790649716</v>
       </c>
       <c r="C192">
-        <v>0.1123130107852255</v>
+        <v>0.001123130107852255</v>
       </c>
       <c r="D192" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193" s="2">
         <v>45254</v>
       </c>
       <c r="B193">
-        <v>0.24297119055882721</v>
+        <v>0.002429711905588272</v>
       </c>
       <c r="C193">
-        <v>-0.81690051826570631</v>
+        <v>-0.008169005182657063</v>
       </c>
       <c r="D193" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" s="2">
         <v>45253</v>
       </c>
       <c r="B194">
-        <v>0.55401662049860967</v>
+        <v>0.005540166204986097</v>
       </c>
       <c r="C194">
-        <v>0.42924584440831032</v>
+        <v>0.004292458444083103</v>
       </c>
       <c r="D194" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195" s="2">
         <v>45252</v>
       </c>
       <c r="B195">
-        <v>0.13774104683195179</v>
+        <v>0.001377410468319518</v>
       </c>
       <c r="C195">
-        <v>0.34074534062591422</v>
+        <v>0.003407453406259142</v>
       </c>
       <c r="D195" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" s="2">
         <v>45251</v>
       </c>
       <c r="B196">
-        <v>-0.61898211829436445</v>
+        <v>-0.006189821182943644</v>
       </c>
       <c r="C196">
-        <v>-0.38700979420278608</v>
+        <v>-0.003870097942027861</v>
       </c>
       <c r="D196" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" s="2">
         <v>45250</v>
       </c>
       <c r="B197">
-        <v>0.17301038062282889</v>
+        <v>0.001730103806228289</v>
       </c>
       <c r="C197">
-        <v>0.82599030880683433</v>
+        <v>0.008259903088068343</v>
       </c>
       <c r="D197" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198" s="2">
         <v>45247</v>
       </c>
       <c r="B198">
-        <v>-0.96718480138168195</v>
+        <v>-0.009671848013816819</v>
       </c>
       <c r="C198">
-        <v>0.39012329822758479</v>
+        <v>0.003901232982275848</v>
       </c>
       <c r="D198" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199" s="2">
         <v>45246</v>
       </c>
       <c r="B199">
-        <v>-0.48831531217300439</v>
+        <v>-0.004883153121730044</v>
       </c>
       <c r="C199">
-        <v>1.0119356512714011</v>
+        <v>0.01011935651271401</v>
       </c>
       <c r="D199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200" s="2">
         <v>45244</v>
       </c>
       <c r="B200">
-        <v>-1.577287066246069</v>
+        <v>-0.01577287066246069</v>
       </c>
       <c r="C200">
-        <v>2.4523160762942808</v>
+        <v>0.02452316076294281</v>
       </c>
       <c r="D200" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201" s="2">
         <v>45243</v>
       </c>
       <c r="B201">
-        <v>-1.460113960113951</v>
+        <v>-0.01460113960113951</v>
       </c>
       <c r="C201">
-        <v>-0.2155243874133794</v>
+        <v>-0.002155243874133794</v>
       </c>
       <c r="D201" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202" s="2">
         <v>45240</v>
       </c>
       <c r="B202">
-        <v>0.68666425731838121</v>
+        <v>0.006866642573183812</v>
       </c>
       <c r="C202">
-        <v>1.3645682788290261</v>
+        <v>0.01364568278829026</v>
       </c>
       <c r="D202" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203" s="2">
         <v>45239</v>
       </c>
       <c r="B203">
-        <v>-1.1844938980617341</v>
+        <v>-0.01184493898061734</v>
       </c>
       <c r="C203">
-        <v>-7.3048472279368948E-2</v>
+        <v>-0.0007304847227936895</v>
       </c>
       <c r="D203" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204" s="2">
         <v>45238</v>
       </c>
       <c r="B204">
-        <v>-0.47221213221940728</v>
+        <v>-0.004722121322194073</v>
       </c>
       <c r="C204">
-        <v>-0.1416976892376853</v>
+        <v>-0.001416976892376853</v>
       </c>
       <c r="D204" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" s="2">
         <v>45237</v>
       </c>
       <c r="B205">
-        <v>-0.43795620437955263</v>
+        <v>-0.004379562043795526</v>
       </c>
       <c r="C205">
-        <v>0.65914404111844238</v>
+        <v>0.006591440411184424</v>
       </c>
       <c r="D205" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" s="2">
         <v>45236</v>
       </c>
       <c r="B206">
-        <v>-2.7126099706744951</v>
+        <v>-0.02712609970674495</v>
       </c>
       <c r="C206">
-        <v>0.27674339878132059</v>
+        <v>0.002767433987813206</v>
       </c>
       <c r="D206" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" s="2">
         <v>45233</v>
       </c>
       <c r="B207">
-        <v>-0.94197437829690589</v>
+        <v>-0.009419743782969059</v>
       </c>
       <c r="C207">
-        <v>2.7004945546834862</v>
+        <v>0.02700494554683486</v>
       </c>
       <c r="D207" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" s="2">
         <v>45231</v>
       </c>
       <c r="B208">
-        <v>-2.66260935717002</v>
+        <v>-0.0266260935717002</v>
       </c>
       <c r="C208">
-        <v>1.68723043201584</v>
+        <v>0.0168723043201584</v>
       </c>
       <c r="D208" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" s="2">
         <v>45230</v>
       </c>
       <c r="B209">
-        <v>-1.406799531066816</v>
+        <v>-0.01406799531066816</v>
       </c>
       <c r="C209">
-        <v>0.54384530622400007</v>
+        <v>0.005438453062240001</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" s="2">
         <v>45229</v>
       </c>
       <c r="B210">
-        <v>0.99088386841061915</v>
+        <v>0.009908838684106192</v>
       </c>
       <c r="C210">
-        <v>-0.67872304745765222</v>
+        <v>-0.006787230474576522</v>
       </c>
       <c r="D210" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211" s="2">
         <v>45226</v>
       </c>
       <c r="B211">
-        <v>0.78492935635792183</v>
+        <v>0.007849293563579218</v>
       </c>
       <c r="C211">
-        <v>-1.285971928173768</v>
+        <v>-0.01285971928173768</v>
       </c>
       <c r="D211" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" s="2">
         <v>45225</v>
       </c>
       <c r="B212">
-        <v>1.5186915887850589</v>
+        <v>0.01518691588785059</v>
       </c>
       <c r="C212">
-        <v>1.72560489231588</v>
+        <v>0.0172560489231588</v>
       </c>
       <c r="D212" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213" s="2">
         <v>45224</v>
       </c>
       <c r="B213">
-        <v>-2.416570771001147</v>
+        <v>-0.02416570771001147</v>
       </c>
       <c r="C213">
-        <v>-0.81925423252052765</v>
+        <v>-0.008192542325205276</v>
       </c>
       <c r="D213" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" s="2">
         <v>45223</v>
       </c>
       <c r="B214">
-        <v>-0.1965408805031488</v>
+        <v>-0.001965408805031488</v>
       </c>
       <c r="C214">
-        <v>0.86624994458484039</v>
+        <v>0.008662499445848404</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" s="2">
         <v>45222</v>
       </c>
@@ -6695,497 +6626,497 @@
         <v>0</v>
       </c>
       <c r="C215">
-        <v>-0.32698510892139598</v>
+        <v>-0.00326985108921396</v>
       </c>
       <c r="D215" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" s="2">
         <v>45219</v>
       </c>
       <c r="B216">
-        <v>-0.11815675462780729</v>
+        <v>-0.001181567546278073</v>
       </c>
       <c r="C216">
-        <v>-0.74471071190485016</v>
+        <v>-0.007447107119048502</v>
       </c>
       <c r="D216" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217" s="2">
         <v>45218</v>
       </c>
       <c r="B217">
-        <v>0.39432176656151169</v>
+        <v>0.003943217665615117</v>
       </c>
       <c r="C217">
-        <v>-4.9096966508854763E-2</v>
+        <v>-0.0004909696650885476</v>
       </c>
       <c r="D217" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218" s="2">
         <v>45217</v>
       </c>
       <c r="B218">
-        <v>-1.139041633935578</v>
+        <v>-0.01139041633935578</v>
       </c>
       <c r="C218">
-        <v>-1.5943679469924481</v>
+        <v>-0.01594367946992448</v>
       </c>
       <c r="D218" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219" s="2">
         <v>45216</v>
       </c>
       <c r="B219">
-        <v>2.1056813667063912</v>
+        <v>0.02105681366706391</v>
       </c>
       <c r="C219">
-        <v>-0.53718228156589554</v>
+        <v>-0.005371822815658955</v>
       </c>
       <c r="D219" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220" s="2">
         <v>45215</v>
       </c>
       <c r="B220">
-        <v>1.517509727626454</v>
+        <v>0.01517509727626454</v>
       </c>
       <c r="C220">
-        <v>0.67384280456830314</v>
+        <v>0.006738428045683031</v>
       </c>
       <c r="D220" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" s="2">
         <v>45212</v>
       </c>
       <c r="B221">
-        <v>-0.1533154465312325</v>
+        <v>-0.001533154465312325</v>
       </c>
       <c r="C221">
-        <v>-1.1080640062878571</v>
+        <v>-0.01108064006287857</v>
       </c>
       <c r="D221" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222" s="2">
         <v>45210</v>
       </c>
       <c r="B222">
-        <v>1.0364683301343549</v>
+        <v>0.01036468330134355</v>
       </c>
       <c r="C222">
-        <v>0.26898070020644482</v>
+        <v>0.002689807002064448</v>
       </c>
       <c r="D222" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223" s="2">
         <v>45209</v>
       </c>
       <c r="B223">
-        <v>-1.253799392097277</v>
+        <v>-0.01253799392097277</v>
       </c>
       <c r="C223">
-        <v>1.372920212581197</v>
+        <v>0.01372920212581197</v>
       </c>
       <c r="D223" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224" s="2">
         <v>45208</v>
       </c>
       <c r="B224">
-        <v>0.11542901115815241</v>
+        <v>0.001154290111581524</v>
       </c>
       <c r="C224">
-        <v>0.86362441972496207</v>
+        <v>0.008636244197249621</v>
       </c>
       <c r="D224" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225" s="2">
         <v>45205</v>
       </c>
       <c r="B225">
-        <v>0.88393543428131327</v>
+        <v>0.008839354342813133</v>
       </c>
       <c r="C225">
-        <v>0.78210515165424432</v>
+        <v>0.007821051516542443</v>
       </c>
       <c r="D225" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226" s="2">
         <v>45204</v>
       </c>
       <c r="B226">
-        <v>-0.952380952380949</v>
+        <v>-0.00952380952380949</v>
       </c>
       <c r="C226">
-        <v>-0.28431346659977258</v>
+        <v>-0.002843134665997726</v>
       </c>
       <c r="D226" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227" s="2">
         <v>45203</v>
       </c>
       <c r="B227">
-        <v>-1.538461538461533</v>
+        <v>-0.01538461538461533</v>
       </c>
       <c r="C227">
-        <v>0.16575706010457661</v>
+        <v>0.001657570601045766</v>
       </c>
       <c r="D227" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" s="2">
         <v>45202</v>
       </c>
       <c r="B228">
-        <v>-2.265625000000004</v>
+        <v>-0.02265625000000004</v>
       </c>
       <c r="C228">
-        <v>-1.423642194738262</v>
+        <v>-0.01423642194738262</v>
       </c>
       <c r="D228" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" s="2">
         <v>45201</v>
       </c>
       <c r="B229">
-        <v>1.2789768185451631</v>
+        <v>0.01278976818545163</v>
       </c>
       <c r="C229">
-        <v>-1.293698794663922</v>
+        <v>-0.01293698794663922</v>
       </c>
       <c r="D229" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" s="2">
         <v>45198</v>
       </c>
       <c r="B230">
-        <v>0.9471191791633693</v>
+        <v>0.009471191791633693</v>
       </c>
       <c r="C230">
-        <v>0.72063664878037059</v>
+        <v>0.007206366487803706</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" s="2">
         <v>45197</v>
       </c>
       <c r="B231">
-        <v>0.15637216575450361</v>
+        <v>0.001563721657545036</v>
       </c>
       <c r="C231">
-        <v>1.2280563646382749</v>
+        <v>0.01228056364638275</v>
       </c>
       <c r="D231" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232" s="2">
         <v>45196</v>
       </c>
       <c r="B232">
-        <v>-2.5761124121779888</v>
+        <v>-0.02576112412177989</v>
       </c>
       <c r="C232">
-        <v>0.117345196290497</v>
+        <v>0.00117345196290497</v>
       </c>
       <c r="D232" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" s="2">
         <v>45195</v>
       </c>
       <c r="B233">
-        <v>0.20032051282050661</v>
+        <v>0.002003205128205066</v>
       </c>
       <c r="C233">
-        <v>-1.4940694414492079</v>
+        <v>-0.01494069441449208</v>
       </c>
       <c r="D233" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" s="2">
         <v>45194</v>
       </c>
       <c r="B234">
-        <v>1.479408236705315</v>
+        <v>0.01479408236705315</v>
       </c>
       <c r="C234">
-        <v>-7.2408175227789418E-2</v>
+        <v>-0.0007240817522778942</v>
       </c>
       <c r="D234" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" s="2">
         <v>45191</v>
       </c>
       <c r="B235">
-        <v>-0.2758077226162392</v>
+        <v>-0.002758077226162392</v>
       </c>
       <c r="C235">
-        <v>-0.11709501054716349</v>
+        <v>-0.001170950105471635</v>
       </c>
       <c r="D235" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" s="2">
         <v>45190</v>
       </c>
       <c r="B236">
-        <v>0.27657052548399902</v>
+        <v>0.00276570525483999</v>
       </c>
       <c r="C236">
-        <v>-2.1483634525464419</v>
+        <v>-0.02148363452546442</v>
       </c>
       <c r="D236" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" s="2">
         <v>45189</v>
       </c>
       <c r="B237">
-        <v>2.3246650906225459</v>
+        <v>0.02324665090622546</v>
       </c>
       <c r="C237">
-        <v>0.7204317499108992</v>
+        <v>0.007204317499108992</v>
       </c>
       <c r="D237" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" s="2">
         <v>45188</v>
       </c>
       <c r="B238">
-        <v>-1.6557566422795491</v>
+        <v>-0.01655756642279549</v>
       </c>
       <c r="C238">
-        <v>-0.37366427701880373</v>
+        <v>-0.003736642770188037</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" s="2">
         <v>45187</v>
       </c>
       <c r="B239">
-        <v>0.27407987470633438</v>
+        <v>0.002740798747063344</v>
       </c>
       <c r="C239">
-        <v>-0.39576281176847422</v>
+        <v>-0.003957628117684742</v>
       </c>
       <c r="D239" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" s="2">
         <v>45184</v>
       </c>
       <c r="B240">
-        <v>0.27333073018351861</v>
+        <v>0.002733307301835186</v>
       </c>
       <c r="C240">
-        <v>-0.53102385419458997</v>
+        <v>-0.0053102385419459</v>
       </c>
       <c r="D240" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241" s="2">
         <v>45183</v>
       </c>
       <c r="B241">
-        <v>0.19470404984422979</v>
+        <v>0.001947040498442298</v>
       </c>
       <c r="C241">
-        <v>1.028973734091521</v>
+        <v>0.01028973734091521</v>
       </c>
       <c r="D241" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242" s="2">
         <v>45182</v>
       </c>
       <c r="B242">
-        <v>0.38865137971237917</v>
+        <v>0.003886513797123792</v>
       </c>
       <c r="C242">
-        <v>0.17631900176318099</v>
+        <v>0.00176319001763181</v>
       </c>
       <c r="D242" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243" s="2">
         <v>45181</v>
       </c>
       <c r="B243">
-        <v>-0.50329074719318578</v>
+        <v>-0.005032907471931858</v>
       </c>
       <c r="C243">
-        <v>0.92827870605647345</v>
+        <v>0.009282787060564734</v>
       </c>
       <c r="D243" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244" s="2">
         <v>45180</v>
       </c>
       <c r="B244">
-        <v>-0.54474708171206032</v>
+        <v>-0.005447470817120603</v>
       </c>
       <c r="C244">
-        <v>1.3615117116023261</v>
+        <v>0.01361511711602326</v>
       </c>
       <c r="D244" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245" s="2">
         <v>45177</v>
       </c>
       <c r="B245">
-        <v>-7.0149253731343286</v>
+        <v>-0.07014925373134329</v>
       </c>
       <c r="C245">
-        <v>-0.57938526533602985</v>
+        <v>-0.005793852653360299</v>
       </c>
       <c r="D245" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246" s="2">
         <v>45175</v>
       </c>
       <c r="B246">
-        <v>-0.16051364365972101</v>
+        <v>-0.00160513643659721</v>
       </c>
       <c r="C246">
-        <v>-1.14718190418559</v>
+        <v>-0.0114718190418559</v>
       </c>
       <c r="D246" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247" s="2">
         <v>45174</v>
       </c>
       <c r="B247">
-        <v>1.0048231511254</v>
+        <v>0.010048231511254</v>
       </c>
       <c r="C247">
-        <v>-0.37868174601153332</v>
+        <v>-0.003786817460115333</v>
       </c>
       <c r="D247" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248" s="2">
         <v>45173</v>
       </c>
       <c r="B248">
-        <v>1.512136888181459</v>
+        <v>0.01512136888181459</v>
       </c>
       <c r="C248">
-        <v>-9.8394306701843348E-2</v>
+        <v>-0.0009839430670184335</v>
       </c>
       <c r="D248" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249" s="2">
         <v>45170</v>
       </c>
       <c r="B249">
-        <v>-6.9414316702820056</v>
+        <v>-0.06941431670282006</v>
       </c>
       <c r="C249">
-        <v>1.8584437801316691</v>
+        <v>0.01858443780131669</v>
       </c>
       <c r="D249" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250" s="2">
         <v>45169</v>
       </c>
       <c r="B250">
-        <v>-0.85470085470085166</v>
+        <v>-0.008547008547008517</v>
       </c>
       <c r="C250">
-        <v>-1.5255030416471691</v>
+        <v>-0.01525503041647169</v>
       </c>
       <c r="D250" t="s">
         <v>15</v>
@@ -7198,24 +7129,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-8.3243885126864245E-2</v>
+        <v>-0.08324388512686424</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ITUB4cg_1anos.xlsx
+++ b/doc/ITUB4cg_1anos.xlsx
@@ -184,9 +184,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$250</c:f>
+              <c:f>Retornos!$D$2:$D$249</c:f>
               <c:strCache>
-                <c:ptCount val="249"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>08/2024</c:v>
                 </c:pt>
@@ -930,19 +930,16 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>09/2023</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>08/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$250</c:f>
+              <c:f>Retornos!$B$2:$B$249</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="249"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>0.007088331515812341</c:v>
                 </c:pt>
@@ -1686,9 +1683,6 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>-0.06941431670282006</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>-0.008547008547008517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,9 +1702,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$250</c:f>
+              <c:f>Retornos!$D$2:$D$249</c:f>
               <c:strCache>
-                <c:ptCount val="249"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>08/2024</c:v>
                 </c:pt>
@@ -2454,19 +2448,16 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>09/2023</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>08/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$250</c:f>
+              <c:f>Retornos!$C$2:$C$249</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="249"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>-0.009487127213420266</c:v>
                 </c:pt>
@@ -3210,9 +3201,6 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>0.01858443780131669</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>-0.01525503041647169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3624,6 +3612,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -7135,6 +7126,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">

--- a/doc/ITUB4cg_1anos.xlsx
+++ b/doc/ITUB4cg_1anos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="17">
   <si>
     <t>acao</t>
   </si>
@@ -184,9 +184,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$249</c:f>
+              <c:f>Retornos!$D$2:$D$248</c:f>
               <c:strCache>
-                <c:ptCount val="248"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
                   <c:v>08/2024</c:v>
                 </c:pt>
@@ -239,16 +239,16 @@
                   <c:v>08/2024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>08/2024</c:v>
+                  <c:v>07/2024</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>08/2024</c:v>
+                  <c:v>07/2024</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>08/2024</c:v>
+                  <c:v>07/2024</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>08/2024</c:v>
+                  <c:v>07/2024</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>07/2024</c:v>
@@ -308,16 +308,16 @@
                   <c:v>07/2024</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>07/2024</c:v>
+                  <c:v>06/2024</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>07/2024</c:v>
+                  <c:v>06/2024</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>07/2024</c:v>
+                  <c:v>06/2024</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>07/2024</c:v>
+                  <c:v>06/2024</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>06/2024</c:v>
@@ -368,16 +368,16 @@
                   <c:v>06/2024</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>06/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>06/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>06/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>06/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>05/2024</c:v>
@@ -431,16 +431,16 @@
                   <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>05/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>05/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>05/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>05/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>04/2024</c:v>
@@ -497,16 +497,16 @@
                   <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>04/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>04/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>04/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>04/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>03/2024</c:v>
@@ -557,16 +557,16 @@
                   <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>03/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>03/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>03/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>03/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>02/2024</c:v>
@@ -614,16 +614,16 @@
                   <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>02/2024</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>02/2024</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>02/2024</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>02/2024</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>01/2024</c:v>
@@ -680,16 +680,16 @@
                   <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>01/2024</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>01/2024</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>01/2024</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>01/2024</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>12/2023</c:v>
@@ -737,16 +737,16 @@
                   <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>12/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>12/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>12/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>12/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>11/2023</c:v>
@@ -797,16 +797,16 @@
                   <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>11/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>11/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>11/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>11/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="207">
                   <c:v>10/2023</c:v>
@@ -860,16 +860,16 @@
                   <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>10/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>10/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>10/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>10/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>09/2023</c:v>
@@ -920,769 +920,763 @@
                   <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>09/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>09/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>09/2023</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>09/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$249</c:f>
+              <c:f>Retornos!$B$2:$B$248</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
-                  <c:v>0.007088331515812341</c:v>
+                  <c:v>-0.002190580503833695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01109907958852197</c:v>
+                  <c:v>0.007683863885839859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.02115127175368137</c:v>
+                  <c:v>0.0092592592592593</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.001094091903719896</c:v>
+                  <c:v>0.004047490555855404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.002190580503833695</c:v>
+                  <c:v>-0.007256113947863518</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.007683863885839859</c:v>
+                  <c:v>-0.005955603681645827</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0092592592592593</c:v>
+                  <c:v>0.008442265795207016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.004047490555855404</c:v>
+                  <c:v>-0.01566297596543342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.007256113947863518</c:v>
+                  <c:v>-0.02414266117969832</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.005955603681645827</c:v>
+                  <c:v>-0.02755130728141686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.008442265795207016</c:v>
+                  <c:v>-0.001445504481064064</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.01566297596543342</c:v>
+                  <c:v>-0.02634626519976824</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.02414266117969832</c:v>
+                  <c:v>0.003568242640499486</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.02755130728141686</c:v>
+                  <c:v>-0.002666666666666817</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.001445504481064064</c:v>
+                  <c:v>-0.02168746286393342</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.02634626519976824</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.003568242640499486</c:v>
+                  <c:v>0.01275432736106907</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.002666666666666817</c:v>
+                  <c:v>0.014992503748126</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.02168746286393342</c:v>
+                  <c:v>0.01418020679468235</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.003786775415088872</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.007254788160185766</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.007307804735457446</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.004416961130742081</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.001465845793022558</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.001463700234192178</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0005846243788365513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.00759567630733271</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.004710038269061023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.0108409024318783</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.005924170616113611</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.003873659117997641</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.005683517798384718</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.005948839976204545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.01047277079593067</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.006954944058058521</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.001827040194884111</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.0006079027355622157</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.001520681265206991</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.006091989034419654</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.01287159056083365</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.004656938838869973</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0009270704573547395</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.00185242358752713</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.001855861429013395</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.003087372645878439</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.01424589656240327</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.006911718504555409</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.006959822840873153</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.007854225573358464</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0006333122229260635</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.02373417721518989</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0009724473257697319</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.01036269430051817</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.001602564102564097</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.01088</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.00776447751536713</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.014446227929374</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.01265822784810133</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.001923076923076916</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.003518873960332791</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.01380417335473516</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.01041666666666674</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.007087628865979356</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.005118362124120202</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.0009505703422052481</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.009831906121154477</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.009108040201005085</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.01556178026766264</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.005209929512718148</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.003048780487804992</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.0003039513677810524</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.003040437823046638</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.002728099424067709</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.01088270858524787</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.01222493887530562</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.01113861386138615</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0309762202753443</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.006373292867981828</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.02015882712278572</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.006234413965087282</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.01254705144291091</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.0142947903430749</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.01901385755720275</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.007906388361796246</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.01631628490743642</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.005422647527910662</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.004441624365482344</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.01452937460518011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0006410256410256387</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.005765534913517056</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.001273885350318471</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.0006377551020407823</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.007338864071474216</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0174216027874563</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.01027397260273988</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.001848998459167861</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.02183943402030142</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.01053582179409995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.0146029814420443</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.001852423587527019</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.01325115562403689</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.007603406326033957</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.001207364926048893</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.03535811423390745</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.001751313485113704</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.005555555555555647</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.01940605704204634</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.01097271648873066</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.01409295352323836</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.01034890597279725</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.00175592625109755</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.001465845793022447</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.004110393423370495</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.005601415094339535</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.0005863383172091119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.009961910342807023</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.00414323764427349</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.004754829123328252</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.009256494475962995</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.01084990958408683</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.01103160405485981</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0009044317154054404</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.007831325301204783</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.004482964734010664</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.02551786250375243</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.0005854800936766491</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.01200937316930295</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.002964719833975504</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.002973535533749683</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.005666567253205912</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.005634638196915676</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.02123267472721913</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.01084664055438378</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.0009137983551630313</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.008216676810712031</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.01275432736106907</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.014992503748126</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.01418020679468235</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.003786775415088872</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.007254788160185766</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.007307804735457446</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.004416961130742081</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.001465845793022558</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.001463700234192178</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0005846243788365513</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.00759567630733271</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.004710038269061023</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.0108409024318783</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.005924170616113611</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.003873659117997641</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.005683517798384718</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.005948839976204545</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.01047277079593067</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.006954944058058521</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.001827040194884111</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.0006079027355622157</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.001520681265206991</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.006091989034419654</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.01287159056083365</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.004656938838869973</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0009270704573547395</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.00185242358752713</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.001855861429013395</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.003087372645878439</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.01424589656240327</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.006911718504555409</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.006959822840873153</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.007854225573358464</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.0006333122229260635</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.02373417721518989</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.0009724473257697319</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.01036269430051817</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.001602564102564097</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.01088</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.00776447751536713</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.014446227929374</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.01265822784810133</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.001923076923076916</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.003518873960332791</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.01380417335473516</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.01041666666666674</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.007087628865979356</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.005118362124120202</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.0009505703422052481</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.009831906121154477</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.009108040201005085</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.01556178026766264</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.005209929512718148</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.003048780487804992</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.0003039513677810524</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.003040437823046638</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.002728099424067709</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.01088270858524787</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.01222493887530562</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.01113861386138615</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0309762202753443</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-0.006373292867981828</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-0.02015882712278572</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-0.006234413965087282</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-0.01254705144291091</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-0.0142947903430749</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.01901385755720275</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.007906388361796246</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-0.01631628490743642</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.005422647527910662</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.004441624365482344</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-0.01452937460518011</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.0006410256410256387</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.005765534913517056</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-0.001273885350318471</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.0006377551020407823</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.007338864071474216</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.0174216027874563</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.01027397260273988</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.001848998459167861</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.02183943402030142</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-0.01053582179409995</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-0.0146029814420443</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.001852423587527019</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.01325115562403689</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.007603406326033957</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-0.001207364926048893</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.03535811423390745</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-0.001751313485113704</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-0.005555555555555647</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-0.01940605704204634</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-0.01097271648873066</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.01409295352323836</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.01034890597279725</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-0.00175592625109755</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-0.001465845793022447</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-0.004110393423370495</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.005601415094339535</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.0005863383172091119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-0.009961910342807023</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-0.00414323764427349</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-0.004754829123328252</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-0.009256494475962995</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.01084990958408683</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-0.01103160405485981</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.0009044317154054404</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.007831325301204783</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-0.004482964734010664</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.02551786250375243</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-0.0005854800936766491</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-0.01200937316930295</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-0.002964719833975504</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-0.002973535533749683</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.005666567253205912</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.005634638196915676</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-0.02123267472721913</c:v>
-                </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.01084664055438378</c:v>
+                  <c:v>-0.01258054617980986</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.0009137983551630313</c:v>
+                  <c:v>0.02019888129272829</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.008216676810712031</c:v>
+                  <c:v>0.007005787389582796</c:v>
                 </c:pt>
                 <c:pt idx="139">
+                  <c:v>-0.04083484573502727</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.01860611794386624</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.001606683804627251</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.00225297714837458</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.01091843288375083</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.006493506493506551</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.005483870967742055</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.01475777991658644</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.002279387821556567</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.004548408057180042</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.004527813712807305</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.01656920077972712</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.002556727388942082</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.004485741749439276</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.0006379585326954373</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.01404404723906794</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.001573811772112133</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.001261034047919218</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.001893939393939337</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.0009487666034155851</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.0006319115323856206</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.01073571203031243</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.0228053733208371</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.006713554987212156</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.01111463956811698</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.01287688442211055</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.002480620155038693</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.006838669567920452</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.01032863849765253</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.01549652118912093</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.006745904272405956</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.01034928848641647</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.0003201024327784685</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.005123278898495065</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.004505954296749382</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.008330663248958703</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.02940226171243943</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.004993342210386276</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.006955945677376452</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.01249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.01099267155229844</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.008757157292017537</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.00801335559265437</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.001346348030966005</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.002359285473542139</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.01513113651647613</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.006828269033799961</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.009625300790649716</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.002429711905588272</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.005540166204986097</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.001377410468319518</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.006189821182943644</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.001730103806228289</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.009671848013816819</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.004883153121730044</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.01577287066246069</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.01460113960113951</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.006866642573183812</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.01184493898061734</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.004722121322194073</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.004379562043795526</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.02712609970674495</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-0.009419743782969059</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-0.0266260935717002</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-0.01406799531066816</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.009908838684106192</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.007849293563579218</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.01518691588785059</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.02416570771001147</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-0.001965408805031488</c:v>
+                </c:pt>
+                <c:pt idx="209">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="140">
-                  <c:v>-0.01258054617980986</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.02019888129272829</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.007005787389582796</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-0.04083484573502727</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-0.01860611794386624</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-0.001606683804627251</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.00225297714837458</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-0.01091843288375083</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.006493506493506551</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.005483870967742055</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-0.01475777991658644</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.002279387821556567</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.004548408057180042</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-0.004527813712807305</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.01656920077972712</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-0.002556727388942082</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.004485741749439276</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-0.0006379585326954373</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.01404404723906794</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-0.001573811772112133</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-0.001261034047919218</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-0.001893939393939337</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.0009487666034155851</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.0006319115323856206</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.01073571203031243</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-0.0228053733208371</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.006713554987212156</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.01111463956811698</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.01287688442211055</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-0.002480620155038693</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-0.006838669567920452</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-0.01032863849765253</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-0.01549652118912093</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-0.006745904272405956</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.01034928848641647</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-0.0003201024327784685</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-0.005123278898495065</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.004505954296749382</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-0.008330663248958703</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-0.02940226171243943</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.004993342210386276</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.006955945677376452</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-0.01249999999999996</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-0.01099267155229844</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.008757157292017537</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-0.00801335559265437</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-0.001346348030966005</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.002359285473542139</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>-0.01513113651647613</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>-0.006828269033799961</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>-0.009625300790649716</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.002429711905588272</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.005540166204986097</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.001377410468319518</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>-0.006189821182943644</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.001730103806228289</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-0.009671848013816819</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>-0.004883153121730044</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-0.01577287066246069</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>-0.01460113960113951</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.006866642573183812</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>-0.01184493898061734</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>-0.004722121322194073</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>-0.004379562043795526</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>-0.02712609970674495</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>-0.009419743782969059</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>-0.0266260935717002</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>-0.01406799531066816</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.009908838684106192</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.007849293563579218</c:v>
-                </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.01518691588785059</c:v>
+                  <c:v>-0.001181567546278073</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.02416570771001147</c:v>
+                  <c:v>0.003943217665615117</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-0.001965408805031488</c:v>
+                  <c:v>-0.01139041633935578</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0</c:v>
+                  <c:v>0.02105681366706391</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.001181567546278073</c:v>
+                  <c:v>0.01517509727626454</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.003943217665615117</c:v>
+                  <c:v>-0.001533154465312325</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-0.01139041633935578</c:v>
+                  <c:v>0.01036468330134355</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.02105681366706391</c:v>
+                  <c:v>-0.01253799392097277</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.01517509727626454</c:v>
+                  <c:v>0.001154290111581524</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.001533154465312325</c:v>
+                  <c:v>0.008839354342813133</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.01036468330134355</c:v>
+                  <c:v>-0.00952380952380949</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-0.01253799392097277</c:v>
+                  <c:v>-0.01538461538461533</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.001154290111581524</c:v>
+                  <c:v>-0.02265625000000004</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.008839354342813133</c:v>
+                  <c:v>0.01278976818545163</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.00952380952380949</c:v>
+                  <c:v>0.009471191791633693</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-0.01538461538461533</c:v>
+                  <c:v>0.001563721657545036</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.02265625000000004</c:v>
+                  <c:v>-0.02576112412177989</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.01278976818545163</c:v>
+                  <c:v>0.002003205128205066</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.009471191791633693</c:v>
+                  <c:v>0.01479408236705315</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.001563721657545036</c:v>
+                  <c:v>-0.002758077226162392</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-0.02576112412177989</c:v>
+                  <c:v>0.00276570525483999</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.002003205128205066</c:v>
+                  <c:v>0.02324665090622546</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.01479408236705315</c:v>
+                  <c:v>-0.01655756642279549</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.002758077226162392</c:v>
+                  <c:v>0.002740798747063344</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.00276570525483999</c:v>
+                  <c:v>0.002733307301835186</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.02324665090622546</c:v>
+                  <c:v>0.001947040498442298</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.01655756642279549</c:v>
+                  <c:v>0.003886513797123792</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.002740798747063344</c:v>
+                  <c:v>-0.005032907471931858</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.002733307301835186</c:v>
+                  <c:v>-0.005447470817120603</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.001947040498442298</c:v>
+                  <c:v>-0.07014925373134329</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.003886513797123792</c:v>
+                  <c:v>-0.00160513643659721</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-0.005032907471931858</c:v>
+                  <c:v>0.010048231511254</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-0.005447470817120603</c:v>
+                  <c:v>0.01512136888181459</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-0.07014925373134329</c:v>
+                  <c:v>-0.06941431670282006</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-0.00160513643659721</c:v>
+                  <c:v>-0.008547008547008517</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.010048231511254</c:v>
+                  <c:v>0.008620689655172376</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.01512136888181459</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>-0.06941431670282006</c:v>
+                  <c:v>0.01981351981351986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,9 +1696,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$249</c:f>
+              <c:f>Retornos!$D$2:$D$248</c:f>
               <c:strCache>
-                <c:ptCount val="248"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
                   <c:v>08/2024</c:v>
                 </c:pt>
@@ -1757,16 +1751,16 @@
                   <c:v>08/2024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>08/2024</c:v>
+                  <c:v>07/2024</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>08/2024</c:v>
+                  <c:v>07/2024</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>08/2024</c:v>
+                  <c:v>07/2024</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>08/2024</c:v>
+                  <c:v>07/2024</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>07/2024</c:v>
@@ -1826,16 +1820,16 @@
                   <c:v>07/2024</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>07/2024</c:v>
+                  <c:v>06/2024</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>07/2024</c:v>
+                  <c:v>06/2024</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>07/2024</c:v>
+                  <c:v>06/2024</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>07/2024</c:v>
+                  <c:v>06/2024</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>06/2024</c:v>
@@ -1886,16 +1880,16 @@
                   <c:v>06/2024</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>06/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>06/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>06/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>06/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>05/2024</c:v>
@@ -1949,16 +1943,16 @@
                   <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>05/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>05/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>05/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>05/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>04/2024</c:v>
@@ -2015,16 +2009,16 @@
                   <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>04/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>04/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>04/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>04/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>03/2024</c:v>
@@ -2075,16 +2069,16 @@
                   <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>03/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>03/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>03/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>03/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>02/2024</c:v>
@@ -2132,16 +2126,16 @@
                   <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>02/2024</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>02/2024</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>02/2024</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>02/2024</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>01/2024</c:v>
@@ -2198,16 +2192,16 @@
                   <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>01/2024</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>01/2024</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>01/2024</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>01/2024</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>12/2023</c:v>
@@ -2255,16 +2249,16 @@
                   <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>12/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>12/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>12/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>12/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>11/2023</c:v>
@@ -2315,16 +2309,16 @@
                   <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>11/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>11/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>11/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>11/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="207">
                   <c:v>10/2023</c:v>
@@ -2378,16 +2372,16 @@
                   <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>10/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>10/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>10/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>10/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>09/2023</c:v>
@@ -2438,769 +2432,763 @@
                   <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>09/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>09/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>09/2023</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>09/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$249</c:f>
+              <c:f>Retornos!$C$2:$C$248</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
-                  <c:v>-0.009487127213420266</c:v>
+                  <c:v>0.003218098288859439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00415277534070313</c:v>
+                  <c:v>-0.009460370500644855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.000825486342949433</c:v>
+                  <c:v>0.002770286654860454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.009446345348357088</c:v>
+                  <c:v>0.002275773689404792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.003218098288859439</c:v>
+                  <c:v>0.01362418161593992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.009460370500644855</c:v>
+                  <c:v>-0.001490835091276344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.002770286654860454</c:v>
+                  <c:v>0.006263220270330994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.002275773689404792</c:v>
+                  <c:v>0.006948745449327109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01362418161593992</c:v>
+                  <c:v>0.009777601513163869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.001490835091276344</c:v>
+                  <c:v>0.003835700340695913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.006263220270330994</c:v>
+                  <c:v>0.0151871973636144</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.006948745449327109</c:v>
+                  <c:v>0.008995090735135047</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.009777601513163869</c:v>
+                  <c:v>0.009875897898896868</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.003835700340695913</c:v>
+                  <c:v>0.007958808972619247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0151871973636144</c:v>
+                  <c:v>-0.004640297487565004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.008995090735135047</c:v>
+                  <c:v>-0.01209623611601707</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.009875897898896868</c:v>
+                  <c:v>-0.002013286121643199</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.007958808972619247</c:v>
+                  <c:v>0.01199470425483007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.004640297487565004</c:v>
+                  <c:v>-0.006419648061502636</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.01209623611601707</c:v>
+                  <c:v>-0.004219872619458442</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.002013286121643199</c:v>
+                  <c:v>0.01221080712005973</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.01199470425483007</c:v>
+                  <c:v>-0.003709768001075808</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.006419648061502636</c:v>
+                  <c:v>-0.001319219527608828</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.004219872619458442</c:v>
+                  <c:v>-0.009932738933208229</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.01221080712005973</c:v>
+                  <c:v>0.001911985957873563</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.003709768001075808</c:v>
+                  <c:v>-0.0002820167329927736</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.001319219527608828</c:v>
+                  <c:v>-0.01388953263808423</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.009932738933208229</c:v>
+                  <c:v>0.002633413368445581</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.001911985957873563</c:v>
+                  <c:v>-0.001631598889584862</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.0002820167329927736</c:v>
+                  <c:v>0.003289448164037978</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.01388953263808423</c:v>
+                  <c:v>0.004700141861661455</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.002633413368445581</c:v>
+                  <c:v>0.008457922621012859</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.001631598889584862</c:v>
+                  <c:v>0.000865405796645291</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.003289448164037978</c:v>
+                  <c:v>0.004425198343711578</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.004700141861661455</c:v>
+                  <c:v>0.002225442910657627</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.008457922621012859</c:v>
+                  <c:v>0.0008163977045749782</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.000865405796645291</c:v>
+                  <c:v>0.003994843309831131</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.004425198343711578</c:v>
+                  <c:v>0.007011948360005515</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.002225442910657627</c:v>
+                  <c:v>0.0005532481277763512</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0008163977045749782</c:v>
+                  <c:v>0.00654523150427333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.003994843309831131</c:v>
+                  <c:v>-0.003225858351835753</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.007011948360005515</c:v>
+                  <c:v>0.01359251799969008</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0005532481277763512</c:v>
+                  <c:v>0.00253410827999434</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.00654523150427333</c:v>
+                  <c:v>-0.002495168668509518</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.003225858351835753</c:v>
+                  <c:v>0.01068064380547384</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.01359251799969008</c:v>
+                  <c:v>0.007430715839463309</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.00253410827999434</c:v>
+                  <c:v>0.001538320818885497</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.002495168668509518</c:v>
+                  <c:v>0.005274596673075393</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.01068064380547384</c:v>
+                  <c:v>0.004129664758515394</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.007430715839463309</c:v>
+                  <c:v>-0.004379000852400949</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.001538320818885497</c:v>
+                  <c:v>0.0007861635220125507</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.005274596673075393</c:v>
+                  <c:v>-0.00306830309498396</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.004129664758515394</c:v>
+                  <c:v>-0.01396801907345746</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.004379000852400949</c:v>
+                  <c:v>0.007245776747267341</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0007861635220125507</c:v>
+                  <c:v>-5.796285409098711e-05</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.00306830309498396</c:v>
+                  <c:v>-0.01734757809258014</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.01396801907345746</c:v>
+                  <c:v>0.01228924197122083</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.007245776747267341</c:v>
+                  <c:v>-0.003242968095761967</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-5.796285409098711e-05</c:v>
+                  <c:v>-0.001884751540579543</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.01734757809258014</c:v>
+                  <c:v>-0.0005405493947484574</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.01228924197122083</c:v>
+                  <c:v>-0.004963042043241161</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.003242968095761967</c:v>
+                  <c:v>-0.008668605590563927</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.001884751540579543</c:v>
+                  <c:v>-0.005751188793214235</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.0005405493947484574</c:v>
+                  <c:v>0.001528486155133235</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.004963042043241161</c:v>
+                  <c:v>-0.003391352452116192</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.008668605590563927</c:v>
+                  <c:v>-0.00732988460007955</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.005751188793214235</c:v>
+                  <c:v>-0.01382915267007823</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.001528486155133235</c:v>
+                  <c:v>-0.002653599580433763</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.003391352452116192</c:v>
+                  <c:v>-0.003121317820383718</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.00732988460007955</c:v>
+                  <c:v>-0.001036762183904472</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.01382915267007823</c:v>
+                  <c:v>0.001999562595682125</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.002653599580433763</c:v>
+                  <c:v>-0.003789440921293186</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.003121317820383718</c:v>
+                  <c:v>0.002809098357457795</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.001036762183904472</c:v>
+                  <c:v>0.004349529780564243</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.001999562595682125</c:v>
+                  <c:v>-0.004587012824913361</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.003789440921293186</c:v>
+                  <c:v>-0.009986021115067079</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.002809098357457795</c:v>
+                  <c:v>0.002097360885380484</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.004349529780564243</c:v>
+                  <c:v>0.0057914156274812</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.004587012824913361</c:v>
+                  <c:v>-0.0003346069146907826</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.009986021115067079</c:v>
+                  <c:v>0.01091077862211098</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.002097360885380484</c:v>
+                  <c:v>0.009513674915028192</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0057914156274812</c:v>
+                  <c:v>-0.01121301589295809</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.0003346069146907826</c:v>
+                  <c:v>0.006528302483284065</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.01091077862211098</c:v>
+                  <c:v>0.0150827142467469</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.009513674915028192</c:v>
+                  <c:v>-0.0007615779895944197</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.01121301589295809</c:v>
+                  <c:v>-0.003252149455045261</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.006528302483284065</c:v>
+                  <c:v>-0.003384485518383773</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0150827142467469</c:v>
+                  <c:v>0.0035884402672548</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.0007615779895944197</c:v>
+                  <c:v>0.007472060291796812</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.003252149455045261</c:v>
+                  <c:v>0.0002013352554139924</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.003384485518383773</c:v>
+                  <c:v>-0.001752566545273337</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0035884402672548</c:v>
+                  <c:v>-0.007539853511417505</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.007472060291796812</c:v>
+                  <c:v>-0.004859225382306653</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0002013352554139924</c:v>
+                  <c:v>-0.01138183302458473</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.001752566545273337</c:v>
+                  <c:v>-0.005138457213363146</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.007539853511417505</c:v>
+                  <c:v>-0.01413503733928712</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.004859225382306653</c:v>
+                  <c:v>0.008016638599377623</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.01138183302458473</c:v>
+                  <c:v>0.0162624709176229</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.005138457213363146</c:v>
+                  <c:v>-0.004967511065072094</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.01413503733928712</c:v>
+                  <c:v>0.000863978384831654</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.008016638599377623</c:v>
+                  <c:v>-0.001811068687328055</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0162624709176229</c:v>
+                  <c:v>0.004401921411134824</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.004967511065072094</c:v>
+                  <c:v>-0.008711535759449163</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.000863978384831654</c:v>
+                  <c:v>0.003250033283473286</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.001811068687328055</c:v>
+                  <c:v>0.006526725680458423</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.004401921411134824</c:v>
+                  <c:v>-0.000535724133584381</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.008711535759449163</c:v>
+                  <c:v>-0.0007557448416478652</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.003250033283473286</c:v>
+                  <c:v>-0.008832778033536437</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.006526725680458423</c:v>
+                  <c:v>-0.007481122942884832</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.000535724133584381</c:v>
+                  <c:v>0.01251480055516785</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.0007557448416478652</c:v>
+                  <c:v>0.004529199552593788</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.008832778033536437</c:v>
+                  <c:v>0.001672689400514349</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.007481122942884832</c:v>
+                  <c:v>-0.007424230558383593</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.01251480055516785</c:v>
+                  <c:v>-0.002468634282768001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.004529199552593788</c:v>
+                  <c:v>0.002647491932199042</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.001672689400514349</c:v>
+                  <c:v>0.01224192064951946</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.007424230558383593</c:v>
+                  <c:v>-0.007452526540280613</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.002468634282768001</c:v>
+                  <c:v>-0.009887798036465667</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.002647491932199042</c:v>
+                  <c:v>-0.004267204593063845</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.01224192064951946</c:v>
+                  <c:v>0.006182766319536626</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.007452526540280613</c:v>
+                  <c:v>-0.001893393381694031</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.009887798036465667</c:v>
+                  <c:v>-0.006494813438612801</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.004267204593063845</c:v>
+                  <c:v>0.001240117811192043</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.006182766319536626</c:v>
+                  <c:v>-0.008720371864315624</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.001893393381694031</c:v>
+                  <c:v>-0.01164865706323226</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.006494813438612801</c:v>
+                  <c:v>0.01604826825297634</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.001240117811192043</c:v>
+                  <c:v>0.001468099738060058</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.008720371864315624</c:v>
+                  <c:v>-0.006311376601838115</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.01164865706323226</c:v>
+                  <c:v>0.001607296665436131</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01604826825297634</c:v>
+                  <c:v>0.0008928846331475171</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.001468099738060058</c:v>
+                  <c:v>0.006819802225735527</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.006311376601838115</c:v>
+                  <c:v>0.002408215900439714</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.001607296665436131</c:v>
+                  <c:v>0.007214171700416161</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.0008928846331475171</c:v>
+                  <c:v>0.006188099324505147</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.006819802225735527</c:v>
+                  <c:v>-0.007873400715479706</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.002408215900439714</c:v>
+                  <c:v>-0.001489662057293506</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.007214171700416161</c:v>
+                  <c:v>-0.01073236219986418</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.006188099324505147</c:v>
+                  <c:v>-0.006195558827137737</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.007873400715479706</c:v>
+                  <c:v>0.02212503820742517</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.001489662057293506</c:v>
+                  <c:v>0.003231589375854993</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.01073236219986418</c:v>
+                  <c:v>-0.01011044434585662</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.006195558827137737</c:v>
+                  <c:v>0.00570636858914142</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.02212503820742517</c:v>
+                  <c:v>0.002747209619943236</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.003231589375854993</c:v>
+                  <c:v>-0.008567893356575373</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-0.01011044434585662</c:v>
+                  <c:v>-0.003597819597261354</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.00570636858914142</c:v>
+                  <c:v>0.006226154530346584</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.002747209619943236</c:v>
+                  <c:v>0.002761782562433535</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.008567893356575373</c:v>
+                  <c:v>-0.003485026858875861</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-0.003597819597261354</c:v>
+                  <c:v>0.01311985592644671</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.006226154530346584</c:v>
+                  <c:v>-0.008101162681375174</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.002761782562433535</c:v>
+                  <c:v>0.002513431147695533</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.003485026858875861</c:v>
+                  <c:v>-0.009399022750614661</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.01311985592644671</c:v>
+                  <c:v>-0.005955419431682873</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.008101162681375174</c:v>
+                  <c:v>-0.01693265714220538</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.002513431147695533</c:v>
+                  <c:v>0.004069075029773828</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.009399022750614661</c:v>
+                  <c:v>0.00259473857434811</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.005955419431682873</c:v>
+                  <c:v>-0.00146742993404203</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.01693265714220538</c:v>
+                  <c:v>-0.004610223131756519</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.004069075029773828</c:v>
+                  <c:v>-0.007400303563472654</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.00259473857434811</c:v>
+                  <c:v>0.003060072866091446</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.00146742993404203</c:v>
+                  <c:v>0.006073491533689968</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.004610223131756519</c:v>
+                  <c:v>-0.01210533447761863</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.007400303563472654</c:v>
+                  <c:v>0.001032427259094026</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.003060072866091446</c:v>
+                  <c:v>-0.01108916793978465</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.006073491533689968</c:v>
+                  <c:v>-6.706708198578326e-05</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-0.01210533447761863</c:v>
+                  <c:v>0.004950087244351531</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.001032427259094026</c:v>
+                  <c:v>0.005875573433368642</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-0.01108916793978465</c:v>
+                  <c:v>0.00431980148583011</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-6.706708198578326e-05</c:v>
+                  <c:v>0.01053484602917343</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.004950087244351531</c:v>
+                  <c:v>-0.007940781639881433</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.005875573433368642</c:v>
+                  <c:v>0.005851209911202027</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.00431980148583011</c:v>
+                  <c:v>0.006812752982019665</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.01053484602917343</c:v>
+                  <c:v>-0.004929609758334452</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.007940781639881433</c:v>
+                  <c:v>0.01063607924921794</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.005851209911202027</c:v>
+                  <c:v>0.02422410860501722</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.006812752982019665</c:v>
+                  <c:v>-0.004042043556367947</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.004929609758334452</c:v>
+                  <c:v>-0.001400538184336053</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.01063607924921794</c:v>
+                  <c:v>0.008602491865725037</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.02422410860501722</c:v>
+                  <c:v>0.003080646060036774</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.004042043556367947</c:v>
+                  <c:v>-0.01008644397689573</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.001400538184336053</c:v>
+                  <c:v>0.0007886248748059099</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.008602491865725037</c:v>
+                  <c:v>-0.01014808396368549</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.003080646060036774</c:v>
+                  <c:v>0.006062938326095058</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.01008644397689573</c:v>
+                  <c:v>0.00975408601042016</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.0007886248748059099</c:v>
+                  <c:v>-0.003453508037111419</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.01014808396368549</c:v>
+                  <c:v>0.006802829340483596</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.006062938326095058</c:v>
+                  <c:v>0.001123130107852255</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.00975408601042016</c:v>
+                  <c:v>-0.008169005182657063</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-0.003453508037111419</c:v>
+                  <c:v>0.004292458444083103</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.006802829340483596</c:v>
+                  <c:v>0.003407453406259142</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.001123130107852255</c:v>
+                  <c:v>-0.003870097942027861</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.008169005182657063</c:v>
+                  <c:v>0.008259903088068343</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.004292458444083103</c:v>
+                  <c:v>0.003901232982275848</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.003407453406259142</c:v>
+                  <c:v>0.01011935651271401</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.003870097942027861</c:v>
+                  <c:v>0.02452316076294281</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.008259903088068343</c:v>
+                  <c:v>-0.002155243874133794</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.003901232982275848</c:v>
+                  <c:v>0.01364568278829026</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.01011935651271401</c:v>
+                  <c:v>-0.0007304847227936895</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.02452316076294281</c:v>
+                  <c:v>-0.001416976892376853</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-0.002155243874133794</c:v>
+                  <c:v>0.006591440411184424</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.01364568278829026</c:v>
+                  <c:v>0.002767433987813206</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-0.0007304847227936895</c:v>
+                  <c:v>0.02700494554683486</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.001416976892376853</c:v>
+                  <c:v>0.0168723043201584</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.006591440411184424</c:v>
+                  <c:v>0.005438453062240001</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.002767433987813206</c:v>
+                  <c:v>-0.006787230474576522</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.02700494554683486</c:v>
+                  <c:v>-0.01285971928173768</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.0168723043201584</c:v>
+                  <c:v>0.0172560489231588</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.005438453062240001</c:v>
+                  <c:v>-0.008192542325205276</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-0.006787230474576522</c:v>
+                  <c:v>0.008662499445848404</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-0.01285971928173768</c:v>
+                  <c:v>-0.00326985108921396</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.0172560489231588</c:v>
+                  <c:v>-0.007447107119048502</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.008192542325205276</c:v>
+                  <c:v>-0.0004909696650885476</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.008662499445848404</c:v>
+                  <c:v>-0.01594367946992448</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-0.00326985108921396</c:v>
+                  <c:v>-0.005371822815658955</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.007447107119048502</c:v>
+                  <c:v>0.006738428045683031</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-0.0004909696650885476</c:v>
+                  <c:v>-0.01108064006287857</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-0.01594367946992448</c:v>
+                  <c:v>0.002689807002064448</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.005371822815658955</c:v>
+                  <c:v>0.01372920212581197</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.006738428045683031</c:v>
+                  <c:v>0.008636244197249621</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.01108064006287857</c:v>
+                  <c:v>0.007821051516542443</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.002689807002064448</c:v>
+                  <c:v>-0.002843134665997726</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.01372920212581197</c:v>
+                  <c:v>0.001657570601045766</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.008636244197249621</c:v>
+                  <c:v>-0.01423642194738262</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.007821051516542443</c:v>
+                  <c:v>-0.01293698794663922</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.002843134665997726</c:v>
+                  <c:v>0.007206366487803706</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.001657570601045766</c:v>
+                  <c:v>0.01228056364638275</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.01423642194738262</c:v>
+                  <c:v>0.00117345196290497</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.01293698794663922</c:v>
+                  <c:v>-0.01494069441449208</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.007206366487803706</c:v>
+                  <c:v>-0.0007240817522778942</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.01228056364638275</c:v>
+                  <c:v>-0.001170950105471635</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.00117345196290497</c:v>
+                  <c:v>-0.02148363452546442</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-0.01494069441449208</c:v>
+                  <c:v>0.007204317499108992</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.0007240817522778942</c:v>
+                  <c:v>-0.003736642770188037</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.001170950105471635</c:v>
+                  <c:v>-0.003957628117684742</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-0.02148363452546442</c:v>
+                  <c:v>-0.0053102385419459</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.007204317499108992</c:v>
+                  <c:v>0.01028973734091521</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.003736642770188037</c:v>
+                  <c:v>0.00176319001763181</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-0.003957628117684742</c:v>
+                  <c:v>0.009282787060564734</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-0.0053102385419459</c:v>
+                  <c:v>0.01361511711602326</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.01028973734091521</c:v>
+                  <c:v>-0.005793852653360299</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.00176319001763181</c:v>
+                  <c:v>-0.0114718190418559</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.009282787060564734</c:v>
+                  <c:v>-0.003786817460115333</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.01361511711602326</c:v>
+                  <c:v>-0.0009839430670184335</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-0.005793852653360299</c:v>
+                  <c:v>0.01858443780131669</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-0.0114718190418559</c:v>
+                  <c:v>-0.01525503041647169</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-0.003786817460115333</c:v>
+                  <c:v>-0.007339279078409477</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-0.0009839430670184335</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.01858443780131669</c:v>
+                  <c:v>0.01095448297060297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3607,13 +3595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3629,13 +3619,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45533</v>
+        <v>45527</v>
       </c>
       <c r="B2">
-        <v>0.007088331515812341</v>
+        <v>-0.002190580503833695</v>
       </c>
       <c r="C2">
-        <v>-0.009487127213420266</v>
+        <v>0.003218098288859439</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3643,13 +3633,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45532</v>
+        <v>45526</v>
       </c>
       <c r="B3">
-        <v>0.01109907958852197</v>
+        <v>0.007683863885839859</v>
       </c>
       <c r="C3">
-        <v>0.00415277534070313</v>
+        <v>-0.009460370500644855</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3657,13 +3647,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45531</v>
+        <v>45525</v>
       </c>
       <c r="B4">
-        <v>-0.02115127175368137</v>
+        <v>0.0092592592592593</v>
       </c>
       <c r="C4">
-        <v>-0.000825486342949433</v>
+        <v>0.002770286654860454</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3671,13 +3661,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45530</v>
+        <v>45524</v>
       </c>
       <c r="B5">
-        <v>-0.001094091903719896</v>
+        <v>0.004047490555855404</v>
       </c>
       <c r="C5">
-        <v>0.009446345348357088</v>
+        <v>0.002275773689404792</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -3685,13 +3675,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45527</v>
+        <v>45523</v>
       </c>
       <c r="B6">
-        <v>-0.002190580503833695</v>
+        <v>-0.007256113947863518</v>
       </c>
       <c r="C6">
-        <v>0.003218098288859439</v>
+        <v>0.01362418161593992</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -3699,13 +3689,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45526</v>
+        <v>45520</v>
       </c>
       <c r="B7">
-        <v>0.007683863885839859</v>
+        <v>-0.005955603681645827</v>
       </c>
       <c r="C7">
-        <v>-0.009460370500644855</v>
+        <v>-0.001490835091276344</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -3713,13 +3703,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45525</v>
+        <v>45519</v>
       </c>
       <c r="B8">
-        <v>0.0092592592592593</v>
+        <v>0.008442265795207016</v>
       </c>
       <c r="C8">
-        <v>0.002770286654860454</v>
+        <v>0.006263220270330994</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -3727,13 +3717,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45524</v>
+        <v>45518</v>
       </c>
       <c r="B9">
-        <v>0.004047490555855404</v>
+        <v>-0.01566297596543342</v>
       </c>
       <c r="C9">
-        <v>0.002275773689404792</v>
+        <v>0.006948745449327109</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -3741,13 +3731,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45523</v>
+        <v>45517</v>
       </c>
       <c r="B10">
-        <v>-0.007256113947863518</v>
+        <v>-0.02414266117969832</v>
       </c>
       <c r="C10">
-        <v>0.01362418161593992</v>
+        <v>0.009777601513163869</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -3755,13 +3745,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45520</v>
+        <v>45516</v>
       </c>
       <c r="B11">
-        <v>-0.005955603681645827</v>
+        <v>-0.02755130728141686</v>
       </c>
       <c r="C11">
-        <v>-0.001490835091276344</v>
+        <v>0.003835700340695913</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -3769,13 +3759,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45519</v>
+        <v>45513</v>
       </c>
       <c r="B12">
-        <v>0.008442265795207016</v>
+        <v>-0.001445504481064064</v>
       </c>
       <c r="C12">
-        <v>0.006263220270330994</v>
+        <v>0.0151871973636144</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -3783,13 +3773,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45518</v>
+        <v>45512</v>
       </c>
       <c r="B13">
-        <v>-0.01566297596543342</v>
+        <v>-0.02634626519976824</v>
       </c>
       <c r="C13">
-        <v>0.006948745449327109</v>
+        <v>0.008995090735135047</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -3797,13 +3787,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45517</v>
+        <v>45511</v>
       </c>
       <c r="B14">
-        <v>-0.02414266117969832</v>
+        <v>0.003568242640499486</v>
       </c>
       <c r="C14">
-        <v>0.009777601513163869</v>
+        <v>0.009875897898896868</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -3811,13 +3801,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45516</v>
+        <v>45510</v>
       </c>
       <c r="B15">
-        <v>-0.02755130728141686</v>
+        <v>-0.002666666666666817</v>
       </c>
       <c r="C15">
-        <v>0.003835700340695913</v>
+        <v>0.007958808972619247</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -3825,13 +3815,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45513</v>
+        <v>45509</v>
       </c>
       <c r="B16">
-        <v>-0.001445504481064064</v>
+        <v>-0.02168746286393342</v>
       </c>
       <c r="C16">
-        <v>0.0151871973636144</v>
+        <v>-0.004640297487565004</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -3839,13 +3829,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45512</v>
+        <v>45506</v>
       </c>
       <c r="B17">
-        <v>-0.02634626519976824</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.008995090735135047</v>
+        <v>-0.01209623611601707</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -3853,13 +3843,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45511</v>
+        <v>45505</v>
       </c>
       <c r="B18">
-        <v>0.003568242640499486</v>
+        <v>0.01275432736106907</v>
       </c>
       <c r="C18">
-        <v>0.009875897898896868</v>
+        <v>-0.002013286121643199</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -3867,69 +3857,69 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45510</v>
+        <v>45504</v>
       </c>
       <c r="B19">
-        <v>-0.002666666666666817</v>
+        <v>0.014992503748126</v>
       </c>
       <c r="C19">
-        <v>0.007958808972619247</v>
+        <v>0.01199470425483007</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45509</v>
+        <v>45503</v>
       </c>
       <c r="B20">
-        <v>-0.02168746286393342</v>
+        <v>0.01418020679468235</v>
       </c>
       <c r="C20">
-        <v>-0.004640297487565004</v>
+        <v>-0.006419648061502636</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45506</v>
+        <v>45502</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.003786775415088872</v>
       </c>
       <c r="C21">
-        <v>-0.01209623611601707</v>
+        <v>-0.004219872619458442</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45505</v>
+        <v>45499</v>
       </c>
       <c r="B22">
-        <v>0.01275432736106907</v>
+        <v>-0.007254788160185766</v>
       </c>
       <c r="C22">
-        <v>-0.002013286121643199</v>
+        <v>0.01221080712005973</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45504</v>
+        <v>45498</v>
       </c>
       <c r="B23">
-        <v>0.014992503748126</v>
+        <v>-0.007307804735457446</v>
       </c>
       <c r="C23">
-        <v>0.01199470425483007</v>
+        <v>-0.003709768001075808</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -3937,13 +3927,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45503</v>
+        <v>45497</v>
       </c>
       <c r="B24">
-        <v>0.01418020679468235</v>
+        <v>0.004416961130742081</v>
       </c>
       <c r="C24">
-        <v>-0.006419648061502636</v>
+        <v>-0.001319219527608828</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -3951,13 +3941,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45502</v>
+        <v>45496</v>
       </c>
       <c r="B25">
-        <v>0.003786775415088872</v>
+        <v>0.001465845793022558</v>
       </c>
       <c r="C25">
-        <v>-0.004219872619458442</v>
+        <v>-0.009932738933208229</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -3965,13 +3955,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45499</v>
+        <v>45495</v>
       </c>
       <c r="B26">
-        <v>-0.007254788160185766</v>
+        <v>0.001463700234192178</v>
       </c>
       <c r="C26">
-        <v>0.01221080712005973</v>
+        <v>0.001911985957873563</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -3979,13 +3969,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45498</v>
+        <v>45492</v>
       </c>
       <c r="B27">
-        <v>-0.007307804735457446</v>
+        <v>0.0005846243788365513</v>
       </c>
       <c r="C27">
-        <v>-0.003709768001075808</v>
+        <v>-0.0002820167329927736</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -3993,13 +3983,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45497</v>
+        <v>45491</v>
       </c>
       <c r="B28">
-        <v>0.004416961130742081</v>
+        <v>-0.00759567630733271</v>
       </c>
       <c r="C28">
-        <v>-0.001319219527608828</v>
+        <v>-0.01388953263808423</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -4007,13 +3997,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45496</v>
+        <v>45490</v>
       </c>
       <c r="B29">
-        <v>0.001465845793022558</v>
+        <v>0.004710038269061023</v>
       </c>
       <c r="C29">
-        <v>-0.009932738933208229</v>
+        <v>0.002633413368445581</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -4021,13 +4011,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45495</v>
+        <v>45489</v>
       </c>
       <c r="B30">
-        <v>0.001463700234192178</v>
+        <v>-0.0108409024318783</v>
       </c>
       <c r="C30">
-        <v>0.001911985957873563</v>
+        <v>-0.001631598889584862</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -4035,13 +4025,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45492</v>
+        <v>45488</v>
       </c>
       <c r="B31">
-        <v>0.0005846243788365513</v>
+        <v>-0.005924170616113611</v>
       </c>
       <c r="C31">
-        <v>-0.0002820167329927736</v>
+        <v>0.003289448164037978</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -4049,13 +4039,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45491</v>
+        <v>45485</v>
       </c>
       <c r="B32">
-        <v>-0.00759567630733271</v>
+        <v>-0.003873659117997641</v>
       </c>
       <c r="C32">
-        <v>-0.01388953263808423</v>
+        <v>0.004700141861661455</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -4063,13 +4053,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45490</v>
+        <v>45484</v>
       </c>
       <c r="B33">
-        <v>0.004710038269061023</v>
+        <v>0.005683517798384718</v>
       </c>
       <c r="C33">
-        <v>0.002633413368445581</v>
+        <v>0.008457922621012859</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -4077,13 +4067,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45489</v>
+        <v>45483</v>
       </c>
       <c r="B34">
-        <v>-0.0108409024318783</v>
+        <v>-0.005948839976204545</v>
       </c>
       <c r="C34">
-        <v>-0.001631598889584862</v>
+        <v>0.000865405796645291</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -4091,13 +4081,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45488</v>
+        <v>45482</v>
       </c>
       <c r="B35">
-        <v>-0.005924170616113611</v>
+        <v>-0.01047277079593067</v>
       </c>
       <c r="C35">
-        <v>0.003289448164037978</v>
+        <v>0.004425198343711578</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -4105,13 +4095,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45485</v>
+        <v>45481</v>
       </c>
       <c r="B36">
-        <v>-0.003873659117997641</v>
+        <v>-0.006954944058058521</v>
       </c>
       <c r="C36">
-        <v>0.004700141861661455</v>
+        <v>0.002225442910657627</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -4119,13 +4109,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45484</v>
+        <v>45478</v>
       </c>
       <c r="B37">
-        <v>0.005683517798384718</v>
+        <v>0.001827040194884111</v>
       </c>
       <c r="C37">
-        <v>0.008457922621012859</v>
+        <v>0.0008163977045749782</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -4133,13 +4123,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45483</v>
+        <v>45477</v>
       </c>
       <c r="B38">
-        <v>-0.005948839976204545</v>
+        <v>-0.0006079027355622157</v>
       </c>
       <c r="C38">
-        <v>0.000865405796645291</v>
+        <v>0.003994843309831131</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -4147,13 +4137,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45482</v>
+        <v>45476</v>
       </c>
       <c r="B39">
-        <v>-0.01047277079593067</v>
+        <v>-0.001520681265206991</v>
       </c>
       <c r="C39">
-        <v>0.004425198343711578</v>
+        <v>0.007011948360005515</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -4161,13 +4151,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45481</v>
+        <v>45475</v>
       </c>
       <c r="B40">
-        <v>-0.006954944058058521</v>
+        <v>-0.006091989034419654</v>
       </c>
       <c r="C40">
-        <v>0.002225442910657627</v>
+        <v>0.0005532481277763512</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -4175,13 +4165,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45478</v>
+        <v>45474</v>
       </c>
       <c r="B41">
-        <v>0.001827040194884111</v>
+        <v>-0.01287159056083365</v>
       </c>
       <c r="C41">
-        <v>0.0008163977045749782</v>
+        <v>0.00654523150427333</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -4189,69 +4179,69 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45477</v>
+        <v>45471</v>
       </c>
       <c r="B42">
-        <v>-0.0006079027355622157</v>
+        <v>0.004656938838869973</v>
       </c>
       <c r="C42">
-        <v>0.003994843309831131</v>
+        <v>-0.003225858351835753</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45476</v>
+        <v>45470</v>
       </c>
       <c r="B43">
-        <v>-0.001520681265206991</v>
+        <v>0.0009270704573547395</v>
       </c>
       <c r="C43">
-        <v>0.007011948360005515</v>
+        <v>0.01359251799969008</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45475</v>
+        <v>45469</v>
       </c>
       <c r="B44">
-        <v>-0.006091989034419654</v>
+        <v>-0.00185242358752713</v>
       </c>
       <c r="C44">
-        <v>0.0005532481277763512</v>
+        <v>0.00253410827999434</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45474</v>
+        <v>45468</v>
       </c>
       <c r="B45">
-        <v>-0.01287159056083365</v>
+        <v>0.001855861429013395</v>
       </c>
       <c r="C45">
-        <v>0.00654523150427333</v>
+        <v>-0.002495168668509518</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45471</v>
+        <v>45467</v>
       </c>
       <c r="B46">
-        <v>0.004656938838869973</v>
+        <v>-0.003087372645878439</v>
       </c>
       <c r="C46">
-        <v>-0.003225858351835753</v>
+        <v>0.01068064380547384</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -4259,13 +4249,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45470</v>
+        <v>45464</v>
       </c>
       <c r="B47">
-        <v>0.0009270704573547395</v>
+        <v>-0.01424589656240327</v>
       </c>
       <c r="C47">
-        <v>0.01359251799969008</v>
+        <v>0.007430715839463309</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -4273,13 +4263,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45469</v>
+        <v>45463</v>
       </c>
       <c r="B48">
-        <v>-0.00185242358752713</v>
+        <v>-0.006911718504555409</v>
       </c>
       <c r="C48">
-        <v>0.00253410827999434</v>
+        <v>0.001538320818885497</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -4287,13 +4277,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45468</v>
+        <v>45462</v>
       </c>
       <c r="B49">
-        <v>0.001855861429013395</v>
+        <v>0.006959822840873153</v>
       </c>
       <c r="C49">
-        <v>-0.002495168668509518</v>
+        <v>0.005274596673075393</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -4301,13 +4291,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45467</v>
+        <v>45461</v>
       </c>
       <c r="B50">
-        <v>-0.003087372645878439</v>
+        <v>-0.007854225573358464</v>
       </c>
       <c r="C50">
-        <v>0.01068064380547384</v>
+        <v>0.004129664758515394</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -4315,13 +4305,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="B51">
-        <v>-0.01424589656240327</v>
+        <v>0.0006333122229260635</v>
       </c>
       <c r="C51">
-        <v>0.007430715839463309</v>
+        <v>-0.004379000852400949</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -4329,13 +4319,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45463</v>
+        <v>45457</v>
       </c>
       <c r="B52">
-        <v>-0.006911718504555409</v>
+        <v>-0.02373417721518989</v>
       </c>
       <c r="C52">
-        <v>0.001538320818885497</v>
+        <v>0.0007861635220125507</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -4343,13 +4333,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45462</v>
+        <v>45456</v>
       </c>
       <c r="B53">
-        <v>0.006959822840873153</v>
+        <v>0.0009724473257697319</v>
       </c>
       <c r="C53">
-        <v>0.005274596673075393</v>
+        <v>-0.00306830309498396</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -4357,13 +4347,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45461</v>
+        <v>45455</v>
       </c>
       <c r="B54">
-        <v>-0.007854225573358464</v>
+        <v>0.01036269430051817</v>
       </c>
       <c r="C54">
-        <v>0.004129664758515394</v>
+        <v>-0.01396801907345746</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -4371,13 +4361,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45460</v>
+        <v>45454</v>
       </c>
       <c r="B55">
-        <v>0.0006333122229260635</v>
+        <v>0.001602564102564097</v>
       </c>
       <c r="C55">
-        <v>-0.004379000852400949</v>
+        <v>0.007245776747267341</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -4385,13 +4375,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45457</v>
+        <v>45453</v>
       </c>
       <c r="B56">
-        <v>-0.02373417721518989</v>
+        <v>-0.01088</v>
       </c>
       <c r="C56">
-        <v>0.0007861635220125507</v>
+        <v>-5.796285409098711E-05</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -4399,13 +4389,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45456</v>
+        <v>45450</v>
       </c>
       <c r="B57">
-        <v>0.0009724473257697319</v>
+        <v>0.00776447751536713</v>
       </c>
       <c r="C57">
-        <v>-0.00306830309498396</v>
+        <v>-0.01734757809258014</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -4413,13 +4403,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45455</v>
+        <v>45449</v>
       </c>
       <c r="B58">
-        <v>0.01036269430051817</v>
+        <v>0.014446227929374</v>
       </c>
       <c r="C58">
-        <v>-0.01396801907345746</v>
+        <v>0.01228924197122083</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -4427,13 +4417,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45454</v>
+        <v>45448</v>
       </c>
       <c r="B59">
-        <v>0.001602564102564097</v>
+        <v>-0.01265822784810133</v>
       </c>
       <c r="C59">
-        <v>0.007245776747267341</v>
+        <v>-0.003242968095761967</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -4441,13 +4431,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45453</v>
+        <v>45447</v>
       </c>
       <c r="B60">
-        <v>-0.01088</v>
+        <v>0.001923076923076916</v>
       </c>
       <c r="C60">
-        <v>-5.796285409098711E-05</v>
+        <v>-0.001884751540579543</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -4455,13 +4445,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45450</v>
+        <v>45446</v>
       </c>
       <c r="B61">
-        <v>0.00776447751536713</v>
+        <v>-0.003518873960332791</v>
       </c>
       <c r="C61">
-        <v>-0.01734757809258014</v>
+        <v>-0.0005405493947484574</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -4469,69 +4459,69 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45449</v>
+        <v>45443</v>
       </c>
       <c r="B62">
-        <v>0.014446227929374</v>
+        <v>-0.01380417335473516</v>
       </c>
       <c r="C62">
-        <v>0.01228924197122083</v>
+        <v>-0.004963042043241161</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45448</v>
+        <v>45441</v>
       </c>
       <c r="B63">
-        <v>-0.01265822784810133</v>
+        <v>0.01041666666666674</v>
       </c>
       <c r="C63">
-        <v>-0.003242968095761967</v>
+        <v>-0.008668605590563927</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45447</v>
+        <v>45440</v>
       </c>
       <c r="B64">
-        <v>0.001923076923076916</v>
+        <v>0.007087628865979356</v>
       </c>
       <c r="C64">
-        <v>-0.001884751540579543</v>
+        <v>-0.005751188793214235</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45446</v>
+        <v>45439</v>
       </c>
       <c r="B65">
-        <v>-0.003518873960332791</v>
+        <v>0.005118362124120202</v>
       </c>
       <c r="C65">
-        <v>-0.0005405493947484574</v>
+        <v>0.001528486155133235</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45443</v>
+        <v>45436</v>
       </c>
       <c r="B66">
-        <v>-0.01380417335473516</v>
+        <v>-0.0009505703422052481</v>
       </c>
       <c r="C66">
-        <v>-0.004963042043241161</v>
+        <v>-0.003391352452116192</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
@@ -4539,13 +4529,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45441</v>
+        <v>45435</v>
       </c>
       <c r="B67">
-        <v>0.01041666666666674</v>
+        <v>0.009831906121154477</v>
       </c>
       <c r="C67">
-        <v>-0.008668605590563927</v>
+        <v>-0.00732988460007955</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -4553,13 +4543,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45440</v>
+        <v>45434</v>
       </c>
       <c r="B68">
-        <v>0.007087628865979356</v>
+        <v>0.009108040201005085</v>
       </c>
       <c r="C68">
-        <v>-0.005751188793214235</v>
+        <v>-0.01382915267007823</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
@@ -4567,13 +4557,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45439</v>
+        <v>45433</v>
       </c>
       <c r="B69">
-        <v>0.005118362124120202</v>
+        <v>0.01556178026766264</v>
       </c>
       <c r="C69">
-        <v>0.001528486155133235</v>
+        <v>-0.002653599580433763</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
@@ -4581,13 +4571,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45436</v>
+        <v>45432</v>
       </c>
       <c r="B70">
-        <v>-0.0009505703422052481</v>
+        <v>0.005209929512718148</v>
       </c>
       <c r="C70">
-        <v>-0.003391352452116192</v>
+        <v>-0.003121317820383718</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
@@ -4595,13 +4585,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45435</v>
+        <v>45429</v>
       </c>
       <c r="B71">
-        <v>0.009831906121154477</v>
+        <v>0.003048780487804992</v>
       </c>
       <c r="C71">
-        <v>-0.00732988460007955</v>
+        <v>-0.001036762183904472</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
@@ -4609,13 +4599,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45434</v>
+        <v>45428</v>
       </c>
       <c r="B72">
-        <v>0.009108040201005085</v>
+        <v>-0.0003039513677810524</v>
       </c>
       <c r="C72">
-        <v>-0.01382915267007823</v>
+        <v>0.001999562595682125</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
@@ -4623,13 +4613,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45433</v>
+        <v>45427</v>
       </c>
       <c r="B73">
-        <v>0.01556178026766264</v>
+        <v>0.003040437823046638</v>
       </c>
       <c r="C73">
-        <v>-0.002653599580433763</v>
+        <v>-0.003789440921293186</v>
       </c>
       <c r="D73" t="s">
         <v>6</v>
@@ -4637,13 +4627,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45432</v>
+        <v>45426</v>
       </c>
       <c r="B74">
-        <v>0.005209929512718148</v>
+        <v>0.002728099424067709</v>
       </c>
       <c r="C74">
-        <v>-0.003121317820383718</v>
+        <v>0.002809098357457795</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
@@ -4651,13 +4641,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45429</v>
+        <v>45425</v>
       </c>
       <c r="B75">
-        <v>0.003048780487804992</v>
+        <v>-0.01088270858524787</v>
       </c>
       <c r="C75">
-        <v>-0.001036762183904472</v>
+        <v>0.004349529780564243</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
@@ -4665,13 +4655,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45428</v>
+        <v>45422</v>
       </c>
       <c r="B76">
-        <v>-0.0003039513677810524</v>
+        <v>-0.01222493887530562</v>
       </c>
       <c r="C76">
-        <v>0.001999562595682125</v>
+        <v>-0.004587012824913361</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
@@ -4679,13 +4669,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45427</v>
+        <v>45421</v>
       </c>
       <c r="B77">
-        <v>0.003040437823046638</v>
+        <v>-0.01113861386138615</v>
       </c>
       <c r="C77">
-        <v>-0.003789440921293186</v>
+        <v>-0.009986021115067079</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
@@ -4693,13 +4683,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45426</v>
+        <v>45420</v>
       </c>
       <c r="B78">
-        <v>0.002728099424067709</v>
+        <v>0.0309762202753443</v>
       </c>
       <c r="C78">
-        <v>0.002809098357457795</v>
+        <v>0.002097360885380484</v>
       </c>
       <c r="D78" t="s">
         <v>6</v>
@@ -4707,13 +4697,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45425</v>
+        <v>45419</v>
       </c>
       <c r="B79">
-        <v>-0.01088270858524787</v>
+        <v>-0.006373292867981828</v>
       </c>
       <c r="C79">
-        <v>0.004349529780564243</v>
+        <v>0.0057914156274812</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
@@ -4721,13 +4711,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45422</v>
+        <v>45418</v>
       </c>
       <c r="B80">
-        <v>-0.01222493887530562</v>
+        <v>-0.02015882712278572</v>
       </c>
       <c r="C80">
-        <v>-0.004587012824913361</v>
+        <v>-0.0003346069146907826</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
@@ -4735,13 +4725,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45421</v>
+        <v>45415</v>
       </c>
       <c r="B81">
-        <v>-0.01113861386138615</v>
+        <v>-0.006234413965087282</v>
       </c>
       <c r="C81">
-        <v>-0.009986021115067079</v>
+        <v>0.01091077862211098</v>
       </c>
       <c r="D81" t="s">
         <v>6</v>
@@ -4749,13 +4739,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45420</v>
+        <v>45414</v>
       </c>
       <c r="B82">
-        <v>0.0309762202753443</v>
+        <v>-0.01254705144291091</v>
       </c>
       <c r="C82">
-        <v>0.002097360885380484</v>
+        <v>0.009513674915028192</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
@@ -4763,69 +4753,69 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45419</v>
+        <v>45412</v>
       </c>
       <c r="B83">
-        <v>-0.006373292867981828</v>
+        <v>-0.0142947903430749</v>
       </c>
       <c r="C83">
-        <v>0.0057914156274812</v>
+        <v>-0.01121301589295809</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45418</v>
+        <v>45411</v>
       </c>
       <c r="B84">
-        <v>-0.02015882712278572</v>
+        <v>0.01901385755720275</v>
       </c>
       <c r="C84">
-        <v>-0.0003346069146907826</v>
+        <v>0.006528302483284065</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45415</v>
+        <v>45408</v>
       </c>
       <c r="B85">
-        <v>-0.006234413965087282</v>
+        <v>0.007906388361796246</v>
       </c>
       <c r="C85">
-        <v>0.01091077862211098</v>
+        <v>0.0150827142467469</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45414</v>
+        <v>45407</v>
       </c>
       <c r="B86">
-        <v>-0.01254705144291091</v>
+        <v>-0.01631628490743642</v>
       </c>
       <c r="C86">
-        <v>0.009513674915028192</v>
+        <v>-0.0007615779895944197</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45412</v>
+        <v>45406</v>
       </c>
       <c r="B87">
-        <v>-0.0142947903430749</v>
+        <v>0.005422647527910662</v>
       </c>
       <c r="C87">
-        <v>-0.01121301589295809</v>
+        <v>-0.003252149455045261</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -4833,13 +4823,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="B88">
-        <v>0.01901385755720275</v>
+        <v>0.004441624365482344</v>
       </c>
       <c r="C88">
-        <v>0.006528302483284065</v>
+        <v>-0.003384485518383773</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -4847,13 +4837,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45408</v>
+        <v>45404</v>
       </c>
       <c r="B89">
-        <v>0.007906388361796246</v>
+        <v>-0.01452937460518011</v>
       </c>
       <c r="C89">
-        <v>0.0150827142467469</v>
+        <v>0.0035884402672548</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -4861,13 +4851,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45407</v>
+        <v>45401</v>
       </c>
       <c r="B90">
-        <v>-0.01631628490743642</v>
+        <v>0.0006410256410256387</v>
       </c>
       <c r="C90">
-        <v>-0.0007615779895944197</v>
+        <v>0.007472060291796812</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -4875,13 +4865,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45406</v>
+        <v>45400</v>
       </c>
       <c r="B91">
-        <v>0.005422647527910662</v>
+        <v>0.005765534913517056</v>
       </c>
       <c r="C91">
-        <v>-0.003252149455045261</v>
+        <v>0.0002013352554139924</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -4889,13 +4879,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45405</v>
+        <v>45399</v>
       </c>
       <c r="B92">
-        <v>0.004441624365482344</v>
+        <v>-0.001273885350318471</v>
       </c>
       <c r="C92">
-        <v>-0.003384485518383773</v>
+        <v>-0.001752566545273337</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -4903,13 +4893,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45404</v>
+        <v>45398</v>
       </c>
       <c r="B93">
-        <v>-0.01452937460518011</v>
+        <v>-0.0006377551020407823</v>
       </c>
       <c r="C93">
-        <v>0.0035884402672548</v>
+        <v>-0.007539853511417505</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -4917,13 +4907,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45401</v>
+        <v>45397</v>
       </c>
       <c r="B94">
-        <v>0.0006410256410256387</v>
+        <v>0.007338864071474216</v>
       </c>
       <c r="C94">
-        <v>0.007472060291796812</v>
+        <v>-0.004859225382306653</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -4931,13 +4921,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45400</v>
+        <v>45394</v>
       </c>
       <c r="B95">
-        <v>0.005765534913517056</v>
+        <v>0.0174216027874563</v>
       </c>
       <c r="C95">
-        <v>0.0002013352554139924</v>
+        <v>-0.01138183302458473</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -4945,13 +4935,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45399</v>
+        <v>45393</v>
       </c>
       <c r="B96">
-        <v>-0.001273885350318471</v>
+        <v>0.01027397260273988</v>
       </c>
       <c r="C96">
-        <v>-0.001752566545273337</v>
+        <v>-0.005138457213363146</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -4959,13 +4949,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45398</v>
+        <v>45392</v>
       </c>
       <c r="B97">
-        <v>-0.0006377551020407823</v>
+        <v>0.001848998459167861</v>
       </c>
       <c r="C97">
-        <v>-0.007539853511417505</v>
+        <v>-0.01413503733928712</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -4973,13 +4963,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45397</v>
+        <v>45391</v>
       </c>
       <c r="B98">
-        <v>0.007338864071474216</v>
+        <v>0.02183943402030142</v>
       </c>
       <c r="C98">
-        <v>-0.004859225382306653</v>
+        <v>0.008016638599377623</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -4987,13 +4977,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45394</v>
+        <v>45390</v>
       </c>
       <c r="B99">
-        <v>0.0174216027874563</v>
+        <v>-0.01053582179409995</v>
       </c>
       <c r="C99">
-        <v>-0.01138183302458473</v>
+        <v>0.0162624709176229</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -5001,13 +4991,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45393</v>
+        <v>45387</v>
       </c>
       <c r="B100">
-        <v>0.01027397260273988</v>
+        <v>-0.0146029814420443</v>
       </c>
       <c r="C100">
-        <v>-0.005138457213363146</v>
+        <v>-0.004967511065072094</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -5015,13 +5005,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45392</v>
+        <v>45386</v>
       </c>
       <c r="B101">
-        <v>0.001848998459167861</v>
+        <v>0.001852423587527019</v>
       </c>
       <c r="C101">
-        <v>-0.01413503733928712</v>
+        <v>0.000863978384831654</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -5029,13 +5019,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45391</v>
+        <v>45385</v>
       </c>
       <c r="B102">
-        <v>0.02183943402030142</v>
+        <v>0.01325115562403689</v>
       </c>
       <c r="C102">
-        <v>0.008016638599377623</v>
+        <v>-0.001811068687328055</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -5043,13 +5033,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45390</v>
+        <v>45384</v>
       </c>
       <c r="B103">
-        <v>-0.01053582179409995</v>
+        <v>0.007603406326033957</v>
       </c>
       <c r="C103">
-        <v>0.0162624709176229</v>
+        <v>0.004401921411134824</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -5057,13 +5047,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45387</v>
+        <v>45383</v>
       </c>
       <c r="B104">
-        <v>-0.0146029814420443</v>
+        <v>-0.001207364926048893</v>
       </c>
       <c r="C104">
-        <v>-0.004967511065072094</v>
+        <v>-0.008711535759449163</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -5071,69 +5061,69 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45386</v>
+        <v>45379</v>
       </c>
       <c r="B105">
-        <v>0.001852423587527019</v>
+        <v>0.03535811423390745</v>
       </c>
       <c r="C105">
-        <v>0.000863978384831654</v>
+        <v>0.003250033283473286</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45385</v>
+        <v>45378</v>
       </c>
       <c r="B106">
-        <v>0.01325115562403689</v>
+        <v>-0.001751313485113704</v>
       </c>
       <c r="C106">
-        <v>-0.001811068687328055</v>
+        <v>0.006526725680458423</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45384</v>
+        <v>45377</v>
       </c>
       <c r="B107">
-        <v>0.007603406326033957</v>
+        <v>-0.005555555555555647</v>
       </c>
       <c r="C107">
-        <v>0.004401921411134824</v>
+        <v>-0.000535724133584381</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45383</v>
+        <v>45376</v>
       </c>
       <c r="B108">
-        <v>-0.001207364926048893</v>
+        <v>-0.01940605704204634</v>
       </c>
       <c r="C108">
-        <v>-0.008711535759449163</v>
+        <v>-0.0007557448416478652</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45379</v>
+        <v>45373</v>
       </c>
       <c r="B109">
-        <v>0.03535811423390745</v>
+        <v>-0.01097271648873066</v>
       </c>
       <c r="C109">
-        <v>0.003250033283473286</v>
+        <v>-0.008832778033536437</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -5141,13 +5131,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45378</v>
+        <v>45372</v>
       </c>
       <c r="B110">
-        <v>-0.001751313485113704</v>
+        <v>0.01409295352323836</v>
       </c>
       <c r="C110">
-        <v>0.006526725680458423</v>
+        <v>-0.007481122942884832</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -5155,13 +5145,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45377</v>
+        <v>45371</v>
       </c>
       <c r="B111">
-        <v>-0.005555555555555647</v>
+        <v>0.01034890597279725</v>
       </c>
       <c r="C111">
-        <v>-0.000535724133584381</v>
+        <v>0.01251480055516785</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -5169,13 +5159,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45376</v>
+        <v>45370</v>
       </c>
       <c r="B112">
-        <v>-0.01940605704204634</v>
+        <v>-0.00175592625109755</v>
       </c>
       <c r="C112">
-        <v>-0.0007557448416478652</v>
+        <v>0.004529199552593788</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -5183,13 +5173,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45373</v>
+        <v>45369</v>
       </c>
       <c r="B113">
-        <v>-0.01097271648873066</v>
+        <v>-0.001465845793022447</v>
       </c>
       <c r="C113">
-        <v>-0.008832778033536437</v>
+        <v>0.001672689400514349</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -5197,13 +5187,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45372</v>
+        <v>45366</v>
       </c>
       <c r="B114">
-        <v>0.01409295352323836</v>
+        <v>-0.004110393423370495</v>
       </c>
       <c r="C114">
-        <v>-0.007481122942884832</v>
+        <v>-0.007424230558383593</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -5211,13 +5201,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45371</v>
+        <v>45365</v>
       </c>
       <c r="B115">
-        <v>0.01034890597279725</v>
+        <v>0.005601415094339535</v>
       </c>
       <c r="C115">
-        <v>0.01251480055516785</v>
+        <v>-0.002468634282768001</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -5225,13 +5215,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45370</v>
+        <v>45364</v>
       </c>
       <c r="B116">
-        <v>-0.00175592625109755</v>
+        <v>0.0005863383172091119</v>
       </c>
       <c r="C116">
-        <v>0.004529199552593788</v>
+        <v>0.002647491932199042</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
@@ -5239,13 +5229,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45369</v>
+        <v>45363</v>
       </c>
       <c r="B117">
-        <v>-0.001465845793022447</v>
+        <v>-0.009961910342807023</v>
       </c>
       <c r="C117">
-        <v>0.001672689400514349</v>
+        <v>0.01224192064951946</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -5253,13 +5243,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45366</v>
+        <v>45362</v>
       </c>
       <c r="B118">
-        <v>-0.004110393423370495</v>
+        <v>-0.00414323764427349</v>
       </c>
       <c r="C118">
-        <v>-0.007424230558383593</v>
+        <v>-0.007452526540280613</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -5267,13 +5257,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45365</v>
+        <v>45359</v>
       </c>
       <c r="B119">
-        <v>0.005601415094339535</v>
+        <v>-0.004754829123328252</v>
       </c>
       <c r="C119">
-        <v>-0.002468634282768001</v>
+        <v>-0.009887798036465667</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -5281,13 +5271,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45364</v>
+        <v>45358</v>
       </c>
       <c r="B120">
-        <v>0.0005863383172091119</v>
+        <v>-0.009256494475962995</v>
       </c>
       <c r="C120">
-        <v>0.002647491932199042</v>
+        <v>-0.004267204593063845</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -5295,13 +5285,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45363</v>
+        <v>45357</v>
       </c>
       <c r="B121">
-        <v>-0.009961910342807023</v>
+        <v>0.01084990958408683</v>
       </c>
       <c r="C121">
-        <v>0.01224192064951946</v>
+        <v>0.006182766319536626</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -5309,13 +5299,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45362</v>
+        <v>45356</v>
       </c>
       <c r="B122">
-        <v>-0.00414323764427349</v>
+        <v>-0.01103160405485981</v>
       </c>
       <c r="C122">
-        <v>-0.007452526540280613</v>
+        <v>-0.001893393381694031</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -5323,13 +5313,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45359</v>
+        <v>45355</v>
       </c>
       <c r="B123">
-        <v>-0.004754829123328252</v>
+        <v>0.0009044317154054404</v>
       </c>
       <c r="C123">
-        <v>-0.009887798036465667</v>
+        <v>-0.006494813438612801</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -5337,13 +5327,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45358</v>
+        <v>45352</v>
       </c>
       <c r="B124">
-        <v>-0.009256494475962995</v>
+        <v>0.007831325301204783</v>
       </c>
       <c r="C124">
-        <v>-0.004267204593063845</v>
+        <v>0.001240117811192043</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -5351,69 +5341,69 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45357</v>
+        <v>45351</v>
       </c>
       <c r="B125">
-        <v>0.01084990958408683</v>
+        <v>-0.004482964734010664</v>
       </c>
       <c r="C125">
-        <v>0.006182766319536626</v>
+        <v>-0.008720371864315624</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45356</v>
+        <v>45350</v>
       </c>
       <c r="B126">
-        <v>-0.01103160405485981</v>
+        <v>0.02551786250375243</v>
       </c>
       <c r="C126">
-        <v>-0.001893393381694031</v>
+        <v>-0.01164865706323226</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45355</v>
+        <v>45349</v>
       </c>
       <c r="B127">
-        <v>0.0009044317154054404</v>
+        <v>-0.0005854800936766491</v>
       </c>
       <c r="C127">
-        <v>-0.006494813438612801</v>
+        <v>0.01604826825297634</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45352</v>
+        <v>45348</v>
       </c>
       <c r="B128">
-        <v>0.007831325301204783</v>
+        <v>-0.01200937316930295</v>
       </c>
       <c r="C128">
-        <v>0.001240117811192043</v>
+        <v>0.001468099738060058</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45351</v>
+        <v>45345</v>
       </c>
       <c r="B129">
-        <v>-0.004482964734010664</v>
+        <v>-0.002964719833975504</v>
       </c>
       <c r="C129">
-        <v>-0.008720371864315624</v>
+        <v>-0.006311376601838115</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -5421,13 +5411,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45350</v>
+        <v>45344</v>
       </c>
       <c r="B130">
-        <v>0.02551786250375243</v>
+        <v>-0.002973535533749683</v>
       </c>
       <c r="C130">
-        <v>-0.01164865706323226</v>
+        <v>0.001607296665436131</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -5435,13 +5425,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45349</v>
+        <v>45343</v>
       </c>
       <c r="B131">
-        <v>-0.0005854800936766491</v>
+        <v>0.005666567253205912</v>
       </c>
       <c r="C131">
-        <v>0.01604826825297634</v>
+        <v>0.0008928846331475171</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -5449,13 +5439,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45348</v>
+        <v>45342</v>
       </c>
       <c r="B132">
-        <v>-0.01200937316930295</v>
+        <v>0.005634638196915676</v>
       </c>
       <c r="C132">
-        <v>0.001468099738060058</v>
+        <v>0.006819802225735527</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -5463,13 +5453,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45345</v>
+        <v>45341</v>
       </c>
       <c r="B133">
-        <v>-0.002964719833975504</v>
+        <v>-0.02123267472721913</v>
       </c>
       <c r="C133">
-        <v>-0.006311376601838115</v>
+        <v>0.002408215900439714</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
@@ -5477,13 +5467,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45344</v>
+        <v>45338</v>
       </c>
       <c r="B134">
-        <v>-0.002973535533749683</v>
+        <v>-0.01084664055438378</v>
       </c>
       <c r="C134">
-        <v>0.001607296665436131</v>
+        <v>0.007214171700416161</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -5491,13 +5481,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45343</v>
+        <v>45337</v>
       </c>
       <c r="B135">
-        <v>0.005666567253205912</v>
+        <v>0.0009137983551630313</v>
       </c>
       <c r="C135">
-        <v>0.0008928846331475171</v>
+        <v>0.006188099324505147</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
@@ -5505,13 +5495,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45342</v>
+        <v>45336</v>
       </c>
       <c r="B136">
-        <v>0.005634638196915676</v>
+        <v>-0.008216676810712031</v>
       </c>
       <c r="C136">
-        <v>0.006819802225735527</v>
+        <v>-0.007873400715479706</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -5519,13 +5509,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45341</v>
+        <v>45331</v>
       </c>
       <c r="B137">
-        <v>-0.02123267472721913</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.002408215900439714</v>
+        <v>-0.001489662057293506</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
@@ -5533,13 +5523,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45338</v>
+        <v>45330</v>
       </c>
       <c r="B138">
-        <v>-0.01084664055438378</v>
+        <v>-0.01258054617980986</v>
       </c>
       <c r="C138">
-        <v>0.007214171700416161</v>
+        <v>-0.01073236219986418</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -5547,13 +5537,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45337</v>
+        <v>45329</v>
       </c>
       <c r="B139">
-        <v>0.0009137983551630313</v>
+        <v>0.02019888129272829</v>
       </c>
       <c r="C139">
-        <v>0.006188099324505147</v>
+        <v>-0.006195558827137737</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -5561,13 +5551,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45336</v>
+        <v>45328</v>
       </c>
       <c r="B140">
-        <v>-0.008216676810712031</v>
+        <v>0.007005787389582796</v>
       </c>
       <c r="C140">
-        <v>-0.007873400715479706</v>
+        <v>0.02212503820742517</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
@@ -5575,13 +5565,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45331</v>
+        <v>45327</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>-0.04083484573502727</v>
       </c>
       <c r="C141">
-        <v>-0.001489662057293506</v>
+        <v>0.003231589375854993</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
@@ -5589,13 +5579,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45330</v>
+        <v>45324</v>
       </c>
       <c r="B142">
-        <v>-0.01258054617980986</v>
+        <v>-0.01860611794386624</v>
       </c>
       <c r="C142">
-        <v>-0.01073236219986418</v>
+        <v>-0.01011044434585662</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -5603,13 +5593,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45329</v>
+        <v>45323</v>
       </c>
       <c r="B143">
-        <v>0.02019888129272829</v>
+        <v>-0.001606683804627251</v>
       </c>
       <c r="C143">
-        <v>-0.006195558827137737</v>
+        <v>0.00570636858914142</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
@@ -5617,69 +5607,69 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45328</v>
+        <v>45322</v>
       </c>
       <c r="B144">
-        <v>0.007005787389582796</v>
+        <v>0.00225297714837458</v>
       </c>
       <c r="C144">
-        <v>0.02212503820742517</v>
+        <v>0.002747209619943236</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45327</v>
+        <v>45321</v>
       </c>
       <c r="B145">
-        <v>-0.04083484573502727</v>
+        <v>-0.01091843288375083</v>
       </c>
       <c r="C145">
-        <v>0.003231589375854993</v>
+        <v>-0.008567893356575373</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45324</v>
+        <v>45320</v>
       </c>
       <c r="B146">
-        <v>-0.01860611794386624</v>
+        <v>0.006493506493506551</v>
       </c>
       <c r="C146">
-        <v>-0.01011044434585662</v>
+        <v>-0.003597819597261354</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45323</v>
+        <v>45317</v>
       </c>
       <c r="B147">
-        <v>-0.001606683804627251</v>
+        <v>0.005483870967742055</v>
       </c>
       <c r="C147">
-        <v>0.00570636858914142</v>
+        <v>0.006226154530346584</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45322</v>
+        <v>45316</v>
       </c>
       <c r="B148">
-        <v>0.00225297714837458</v>
+        <v>-0.01475777991658644</v>
       </c>
       <c r="C148">
-        <v>0.002747209619943236</v>
+        <v>0.002761782562433535</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -5687,13 +5677,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45321</v>
+        <v>45315</v>
       </c>
       <c r="B149">
-        <v>-0.01091843288375083</v>
+        <v>0.002279387821556567</v>
       </c>
       <c r="C149">
-        <v>-0.008567893356575373</v>
+        <v>-0.003485026858875861</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
@@ -5701,13 +5691,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45320</v>
+        <v>45314</v>
       </c>
       <c r="B150">
-        <v>0.006493506493506551</v>
+        <v>0.004548408057180042</v>
       </c>
       <c r="C150">
-        <v>-0.003597819597261354</v>
+        <v>0.01311985592644671</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -5715,13 +5705,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45317</v>
+        <v>45313</v>
       </c>
       <c r="B151">
-        <v>0.005483870967742055</v>
+        <v>-0.004527813712807305</v>
       </c>
       <c r="C151">
-        <v>0.006226154530346584</v>
+        <v>-0.008101162681375174</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -5729,13 +5719,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="B152">
-        <v>-0.01475777991658644</v>
+        <v>0.01656920077972712</v>
       </c>
       <c r="C152">
-        <v>0.002761782562433535</v>
+        <v>0.002513431147695533</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
@@ -5743,13 +5733,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45315</v>
+        <v>45309</v>
       </c>
       <c r="B153">
-        <v>0.002279387821556567</v>
+        <v>-0.002556727388942082</v>
       </c>
       <c r="C153">
-        <v>-0.003485026858875861</v>
+        <v>-0.009399022750614661</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -5757,13 +5747,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45314</v>
+        <v>45308</v>
       </c>
       <c r="B154">
-        <v>0.004548408057180042</v>
+        <v>0.004485741749439276</v>
       </c>
       <c r="C154">
-        <v>0.01311985592644671</v>
+        <v>-0.005955419431682873</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -5771,13 +5761,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45313</v>
+        <v>45307</v>
       </c>
       <c r="B155">
-        <v>-0.004527813712807305</v>
+        <v>-0.0006379585326954373</v>
       </c>
       <c r="C155">
-        <v>-0.008101162681375174</v>
+        <v>-0.01693265714220538</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -5785,13 +5775,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45310</v>
+        <v>45306</v>
       </c>
       <c r="B156">
-        <v>0.01656920077972712</v>
+        <v>0.01404404723906794</v>
       </c>
       <c r="C156">
-        <v>0.002513431147695533</v>
+        <v>0.004069075029773828</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
@@ -5799,13 +5789,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45309</v>
+        <v>45303</v>
       </c>
       <c r="B157">
-        <v>-0.002556727388942082</v>
+        <v>-0.001573811772112133</v>
       </c>
       <c r="C157">
-        <v>-0.009399022750614661</v>
+        <v>0.00259473857434811</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -5813,13 +5803,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45308</v>
+        <v>45302</v>
       </c>
       <c r="B158">
-        <v>0.004485741749439276</v>
+        <v>-0.001261034047919218</v>
       </c>
       <c r="C158">
-        <v>-0.005955419431682873</v>
+        <v>-0.00146742993404203</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
@@ -5827,13 +5817,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45307</v>
+        <v>45301</v>
       </c>
       <c r="B159">
-        <v>-0.0006379585326954373</v>
+        <v>-0.001893939393939337</v>
       </c>
       <c r="C159">
-        <v>-0.01693265714220538</v>
+        <v>-0.004610223131756519</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -5841,13 +5831,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45306</v>
+        <v>45300</v>
       </c>
       <c r="B160">
-        <v>0.01404404723906794</v>
+        <v>0.0009487666034155851</v>
       </c>
       <c r="C160">
-        <v>0.004069075029773828</v>
+        <v>-0.007400303563472654</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
@@ -5855,13 +5845,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45303</v>
+        <v>45299</v>
       </c>
       <c r="B161">
-        <v>-0.001573811772112133</v>
+        <v>0.0006319115323856206</v>
       </c>
       <c r="C161">
-        <v>0.00259473857434811</v>
+        <v>0.003060072866091446</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
@@ -5869,13 +5859,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45302</v>
+        <v>45296</v>
       </c>
       <c r="B162">
-        <v>-0.001261034047919218</v>
+        <v>0.01073571203031243</v>
       </c>
       <c r="C162">
-        <v>-0.00146742993404203</v>
+        <v>0.006073491533689968</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
@@ -5883,13 +5873,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45301</v>
+        <v>45295</v>
       </c>
       <c r="B163">
-        <v>-0.001893939393939337</v>
+        <v>-0.0228053733208371</v>
       </c>
       <c r="C163">
-        <v>-0.004610223131756519</v>
+        <v>-0.01210533447761863</v>
       </c>
       <c r="D163" t="s">
         <v>10</v>
@@ -5897,13 +5887,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45300</v>
+        <v>45294</v>
       </c>
       <c r="B164">
-        <v>0.0009487666034155851</v>
+        <v>0.006713554987212156</v>
       </c>
       <c r="C164">
-        <v>-0.007400303563472654</v>
+        <v>0.001032427259094026</v>
       </c>
       <c r="D164" t="s">
         <v>10</v>
@@ -5911,13 +5901,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45299</v>
+        <v>45293</v>
       </c>
       <c r="B165">
-        <v>0.0006319115323856206</v>
+        <v>0.01111463956811698</v>
       </c>
       <c r="C165">
-        <v>0.003060072866091446</v>
+        <v>-0.01108916793978465</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
@@ -5925,69 +5915,69 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45296</v>
+        <v>45288</v>
       </c>
       <c r="B166">
-        <v>0.01073571203031243</v>
+        <v>0.01287688442211055</v>
       </c>
       <c r="C166">
-        <v>0.006073491533689968</v>
+        <v>-6.706708198578326E-05</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45295</v>
+        <v>45287</v>
       </c>
       <c r="B167">
-        <v>-0.0228053733208371</v>
+        <v>-0.002480620155038693</v>
       </c>
       <c r="C167">
-        <v>-0.01210533447761863</v>
+        <v>0.004950087244351531</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45294</v>
+        <v>45286</v>
       </c>
       <c r="B168">
-        <v>0.006713554987212156</v>
+        <v>-0.006838669567920452</v>
       </c>
       <c r="C168">
-        <v>0.001032427259094026</v>
+        <v>0.005875573433368642</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45293</v>
+        <v>45282</v>
       </c>
       <c r="B169">
-        <v>0.01111463956811698</v>
+        <v>-0.01032863849765253</v>
       </c>
       <c r="C169">
-        <v>-0.01108916793978465</v>
+        <v>0.00431980148583011</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45288</v>
+        <v>45281</v>
       </c>
       <c r="B170">
-        <v>0.01287688442211055</v>
+        <v>-0.01549652118912093</v>
       </c>
       <c r="C170">
-        <v>-6.706708198578326E-05</v>
+        <v>0.01053484602917343</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -5995,13 +5985,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45287</v>
+        <v>45280</v>
       </c>
       <c r="B171">
-        <v>-0.002480620155038693</v>
+        <v>-0.006745904272405956</v>
       </c>
       <c r="C171">
-        <v>0.004950087244351531</v>
+        <v>-0.007940781639881433</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
@@ -6009,13 +5999,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45286</v>
+        <v>45279</v>
       </c>
       <c r="B172">
-        <v>-0.006838669567920452</v>
+        <v>0.01034928848641647</v>
       </c>
       <c r="C172">
-        <v>0.005875573433368642</v>
+        <v>0.005851209911202027</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
@@ -6023,13 +6013,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45282</v>
+        <v>45278</v>
       </c>
       <c r="B173">
-        <v>-0.01032863849765253</v>
+        <v>-0.0003201024327784685</v>
       </c>
       <c r="C173">
-        <v>0.00431980148583011</v>
+        <v>0.006812752982019665</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
@@ -6037,13 +6027,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45281</v>
+        <v>45275</v>
       </c>
       <c r="B174">
-        <v>-0.01549652118912093</v>
+        <v>-0.005123278898495065</v>
       </c>
       <c r="C174">
-        <v>0.01053484602917343</v>
+        <v>-0.004929609758334452</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
@@ -6051,13 +6041,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45280</v>
+        <v>45274</v>
       </c>
       <c r="B175">
-        <v>-0.006745904272405956</v>
+        <v>0.004505954296749382</v>
       </c>
       <c r="C175">
-        <v>-0.007940781639881433</v>
+        <v>0.01063607924921794</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
@@ -6065,13 +6055,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45279</v>
+        <v>45273</v>
       </c>
       <c r="B176">
-        <v>0.01034928848641647</v>
+        <v>-0.008330663248958703</v>
       </c>
       <c r="C176">
-        <v>0.005851209911202027</v>
+        <v>0.02422410860501722</v>
       </c>
       <c r="D176" t="s">
         <v>11</v>
@@ -6079,13 +6069,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45278</v>
+        <v>45272</v>
       </c>
       <c r="B177">
-        <v>-0.0003201024327784685</v>
+        <v>-0.02940226171243943</v>
       </c>
       <c r="C177">
-        <v>0.006812752982019665</v>
+        <v>-0.004042043556367947</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
@@ -6093,13 +6083,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45275</v>
+        <v>45271</v>
       </c>
       <c r="B178">
-        <v>-0.005123278898495065</v>
+        <v>0.004993342210386276</v>
       </c>
       <c r="C178">
-        <v>-0.004929609758334452</v>
+        <v>-0.001400538184336053</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
@@ -6107,13 +6097,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45274</v>
+        <v>45268</v>
       </c>
       <c r="B179">
-        <v>0.004505954296749382</v>
+        <v>0.006955945677376452</v>
       </c>
       <c r="C179">
-        <v>0.01063607924921794</v>
+        <v>0.008602491865725037</v>
       </c>
       <c r="D179" t="s">
         <v>11</v>
@@ -6121,13 +6111,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45273</v>
+        <v>45267</v>
       </c>
       <c r="B180">
-        <v>-0.008330663248958703</v>
+        <v>-0.01249999999999996</v>
       </c>
       <c r="C180">
-        <v>0.02422410860501722</v>
+        <v>0.003080646060036774</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
@@ -6135,13 +6125,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45272</v>
+        <v>45266</v>
       </c>
       <c r="B181">
-        <v>-0.02940226171243943</v>
+        <v>-0.01099267155229844</v>
       </c>
       <c r="C181">
-        <v>-0.004042043556367947</v>
+        <v>-0.01008644397689573</v>
       </c>
       <c r="D181" t="s">
         <v>11</v>
@@ -6149,13 +6139,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45271</v>
+        <v>45265</v>
       </c>
       <c r="B182">
-        <v>0.004993342210386276</v>
+        <v>0.008757157292017537</v>
       </c>
       <c r="C182">
-        <v>-0.001400538184336053</v>
+        <v>0.0007886248748059099</v>
       </c>
       <c r="D182" t="s">
         <v>11</v>
@@ -6163,13 +6153,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45268</v>
+        <v>45264</v>
       </c>
       <c r="B183">
-        <v>0.006955945677376452</v>
+        <v>-0.00801335559265437</v>
       </c>
       <c r="C183">
-        <v>0.008602491865725037</v>
+        <v>-0.01014808396368549</v>
       </c>
       <c r="D183" t="s">
         <v>11</v>
@@ -6177,13 +6167,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45267</v>
+        <v>45261</v>
       </c>
       <c r="B184">
-        <v>-0.01249999999999996</v>
+        <v>-0.001346348030966005</v>
       </c>
       <c r="C184">
-        <v>0.003080646060036774</v>
+        <v>0.006062938326095058</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
@@ -6191,69 +6181,69 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45266</v>
+        <v>45260</v>
       </c>
       <c r="B185">
-        <v>-0.01099267155229844</v>
+        <v>0.002359285473542139</v>
       </c>
       <c r="C185">
-        <v>-0.01008644397689573</v>
+        <v>0.00975408601042016</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45265</v>
+        <v>45259</v>
       </c>
       <c r="B186">
-        <v>0.008757157292017537</v>
+        <v>-0.01513113651647613</v>
       </c>
       <c r="C186">
-        <v>0.0007886248748059099</v>
+        <v>-0.003453508037111419</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45264</v>
+        <v>45258</v>
       </c>
       <c r="B187">
-        <v>-0.00801335559265437</v>
+        <v>-0.006828269033799961</v>
       </c>
       <c r="C187">
-        <v>-0.01014808396368549</v>
+        <v>0.006802829340483596</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45261</v>
+        <v>45257</v>
       </c>
       <c r="B188">
-        <v>-0.001346348030966005</v>
+        <v>-0.009625300790649716</v>
       </c>
       <c r="C188">
-        <v>0.006062938326095058</v>
+        <v>0.001123130107852255</v>
       </c>
       <c r="D188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45260</v>
+        <v>45254</v>
       </c>
       <c r="B189">
-        <v>0.002359285473542139</v>
+        <v>0.002429711905588272</v>
       </c>
       <c r="C189">
-        <v>0.00975408601042016</v>
+        <v>-0.008169005182657063</v>
       </c>
       <c r="D189" t="s">
         <v>12</v>
@@ -6261,13 +6251,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45259</v>
+        <v>45253</v>
       </c>
       <c r="B190">
-        <v>-0.01513113651647613</v>
+        <v>0.005540166204986097</v>
       </c>
       <c r="C190">
-        <v>-0.003453508037111419</v>
+        <v>0.004292458444083103</v>
       </c>
       <c r="D190" t="s">
         <v>12</v>
@@ -6275,13 +6265,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45258</v>
+        <v>45252</v>
       </c>
       <c r="B191">
-        <v>-0.006828269033799961</v>
+        <v>0.001377410468319518</v>
       </c>
       <c r="C191">
-        <v>0.006802829340483596</v>
+        <v>0.003407453406259142</v>
       </c>
       <c r="D191" t="s">
         <v>12</v>
@@ -6289,13 +6279,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45257</v>
+        <v>45251</v>
       </c>
       <c r="B192">
-        <v>-0.009625300790649716</v>
+        <v>-0.006189821182943644</v>
       </c>
       <c r="C192">
-        <v>0.001123130107852255</v>
+        <v>-0.003870097942027861</v>
       </c>
       <c r="D192" t="s">
         <v>12</v>
@@ -6303,13 +6293,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45254</v>
+        <v>45250</v>
       </c>
       <c r="B193">
-        <v>0.002429711905588272</v>
+        <v>0.001730103806228289</v>
       </c>
       <c r="C193">
-        <v>-0.008169005182657063</v>
+        <v>0.008259903088068343</v>
       </c>
       <c r="D193" t="s">
         <v>12</v>
@@ -6317,13 +6307,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>45253</v>
+        <v>45247</v>
       </c>
       <c r="B194">
-        <v>0.005540166204986097</v>
+        <v>-0.009671848013816819</v>
       </c>
       <c r="C194">
-        <v>0.004292458444083103</v>
+        <v>0.003901232982275848</v>
       </c>
       <c r="D194" t="s">
         <v>12</v>
@@ -6331,13 +6321,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>45252</v>
+        <v>45246</v>
       </c>
       <c r="B195">
-        <v>0.001377410468319518</v>
+        <v>-0.004883153121730044</v>
       </c>
       <c r="C195">
-        <v>0.003407453406259142</v>
+        <v>0.01011935651271401</v>
       </c>
       <c r="D195" t="s">
         <v>12</v>
@@ -6345,13 +6335,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>45251</v>
+        <v>45244</v>
       </c>
       <c r="B196">
-        <v>-0.006189821182943644</v>
+        <v>-0.01577287066246069</v>
       </c>
       <c r="C196">
-        <v>-0.003870097942027861</v>
+        <v>0.02452316076294281</v>
       </c>
       <c r="D196" t="s">
         <v>12</v>
@@ -6359,13 +6349,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>45250</v>
+        <v>45243</v>
       </c>
       <c r="B197">
-        <v>0.001730103806228289</v>
+        <v>-0.01460113960113951</v>
       </c>
       <c r="C197">
-        <v>0.008259903088068343</v>
+        <v>-0.002155243874133794</v>
       </c>
       <c r="D197" t="s">
         <v>12</v>
@@ -6373,13 +6363,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>45247</v>
+        <v>45240</v>
       </c>
       <c r="B198">
-        <v>-0.009671848013816819</v>
+        <v>0.006866642573183812</v>
       </c>
       <c r="C198">
-        <v>0.003901232982275848</v>
+        <v>0.01364568278829026</v>
       </c>
       <c r="D198" t="s">
         <v>12</v>
@@ -6387,13 +6377,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>45246</v>
+        <v>45239</v>
       </c>
       <c r="B199">
-        <v>-0.004883153121730044</v>
+        <v>-0.01184493898061734</v>
       </c>
       <c r="C199">
-        <v>0.01011935651271401</v>
+        <v>-0.0007304847227936895</v>
       </c>
       <c r="D199" t="s">
         <v>12</v>
@@ -6401,13 +6391,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>45244</v>
+        <v>45238</v>
       </c>
       <c r="B200">
-        <v>-0.01577287066246069</v>
+        <v>-0.004722121322194073</v>
       </c>
       <c r="C200">
-        <v>0.02452316076294281</v>
+        <v>-0.001416976892376853</v>
       </c>
       <c r="D200" t="s">
         <v>12</v>
@@ -6415,13 +6405,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>45243</v>
+        <v>45237</v>
       </c>
       <c r="B201">
-        <v>-0.01460113960113951</v>
+        <v>-0.004379562043795526</v>
       </c>
       <c r="C201">
-        <v>-0.002155243874133794</v>
+        <v>0.006591440411184424</v>
       </c>
       <c r="D201" t="s">
         <v>12</v>
@@ -6429,13 +6419,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>45240</v>
+        <v>45236</v>
       </c>
       <c r="B202">
-        <v>0.006866642573183812</v>
+        <v>-0.02712609970674495</v>
       </c>
       <c r="C202">
-        <v>0.01364568278829026</v>
+        <v>0.002767433987813206</v>
       </c>
       <c r="D202" t="s">
         <v>12</v>
@@ -6443,13 +6433,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>45239</v>
+        <v>45233</v>
       </c>
       <c r="B203">
-        <v>-0.01184493898061734</v>
+        <v>-0.009419743782969059</v>
       </c>
       <c r="C203">
-        <v>-0.0007304847227936895</v>
+        <v>0.02700494554683486</v>
       </c>
       <c r="D203" t="s">
         <v>12</v>
@@ -6457,13 +6447,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>45238</v>
+        <v>45231</v>
       </c>
       <c r="B204">
-        <v>-0.004722121322194073</v>
+        <v>-0.0266260935717002</v>
       </c>
       <c r="C204">
-        <v>-0.001416976892376853</v>
+        <v>0.0168723043201584</v>
       </c>
       <c r="D204" t="s">
         <v>12</v>
@@ -6471,69 +6461,69 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>45237</v>
+        <v>45230</v>
       </c>
       <c r="B205">
-        <v>-0.004379562043795526</v>
+        <v>-0.01406799531066816</v>
       </c>
       <c r="C205">
-        <v>0.006591440411184424</v>
+        <v>0.005438453062240001</v>
       </c>
       <c r="D205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>45236</v>
+        <v>45229</v>
       </c>
       <c r="B206">
-        <v>-0.02712609970674495</v>
+        <v>0.009908838684106192</v>
       </c>
       <c r="C206">
-        <v>0.002767433987813206</v>
+        <v>-0.006787230474576522</v>
       </c>
       <c r="D206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="B207">
-        <v>-0.009419743782969059</v>
+        <v>0.007849293563579218</v>
       </c>
       <c r="C207">
-        <v>0.02700494554683486</v>
+        <v>-0.01285971928173768</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>45231</v>
+        <v>45225</v>
       </c>
       <c r="B208">
-        <v>-0.0266260935717002</v>
+        <v>0.01518691588785059</v>
       </c>
       <c r="C208">
-        <v>0.0168723043201584</v>
+        <v>0.0172560489231588</v>
       </c>
       <c r="D208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>45230</v>
+        <v>45224</v>
       </c>
       <c r="B209">
-        <v>-0.01406799531066816</v>
+        <v>-0.02416570771001147</v>
       </c>
       <c r="C209">
-        <v>0.005438453062240001</v>
+        <v>-0.008192542325205276</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
@@ -6541,13 +6531,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>45229</v>
+        <v>45223</v>
       </c>
       <c r="B210">
-        <v>0.009908838684106192</v>
+        <v>-0.001965408805031488</v>
       </c>
       <c r="C210">
-        <v>-0.006787230474576522</v>
+        <v>0.008662499445848404</v>
       </c>
       <c r="D210" t="s">
         <v>13</v>
@@ -6555,13 +6545,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>45226</v>
+        <v>45222</v>
       </c>
       <c r="B211">
-        <v>0.007849293563579218</v>
+        <v>0</v>
       </c>
       <c r="C211">
-        <v>-0.01285971928173768</v>
+        <v>-0.00326985108921396</v>
       </c>
       <c r="D211" t="s">
         <v>13</v>
@@ -6569,13 +6559,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>45225</v>
+        <v>45219</v>
       </c>
       <c r="B212">
-        <v>0.01518691588785059</v>
+        <v>-0.001181567546278073</v>
       </c>
       <c r="C212">
-        <v>0.0172560489231588</v>
+        <v>-0.007447107119048502</v>
       </c>
       <c r="D212" t="s">
         <v>13</v>
@@ -6583,13 +6573,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>45224</v>
+        <v>45218</v>
       </c>
       <c r="B213">
-        <v>-0.02416570771001147</v>
+        <v>0.003943217665615117</v>
       </c>
       <c r="C213">
-        <v>-0.008192542325205276</v>
+        <v>-0.0004909696650885476</v>
       </c>
       <c r="D213" t="s">
         <v>13</v>
@@ -6597,13 +6587,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>45223</v>
+        <v>45217</v>
       </c>
       <c r="B214">
-        <v>-0.001965408805031488</v>
+        <v>-0.01139041633935578</v>
       </c>
       <c r="C214">
-        <v>0.008662499445848404</v>
+        <v>-0.01594367946992448</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
@@ -6611,13 +6601,13 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>45222</v>
+        <v>45216</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>0.02105681366706391</v>
       </c>
       <c r="C215">
-        <v>-0.00326985108921396</v>
+        <v>-0.005371822815658955</v>
       </c>
       <c r="D215" t="s">
         <v>13</v>
@@ -6625,13 +6615,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>45219</v>
+        <v>45215</v>
       </c>
       <c r="B216">
-        <v>-0.001181567546278073</v>
+        <v>0.01517509727626454</v>
       </c>
       <c r="C216">
-        <v>-0.007447107119048502</v>
+        <v>0.006738428045683031</v>
       </c>
       <c r="D216" t="s">
         <v>13</v>
@@ -6639,13 +6629,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="B217">
-        <v>0.003943217665615117</v>
+        <v>-0.001533154465312325</v>
       </c>
       <c r="C217">
-        <v>-0.0004909696650885476</v>
+        <v>-0.01108064006287857</v>
       </c>
       <c r="D217" t="s">
         <v>13</v>
@@ -6653,13 +6643,13 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>45217</v>
+        <v>45210</v>
       </c>
       <c r="B218">
-        <v>-0.01139041633935578</v>
+        <v>0.01036468330134355</v>
       </c>
       <c r="C218">
-        <v>-0.01594367946992448</v>
+        <v>0.002689807002064448</v>
       </c>
       <c r="D218" t="s">
         <v>13</v>
@@ -6667,13 +6657,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>45216</v>
+        <v>45209</v>
       </c>
       <c r="B219">
-        <v>0.02105681366706391</v>
+        <v>-0.01253799392097277</v>
       </c>
       <c r="C219">
-        <v>-0.005371822815658955</v>
+        <v>0.01372920212581197</v>
       </c>
       <c r="D219" t="s">
         <v>13</v>
@@ -6681,13 +6671,13 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>45215</v>
+        <v>45208</v>
       </c>
       <c r="B220">
-        <v>0.01517509727626454</v>
+        <v>0.001154290111581524</v>
       </c>
       <c r="C220">
-        <v>0.006738428045683031</v>
+        <v>0.008636244197249621</v>
       </c>
       <c r="D220" t="s">
         <v>13</v>
@@ -6695,13 +6685,13 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>45212</v>
+        <v>45205</v>
       </c>
       <c r="B221">
-        <v>-0.001533154465312325</v>
+        <v>0.008839354342813133</v>
       </c>
       <c r="C221">
-        <v>-0.01108064006287857</v>
+        <v>0.007821051516542443</v>
       </c>
       <c r="D221" t="s">
         <v>13</v>
@@ -6709,13 +6699,13 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>45210</v>
+        <v>45204</v>
       </c>
       <c r="B222">
-        <v>0.01036468330134355</v>
+        <v>-0.00952380952380949</v>
       </c>
       <c r="C222">
-        <v>0.002689807002064448</v>
+        <v>-0.002843134665997726</v>
       </c>
       <c r="D222" t="s">
         <v>13</v>
@@ -6723,13 +6713,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>45209</v>
+        <v>45203</v>
       </c>
       <c r="B223">
-        <v>-0.01253799392097277</v>
+        <v>-0.01538461538461533</v>
       </c>
       <c r="C223">
-        <v>0.01372920212581197</v>
+        <v>0.001657570601045766</v>
       </c>
       <c r="D223" t="s">
         <v>13</v>
@@ -6737,13 +6727,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>45208</v>
+        <v>45202</v>
       </c>
       <c r="B224">
-        <v>0.001154290111581524</v>
+        <v>-0.02265625000000004</v>
       </c>
       <c r="C224">
-        <v>0.008636244197249621</v>
+        <v>-0.01423642194738262</v>
       </c>
       <c r="D224" t="s">
         <v>13</v>
@@ -6751,13 +6741,13 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>45205</v>
+        <v>45201</v>
       </c>
       <c r="B225">
-        <v>0.008839354342813133</v>
+        <v>0.01278976818545163</v>
       </c>
       <c r="C225">
-        <v>0.007821051516542443</v>
+        <v>-0.01293698794663922</v>
       </c>
       <c r="D225" t="s">
         <v>13</v>
@@ -6765,69 +6755,69 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>45204</v>
+        <v>45198</v>
       </c>
       <c r="B226">
-        <v>-0.00952380952380949</v>
+        <v>0.009471191791633693</v>
       </c>
       <c r="C226">
-        <v>-0.002843134665997726</v>
+        <v>0.007206366487803706</v>
       </c>
       <c r="D226" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>45203</v>
+        <v>45197</v>
       </c>
       <c r="B227">
-        <v>-0.01538461538461533</v>
+        <v>0.001563721657545036</v>
       </c>
       <c r="C227">
-        <v>0.001657570601045766</v>
+        <v>0.01228056364638275</v>
       </c>
       <c r="D227" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>45202</v>
+        <v>45196</v>
       </c>
       <c r="B228">
-        <v>-0.02265625000000004</v>
+        <v>-0.02576112412177989</v>
       </c>
       <c r="C228">
-        <v>-0.01423642194738262</v>
+        <v>0.00117345196290497</v>
       </c>
       <c r="D228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>45201</v>
+        <v>45195</v>
       </c>
       <c r="B229">
-        <v>0.01278976818545163</v>
+        <v>0.002003205128205066</v>
       </c>
       <c r="C229">
-        <v>-0.01293698794663922</v>
+        <v>-0.01494069441449208</v>
       </c>
       <c r="D229" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>45198</v>
+        <v>45194</v>
       </c>
       <c r="B230">
-        <v>0.009471191791633693</v>
+        <v>0.01479408236705315</v>
       </c>
       <c r="C230">
-        <v>0.007206366487803706</v>
+        <v>-0.0007240817522778942</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
@@ -6835,13 +6825,13 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>45197</v>
+        <v>45191</v>
       </c>
       <c r="B231">
-        <v>0.001563721657545036</v>
+        <v>-0.002758077226162392</v>
       </c>
       <c r="C231">
-        <v>0.01228056364638275</v>
+        <v>-0.001170950105471635</v>
       </c>
       <c r="D231" t="s">
         <v>14</v>
@@ -6849,13 +6839,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>45196</v>
+        <v>45190</v>
       </c>
       <c r="B232">
-        <v>-0.02576112412177989</v>
+        <v>0.00276570525483999</v>
       </c>
       <c r="C232">
-        <v>0.00117345196290497</v>
+        <v>-0.02148363452546442</v>
       </c>
       <c r="D232" t="s">
         <v>14</v>
@@ -6863,13 +6853,13 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>45195</v>
+        <v>45189</v>
       </c>
       <c r="B233">
-        <v>0.002003205128205066</v>
+        <v>0.02324665090622546</v>
       </c>
       <c r="C233">
-        <v>-0.01494069441449208</v>
+        <v>0.007204317499108992</v>
       </c>
       <c r="D233" t="s">
         <v>14</v>
@@ -6877,13 +6867,13 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>45194</v>
+        <v>45188</v>
       </c>
       <c r="B234">
-        <v>0.01479408236705315</v>
+        <v>-0.01655756642279549</v>
       </c>
       <c r="C234">
-        <v>-0.0007240817522778942</v>
+        <v>-0.003736642770188037</v>
       </c>
       <c r="D234" t="s">
         <v>14</v>
@@ -6891,13 +6881,13 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>45191</v>
+        <v>45187</v>
       </c>
       <c r="B235">
-        <v>-0.002758077226162392</v>
+        <v>0.002740798747063344</v>
       </c>
       <c r="C235">
-        <v>-0.001170950105471635</v>
+        <v>-0.003957628117684742</v>
       </c>
       <c r="D235" t="s">
         <v>14</v>
@@ -6905,13 +6895,13 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>45190</v>
+        <v>45184</v>
       </c>
       <c r="B236">
-        <v>0.00276570525483999</v>
+        <v>0.002733307301835186</v>
       </c>
       <c r="C236">
-        <v>-0.02148363452546442</v>
+        <v>-0.0053102385419459</v>
       </c>
       <c r="D236" t="s">
         <v>14</v>
@@ -6919,13 +6909,13 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>45189</v>
+        <v>45183</v>
       </c>
       <c r="B237">
-        <v>0.02324665090622546</v>
+        <v>0.001947040498442298</v>
       </c>
       <c r="C237">
-        <v>0.007204317499108992</v>
+        <v>0.01028973734091521</v>
       </c>
       <c r="D237" t="s">
         <v>14</v>
@@ -6933,13 +6923,13 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>45188</v>
+        <v>45182</v>
       </c>
       <c r="B238">
-        <v>-0.01655756642279549</v>
+        <v>0.003886513797123792</v>
       </c>
       <c r="C238">
-        <v>-0.003736642770188037</v>
+        <v>0.00176319001763181</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
@@ -6947,13 +6937,13 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>45187</v>
+        <v>45181</v>
       </c>
       <c r="B239">
-        <v>0.002740798747063344</v>
+        <v>-0.005032907471931858</v>
       </c>
       <c r="C239">
-        <v>-0.003957628117684742</v>
+        <v>0.009282787060564734</v>
       </c>
       <c r="D239" t="s">
         <v>14</v>
@@ -6961,13 +6951,13 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>45184</v>
+        <v>45180</v>
       </c>
       <c r="B240">
-        <v>0.002733307301835186</v>
+        <v>-0.005447470817120603</v>
       </c>
       <c r="C240">
-        <v>-0.0053102385419459</v>
+        <v>0.01361511711602326</v>
       </c>
       <c r="D240" t="s">
         <v>14</v>
@@ -6975,13 +6965,13 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>45183</v>
+        <v>45177</v>
       </c>
       <c r="B241">
-        <v>0.001947040498442298</v>
+        <v>-0.07014925373134329</v>
       </c>
       <c r="C241">
-        <v>0.01028973734091521</v>
+        <v>-0.005793852653360299</v>
       </c>
       <c r="D241" t="s">
         <v>14</v>
@@ -6989,13 +6979,13 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>45182</v>
+        <v>45175</v>
       </c>
       <c r="B242">
-        <v>0.003886513797123792</v>
+        <v>-0.00160513643659721</v>
       </c>
       <c r="C242">
-        <v>0.00176319001763181</v>
+        <v>-0.0114718190418559</v>
       </c>
       <c r="D242" t="s">
         <v>14</v>
@@ -7003,13 +6993,13 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>45181</v>
+        <v>45174</v>
       </c>
       <c r="B243">
-        <v>-0.005032907471931858</v>
+        <v>0.010048231511254</v>
       </c>
       <c r="C243">
-        <v>0.009282787060564734</v>
+        <v>-0.003786817460115333</v>
       </c>
       <c r="D243" t="s">
         <v>14</v>
@@ -7017,13 +7007,13 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>45180</v>
+        <v>45173</v>
       </c>
       <c r="B244">
-        <v>-0.005447470817120603</v>
+        <v>0.01512136888181459</v>
       </c>
       <c r="C244">
-        <v>0.01361511711602326</v>
+        <v>-0.0009839430670184335</v>
       </c>
       <c r="D244" t="s">
         <v>14</v>
@@ -7031,13 +7021,13 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>45177</v>
+        <v>45170</v>
       </c>
       <c r="B245">
-        <v>-0.07014925373134329</v>
+        <v>-0.06941431670282006</v>
       </c>
       <c r="C245">
-        <v>-0.005793852653360299</v>
+        <v>0.01858443780131669</v>
       </c>
       <c r="D245" t="s">
         <v>14</v>
@@ -7045,71 +7035,57 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>45175</v>
+        <v>45169</v>
       </c>
       <c r="B246">
-        <v>-0.00160513643659721</v>
+        <v>-0.008547008547008517</v>
       </c>
       <c r="C246">
-        <v>-0.0114718190418559</v>
+        <v>-0.01525503041647169</v>
       </c>
       <c r="D246" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>45174</v>
+        <v>45168</v>
       </c>
       <c r="B247">
-        <v>0.010048231511254</v>
+        <v>0.008620689655172376</v>
       </c>
       <c r="C247">
-        <v>-0.003786817460115333</v>
+        <v>-0.007339279078409477</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>45173</v>
+        <v>45167</v>
       </c>
       <c r="B248">
-        <v>0.01512136888181459</v>
+        <v>0.01981351981351986</v>
       </c>
       <c r="C248">
-        <v>-0.0009839430670184335</v>
+        <v>0.01095448297060297</v>
       </c>
       <c r="D248" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>45170</v>
+        <v>45166</v>
       </c>
       <c r="B249">
-        <v>-0.06941431670282006</v>
+        <v>-0.01561904761904764</v>
       </c>
       <c r="C249">
-        <v>0.01858443780131669</v>
+        <v>0.01108454120876745</v>
       </c>
       <c r="D249" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
-        <v>45169</v>
-      </c>
-      <c r="B250">
-        <v>-0.008547008547008517</v>
-      </c>
-      <c r="C250">
-        <v>-0.01525503041647169</v>
-      </c>
-      <c r="D250" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7127,7 +7103,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7140,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.08324388512686424</v>
+        <v>-0.08241950177914951</v>
       </c>
     </row>
   </sheetData>
